--- a/data/OI_product_map.xlsx
+++ b/data/OI_product_map.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D143D208-641E-4017-A32B-D136554E3FEF}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B6FB77D-6365-4B1C-B3C8-2D9E7E4381F9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="38640" windowHeight="15840" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$H$63</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="124">
   <si>
     <t>Product Family</t>
   </si>
@@ -405,6 +408,9 @@
   </si>
   <si>
     <t>Symbol Description</t>
+  </si>
+  <si>
+    <t>spread</t>
   </si>
 </sst>
 </file>
@@ -803,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,10 +820,12 @@
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="96.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="96.140625" customWidth="1"/>
+    <col min="8" max="8" width="107.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -830,14 +838,17 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -851,15 +862,22 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT("'",D2,"',")</f>
+        <v>'SMT',</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F33" si="0">_xlfn.CONCAT(D2," (",E2, ")")</f>
+      <c r="H2" t="str">
+        <f>_xlfn.CONCAT(D2," (",G2, ")")</f>
         <v>SMT (Singapore Mogas 92 Unleaded Swap)</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -867,21 +885,28 @@
         <v>5</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C63" si="1">_xlfn.CONCAT("[",A3,"] ",B3)</f>
+        <f t="shared" ref="C3:C63" si="0">_xlfn.CONCAT("[",A3,"] ",B3)</f>
         <v>[Light] S92</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E63" si="1">_xlfn.CONCAT("'",D3,"',")</f>
+        <v>'GDK',</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>75</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" si="0"/>
+      <c r="H3" t="str">
+        <f>_xlfn.CONCAT(D3," (",G3, ")")</f>
         <v>GDK (Gasoline Diff - Singapore Mogas 92 Unleaded (Platts) vs Argus Eurobob Oxy FOB Rotterdam Barges Future)</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -889,21 +914,28 @@
         <v>5</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Light] S92</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>'STB',</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>76</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
+      <c r="H4" t="str">
+        <f>_xlfn.CONCAT(D4," (",G4, ")")</f>
         <v>STB (Singapore Mogas 92 Unleaded vs Brent 1st Line Future)</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -911,21 +943,28 @@
         <v>9</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Light] Ebob</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>'AEO',</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
+      <c r="H5" t="str">
+        <f>_xlfn.CONCAT(D5," (",G5, ")")</f>
         <v>AEO (Argus Eurobob Oxy FOB Rotterdam Barges Future)</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -933,21 +972,28 @@
         <v>9</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Light] Ebob</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>'GDK',</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>75</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
+      <c r="H6" t="str">
+        <f>_xlfn.CONCAT(D6," (",G6, ")")</f>
         <v>GDK (Gasoline Diff - Singapore Mogas 92 Unleaded (Platts) vs Argus Eurobob Oxy FOB Rotterdam Barges Future)</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -955,21 +1001,28 @@
         <v>9</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Light] Ebob</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>'EOB',</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>77</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
+      <c r="H7" t="str">
+        <f>_xlfn.CONCAT(D7," (",G7, ")")</f>
         <v>EOB (Gasoline Crack - Argus Eurobob Oxy FOB Rotterdam Barges vs Brent 1st Line Future)</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -977,21 +1030,28 @@
         <v>9</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Light] Ebob</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>'GDO',</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>78</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
+      <c r="H8" t="str">
+        <f>_xlfn.CONCAT(D8," (",G8, ")")</f>
         <v>GDO (Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future)</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -999,21 +1059,28 @@
         <v>9</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Light] Ebob</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>'EON',</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>79</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
+      <c r="H9" t="str">
+        <f>_xlfn.CONCAT(D9," (",G9, ")")</f>
         <v>EON (Argus Eurobob OXY FOB Rotterdam Barges VS Platts Naphtha CIF NWE Cargoes Future)</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1021,21 +1088,28 @@
         <v>15</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Light] Rbob</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>'UHU',</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>80</v>
       </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
+      <c r="H10" t="str">
+        <f>_xlfn.CONCAT(D10," (",G10, ")")</f>
         <v>UHU (NYH (RBOB) Gasoline Futures)</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1043,21 +1117,28 @@
         <v>15</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Light] Rbob</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>'RBS',</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
         <v>81</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT(D11," (",G11, ")")</f>
         <v>RBS (RBOB Gasoline 1st Line Future)</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1065,21 +1146,28 @@
         <v>15</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Light] Rbob</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>'RBR',</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
         <v>82</v>
       </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT(D12," (",G12, ")")</f>
         <v>RBR (Gasoline Crack - RBOB Gasoline 1st Line vs Brent 1st Line Future (in bbls))</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1087,21 +1175,28 @@
         <v>15</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Light] Rbob</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>'GDO',</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
         <v>78</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT(D13," (",G13, ")")</f>
         <v>GDO (Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future)</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1109,21 +1204,28 @@
         <v>19</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Light] MOPJ Naph</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>'NJC',</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>83</v>
       </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
+      <c r="H14" t="str">
+        <f>_xlfn.CONCAT(D14," (",G14, ")")</f>
         <v>NJC (Naphtha C+F Japan Cargo Swap)</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1131,21 +1233,28 @@
         <v>19</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Light] MOPJ Naph</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>'NBG',</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
         <v>84</v>
       </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
+      <c r="H15" t="str">
+        <f>_xlfn.CONCAT(D15," (",G15, ")")</f>
         <v>NBG (Naphtha Crack - Naphtha C+F Japan (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1153,21 +1262,28 @@
         <v>19</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Light] MOPJ Naph</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>'JOE',</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
         <v>85</v>
       </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
+      <c r="H16" t="str">
+        <f>_xlfn.CONCAT(D16," (",G16, ")")</f>
         <v>JOE (Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future)</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1175,21 +1291,28 @@
         <v>23</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Light] NWE Naph</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>'NEC',</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
         <v>86</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
+      <c r="H17" t="str">
+        <f>_xlfn.CONCAT(D17," (",G17, ")")</f>
         <v>NEC (Naphtha CIF NWE Cargoes Swap)</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1197,21 +1320,28 @@
         <v>23</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Light] NWE Naph</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>'JOE',</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
         <v>85</v>
       </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
+      <c r="H18" t="str">
+        <f>_xlfn.CONCAT(D18," (",G18, ")")</f>
         <v>JOE (Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future)</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1219,21 +1349,28 @@
         <v>23</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Light] NWE Naph</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>'NOB',</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
         <v>87</v>
       </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
+      <c r="H19" t="str">
+        <f>_xlfn.CONCAT(D19," (",G19, ")")</f>
         <v>NOB (Naphtha CIF NWE Cargoes vs Brent 1st Line Swap)</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1241,21 +1378,28 @@
         <v>23</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Light] NWE Naph</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>'EON',</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
         <v>79</v>
       </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
+      <c r="H20" t="str">
+        <f>_xlfn.CONCAT(D20," (",G20, ")")</f>
         <v>EON (Argus Eurobob OXY FOB Rotterdam Barges VS Platts Naphtha CIF NWE Cargoes Future)</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1263,21 +1407,28 @@
         <v>27</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] SGO</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>'GST.J',</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>88</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
+      <c r="H21" t="str">
+        <f>_xlfn.CONCAT(D21," (",G21, ")")</f>
         <v>GST.J (Singapore Gasoil Swap)</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1285,21 +1436,28 @@
         <v>27</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] SGO</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>'SGB',</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
         <v>89</v>
       </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
+      <c r="H22" t="str">
+        <f>_xlfn.CONCAT(D22," (",G22, ")")</f>
         <v>SGB (Gasoil Crack - Singapore Gasoil (Platts) vs Brent 1st Line Future)</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1307,21 +1465,28 @@
         <v>27</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] SGO</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>'BAO',</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
         <v>90</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
+      <c r="H23" t="str">
+        <f>_xlfn.CONCAT(D23," (",G23, ")")</f>
         <v>BAO (Gasoil Crack - Singapore Gasoil (Platts) vs Dubai 1st Line (Platts) Future)</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1329,21 +1494,28 @@
         <v>27</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] SGO</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>'BAP',</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
         <v>91</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
+      <c r="H24" t="str">
+        <f>_xlfn.CONCAT(D24," (",G24, ")")</f>
         <v>BAP (Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1351,21 +1523,28 @@
         <v>27</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] SGO</v>
       </c>
       <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>'BAQ',</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
         <v>92</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
+      <c r="H25" t="str">
+        <f>_xlfn.CONCAT(D25," (",G25, ")")</f>
         <v>BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1373,21 +1552,28 @@
         <v>33</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] ICEGO</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>'GAS',</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
         <v>93</v>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
+      <c r="H26" t="str">
+        <f>_xlfn.CONCAT(D26," (",G26, ")")</f>
         <v>GAS (Low Sulphur Gasoil Futures)</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1395,21 +1581,28 @@
         <v>33</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] ICEGO</v>
       </c>
       <c r="D27" t="s">
         <v>35</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>'ULA',</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
         <v>94</v>
       </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
+      <c r="H27" t="str">
+        <f>_xlfn.CONCAT(D27," (",G27, ")")</f>
         <v>ULA (Low Sulphur Gasoil 1st Line Future)</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1417,21 +1610,28 @@
         <v>33</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] ICEGO</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>'ULD',</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
         <v>95</v>
       </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
+      <c r="H28" t="str">
+        <f>_xlfn.CONCAT(D28," (",G28, ")")</f>
         <v>ULD (Gasoil Crack - Low Sulphur Gasoil 1st Line vs Brent 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1439,21 +1639,28 @@
         <v>33</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] ICEGO</v>
       </c>
       <c r="D29" t="s">
         <v>37</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>'ULJ',</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
         <v>96</v>
       </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
+      <c r="H29" t="str">
+        <f>_xlfn.CONCAT(D29," (",G29, ")")</f>
         <v>ULJ (Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future)</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1461,21 +1668,28 @@
         <v>33</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] ICEGO</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>'BAP',</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
         <v>91</v>
       </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
+      <c r="H30" t="str">
+        <f>_xlfn.CONCAT(D30," (",G30, ")")</f>
         <v>BAP (Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1483,21 +1697,28 @@
         <v>33</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] ICEGO</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>'ULM',</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
         <v>97</v>
       </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
+      <c r="H31" t="str">
+        <f>_xlfn.CONCAT(D31," (",G31, ")")</f>
         <v>ULM (Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1505,21 +1726,28 @@
         <v>39</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] SKO</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>'SRS',</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
         <v>98</v>
       </c>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
+      <c r="H32" t="str">
+        <f>_xlfn.CONCAT(D32," (",G32, ")")</f>
         <v>SRS (Singapore Jet Kerosene Swap)</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1527,21 +1755,28 @@
         <v>39</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] SKO</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>'SFF',</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
         <v>99</v>
       </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
+      <c r="H33" t="str">
+        <f>_xlfn.CONCAT(D33," (",G33, ")")</f>
         <v>SFF (Jet Fuel Crack - Singapore Jet Kerosene Cargoes (Platts) vs Dubai 1st Line (Platts) Future)</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1549,21 +1784,28 @@
         <v>39</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] SKO</v>
       </c>
       <c r="D34" t="s">
         <v>32</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>'BAQ',</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
         <v>92</v>
       </c>
-      <c r="F34" t="str">
-        <f t="shared" ref="F34:F65" si="2">_xlfn.CONCAT(D34," (",E34, ")")</f>
+      <c r="H34" t="str">
+        <f>_xlfn.CONCAT(D34," (",G34, ")")</f>
         <v>BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1571,21 +1813,28 @@
         <v>42</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] NWE Jet</v>
       </c>
       <c r="D35" t="s">
         <v>43</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>'JCN',</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
         <v>100</v>
       </c>
-      <c r="F35" t="str">
-        <f t="shared" si="2"/>
+      <c r="H35" t="str">
+        <f>_xlfn.CONCAT(D35," (",G35, ")")</f>
         <v>JCN (Jet CIF NWE Cargoes Future)</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1593,21 +1842,28 @@
         <v>42</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] NWE Jet</v>
       </c>
       <c r="D36" t="s">
         <v>44</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>'JNB',</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
         <v>101</v>
       </c>
-      <c r="F36" t="str">
-        <f t="shared" si="2"/>
+      <c r="H36" t="str">
+        <f>_xlfn.CONCAT(D36," (",G36, ")")</f>
         <v>JNB (Jet Fuel Crack - Jet CIF NWE Cargoes vs Brent 1st Line Future)</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1615,21 +1871,28 @@
         <v>42</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] NWE Jet</v>
       </c>
       <c r="D37" t="s">
         <v>37</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>'ULJ',</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
         <v>96</v>
       </c>
-      <c r="F37" t="str">
-        <f t="shared" si="2"/>
+      <c r="H37" t="str">
+        <f>_xlfn.CONCAT(D37," (",G37, ")")</f>
         <v>ULJ (Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future)</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>26</v>
       </c>
@@ -1637,21 +1900,28 @@
         <v>42</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] NWE Jet</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>'JRJ',</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
         <v>46</v>
       </c>
-      <c r="F38" t="str">
-        <f t="shared" si="2"/>
+      <c r="H38" t="str">
+        <f>_xlfn.CONCAT(D38," (",G38, ")")</f>
         <v>JRJ (Jet Fuel Diff - Jet FOB Rotterdam Barges vs Jet CIF NWE Cargoes Future)</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1659,21 +1929,28 @@
         <v>47</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] HO</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>'UHO',</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
         <v>102</v>
       </c>
-      <c r="F39" t="str">
-        <f t="shared" si="2"/>
+      <c r="H39" t="str">
+        <f>_xlfn.CONCAT(D39," (",G39, ")")</f>
         <v>UHO (Heating Oil Futures)</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1681,21 +1958,28 @@
         <v>47</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] HO</v>
       </c>
       <c r="D40" t="s">
         <v>49</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>'HOF',</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
         <v>103</v>
       </c>
-      <c r="F40" t="str">
-        <f t="shared" si="2"/>
+      <c r="H40" t="str">
+        <f>_xlfn.CONCAT(D40," (",G40, ")")</f>
         <v>HOF (Heating Oil 1st Line Future)</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1703,21 +1987,28 @@
         <v>47</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] HO</v>
       </c>
       <c r="D41" t="s">
         <v>50</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>'HBT',</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
         <v>104</v>
       </c>
-      <c r="F41" t="str">
-        <f t="shared" si="2"/>
+      <c r="H41" t="str">
+        <f>_xlfn.CONCAT(D41," (",G41, ")")</f>
         <v>HBT (Heating Oil Crack - Heating Oil 1st Line vs Brent 1st Line Future (in bbls))</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1725,21 +2016,28 @@
         <v>47</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Middle] HO</v>
       </c>
       <c r="D42" t="s">
         <v>38</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>'ULM',</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
         <v>97</v>
       </c>
-      <c r="F42" t="str">
-        <f t="shared" si="2"/>
+      <c r="H42" t="str">
+        <f>_xlfn.CONCAT(D42," (",G42, ")")</f>
         <v>ULM (Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1747,21 +2045,28 @@
         <v>52</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] S0.5</v>
       </c>
       <c r="D43" t="s">
         <v>53</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>'MF4',</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
         <v>105</v>
       </c>
-      <c r="F43" t="str">
-        <f t="shared" si="2"/>
+      <c r="H43" t="str">
+        <f>_xlfn.CONCAT(D43," (",G43, ")")</f>
         <v>MF4 (Marine Fuel 0.5% FOB Singapore Swap)</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -1769,21 +2074,28 @@
         <v>52</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] S0.5</v>
       </c>
       <c r="D44" t="s">
         <v>54</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>'MFT',</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
         <v>106</v>
       </c>
-      <c r="F44" t="str">
-        <f t="shared" si="2"/>
+      <c r="H44" t="str">
+        <f>_xlfn.CONCAT(D44," (",G44, ")")</f>
         <v>MFT (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1791,21 +2103,28 @@
         <v>52</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] S0.5</v>
       </c>
       <c r="D45" t="s">
         <v>55</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>'TEN',</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
         <v>107</v>
       </c>
-      <c r="F45" t="str">
-        <f t="shared" si="2"/>
+      <c r="H45" t="str">
+        <f>_xlfn.CONCAT(D45," (",G45, ")")</f>
         <v>TEN (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in MTs))</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1813,21 +2132,28 @@
         <v>52</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] S0.5</v>
       </c>
       <c r="D46" t="s">
         <v>56</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>'MF6',</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
         <v>108</v>
       </c>
-      <c r="F46" t="str">
-        <f t="shared" si="2"/>
+      <c r="H46" t="str">
+        <f>_xlfn.CONCAT(D46," (",G46, ")")</f>
         <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1835,21 +2161,28 @@
         <v>52</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] S0.5</v>
       </c>
       <c r="D47" t="s">
         <v>57</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>'MF7',</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
         <v>109</v>
       </c>
-      <c r="F47" t="str">
-        <f t="shared" si="2"/>
+      <c r="H47" t="str">
+        <f>_xlfn.CONCAT(D47," (",G47, ")")</f>
         <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1857,21 +2190,28 @@
         <v>52</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] S0.5</v>
       </c>
       <c r="D48" t="s">
         <v>58</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>'FDF',</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
         <v>110</v>
       </c>
-      <c r="F48" t="str">
-        <f t="shared" si="2"/>
+      <c r="H48" t="str">
+        <f>_xlfn.CONCAT(D48," (",G48, ")")</f>
         <v>FDF (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Singapore Gasoil (Platts) Future (in MTs))</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1879,21 +2219,28 @@
         <v>59</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D49" t="s">
         <v>60</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>'MF3',</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
         <v>111</v>
       </c>
-      <c r="F49" t="str">
-        <f t="shared" si="2"/>
+      <c r="H49" t="str">
+        <f>_xlfn.CONCAT(D49," (",G49, ")")</f>
         <v>MF3 (Marine Fuel 0.5% FOB Rotterdam Barge Swap)</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1901,21 +2248,28 @@
         <v>59</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D50" t="s">
         <v>61</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>'MF5',</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
         <v>112</v>
       </c>
-      <c r="F50" t="str">
-        <f t="shared" si="2"/>
+      <c r="H50" t="str">
+        <f>_xlfn.CONCAT(D50," (",G50, ")")</f>
         <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1923,21 +2277,28 @@
         <v>59</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D51" t="s">
         <v>62</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v>'MFR',</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
         <v>113</v>
       </c>
-      <c r="F51" t="str">
-        <f t="shared" si="2"/>
+      <c r="H51" t="str">
+        <f>_xlfn.CONCAT(D51," (",G51, ")")</f>
         <v>MFR (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1945,21 +2306,28 @@
         <v>59</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D52" t="s">
         <v>63</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>'TEO',</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
         <v>114</v>
       </c>
-      <c r="F52" t="str">
-        <f t="shared" si="2"/>
+      <c r="H52" t="str">
+        <f>_xlfn.CONCAT(D52," (",G52, ")")</f>
         <v>TEO (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in MTs))</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1967,21 +2335,28 @@
         <v>59</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D53" t="s">
         <v>57</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v>'MF7',</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
         <v>109</v>
       </c>
-      <c r="F53" t="str">
-        <f t="shared" si="2"/>
+      <c r="H53" t="str">
+        <f>_xlfn.CONCAT(D53," (",G53, ")")</f>
         <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -1989,21 +2364,28 @@
         <v>64</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] S380</v>
       </c>
       <c r="D54" t="s">
         <v>65</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v>'SYS',</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
         <v>115</v>
       </c>
-      <c r="F54" t="str">
-        <f t="shared" si="2"/>
+      <c r="H54" t="str">
+        <f>_xlfn.CONCAT(D54," (",G54, ")")</f>
         <v>SYS (Fuel Oil 380 CST Singapore Swap)</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -2011,21 +2393,28 @@
         <v>64</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] S380</v>
       </c>
       <c r="D55" t="s">
         <v>66</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v>'SPS',</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
         <v>116</v>
       </c>
-      <c r="F55" t="str">
-        <f t="shared" si="2"/>
+      <c r="H55" t="str">
+        <f>_xlfn.CONCAT(D55," (",G55, ")")</f>
         <v>SPS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Brent 1st Line Future)</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -2033,21 +2422,28 @@
         <v>64</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] S380</v>
       </c>
       <c r="D56" t="s">
         <v>67</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v>'SLS',</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
         <v>117</v>
       </c>
-      <c r="F56" t="str">
-        <f t="shared" si="2"/>
+      <c r="H56" t="str">
+        <f>_xlfn.CONCAT(D56," (",G56, ")")</f>
         <v>SLS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Dubai 1st Line Future)</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -2055,21 +2451,28 @@
         <v>64</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] S380</v>
       </c>
       <c r="D57" t="s">
         <v>68</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>'SJS',</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
         <v>118</v>
       </c>
-      <c r="F57" t="str">
-        <f t="shared" si="2"/>
+      <c r="H57" t="str">
+        <f>_xlfn.CONCAT(D57," (",G57, ")")</f>
         <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -2077,21 +2480,28 @@
         <v>64</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] S380</v>
       </c>
       <c r="D58" t="s">
         <v>56</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v>'MF6',</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
         <v>108</v>
       </c>
-      <c r="F58" t="str">
-        <f t="shared" si="2"/>
+      <c r="H58" t="str">
+        <f>_xlfn.CONCAT(D58," (",G58, ")")</f>
         <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -2099,21 +2509,28 @@
         <v>69</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D59" t="s">
         <v>70</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>'BAR',</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
         <v>119</v>
       </c>
-      <c r="F59" t="str">
-        <f t="shared" si="2"/>
+      <c r="H59" t="str">
+        <f>_xlfn.CONCAT(D59," (",G59, ")")</f>
         <v>BAR (Fuel Oil 3.5% FOB Rotterdam Barges Balmo Swap)</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -2121,21 +2538,28 @@
         <v>69</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D60" t="s">
         <v>71</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v>'BOB',</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
         <v>120</v>
       </c>
-      <c r="F60" t="str">
-        <f t="shared" si="2"/>
+      <c r="H60" t="str">
+        <f>_xlfn.CONCAT(D60," (",G60, ")")</f>
         <v>BOB (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future)</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -2143,21 +2567,28 @@
         <v>69</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D61" t="s">
         <v>72</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v>'BOA',</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
         <v>121</v>
       </c>
-      <c r="F61" t="str">
-        <f t="shared" si="2"/>
+      <c r="H61" t="str">
+        <f>_xlfn.CONCAT(D61," (",G61, ")")</f>
         <v>BOA (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -2165,21 +2596,28 @@
         <v>69</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D62" t="s">
         <v>68</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v>'SJS',</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
         <v>118</v>
       </c>
-      <c r="F62" t="str">
-        <f t="shared" si="2"/>
+      <c r="H62" t="str">
+        <f>_xlfn.CONCAT(D62," (",G62, ")")</f>
         <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -2187,21 +2625,29 @@
         <v>69</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D63" t="s">
         <v>61</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v>'MF5',</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
         <v>112</v>
       </c>
-      <c r="F63" t="str">
-        <f t="shared" si="2"/>
+      <c r="H63" t="str">
+        <f>_xlfn.CONCAT(D63," (",G63, ")")</f>
         <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H63" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/OI_product_map.xlsx
+++ b/data/OI_product_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B6FB77D-6365-4B1C-B3C8-2D9E7E4381F9}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31A1ABFB-B8A1-4CCD-8911-E88A0CFFAED8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
+    <workbookView xWindow="4965" yWindow="1350" windowWidth="26700" windowHeight="12615" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -809,10 +809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,11 +874,11 @@
         <v>74</v>
       </c>
       <c r="H2" t="str">
-        <f>_xlfn.CONCAT(D2," (",G2, ")")</f>
+        <f t="shared" ref="H2:H33" si="0">_xlfn.CONCAT(D2," (",G2, ")")</f>
         <v>SMT (Singapore Mogas 92 Unleaded Swap)</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -885,14 +886,14 @@
         <v>5</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C63" si="0">_xlfn.CONCAT("[",A3,"] ",B3)</f>
+        <f t="shared" ref="C3:C63" si="1">_xlfn.CONCAT("[",A3,"] ",B3)</f>
         <v>[Light] S92</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E63" si="1">_xlfn.CONCAT("'",D3,"',")</f>
+        <f t="shared" ref="E3:E63" si="2">_xlfn.CONCAT("'",D3,"',")</f>
         <v>'GDK',</v>
       </c>
       <c r="F3">
@@ -902,11 +903,11 @@
         <v>75</v>
       </c>
       <c r="H3" t="str">
-        <f>_xlfn.CONCAT(D3," (",G3, ")")</f>
+        <f t="shared" si="0"/>
         <v>GDK (Gasoline Diff - Singapore Mogas 92 Unleaded (Platts) vs Argus Eurobob Oxy FOB Rotterdam Barges Future)</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -914,14 +915,14 @@
         <v>5</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Light] S92</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'STB',</v>
       </c>
       <c r="F4">
@@ -931,7 +932,7 @@
         <v>76</v>
       </c>
       <c r="H4" t="str">
-        <f>_xlfn.CONCAT(D4," (",G4, ")")</f>
+        <f t="shared" si="0"/>
         <v>STB (Singapore Mogas 92 Unleaded vs Brent 1st Line Future)</v>
       </c>
     </row>
@@ -943,14 +944,14 @@
         <v>9</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Light] Ebob</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'AEO',</v>
       </c>
       <c r="F5">
@@ -960,11 +961,11 @@
         <v>11</v>
       </c>
       <c r="H5" t="str">
-        <f>_xlfn.CONCAT(D5," (",G5, ")")</f>
+        <f t="shared" si="0"/>
         <v>AEO (Argus Eurobob Oxy FOB Rotterdam Barges Future)</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -972,14 +973,14 @@
         <v>9</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Light] Ebob</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'GDK',</v>
       </c>
       <c r="F6">
@@ -989,11 +990,11 @@
         <v>75</v>
       </c>
       <c r="H6" t="str">
-        <f>_xlfn.CONCAT(D6," (",G6, ")")</f>
+        <f t="shared" si="0"/>
         <v>GDK (Gasoline Diff - Singapore Mogas 92 Unleaded (Platts) vs Argus Eurobob Oxy FOB Rotterdam Barges Future)</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1001,14 +1002,14 @@
         <v>9</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Light] Ebob</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'EOB',</v>
       </c>
       <c r="F7">
@@ -1018,11 +1019,11 @@
         <v>77</v>
       </c>
       <c r="H7" t="str">
-        <f>_xlfn.CONCAT(D7," (",G7, ")")</f>
+        <f t="shared" si="0"/>
         <v>EOB (Gasoline Crack - Argus Eurobob Oxy FOB Rotterdam Barges vs Brent 1st Line Future)</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1030,14 +1031,14 @@
         <v>9</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Light] Ebob</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'GDO',</v>
       </c>
       <c r="F8">
@@ -1047,11 +1048,11 @@
         <v>78</v>
       </c>
       <c r="H8" t="str">
-        <f>_xlfn.CONCAT(D8," (",G8, ")")</f>
+        <f t="shared" si="0"/>
         <v>GDO (Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future)</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1059,24 +1060,24 @@
         <v>9</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Light] Ebob</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'EON',</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>79</v>
       </c>
       <c r="H9" t="str">
-        <f>_xlfn.CONCAT(D9," (",G9, ")")</f>
+        <f t="shared" si="0"/>
         <v>EON (Argus Eurobob OXY FOB Rotterdam Barges VS Platts Naphtha CIF NWE Cargoes Future)</v>
       </c>
     </row>
@@ -1088,14 +1089,14 @@
         <v>15</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Light] Rbob</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'UHU',</v>
       </c>
       <c r="F10" s="1">
@@ -1105,7 +1106,7 @@
         <v>80</v>
       </c>
       <c r="H10" t="str">
-        <f>_xlfn.CONCAT(D10," (",G10, ")")</f>
+        <f t="shared" si="0"/>
         <v>UHU (NYH (RBOB) Gasoline Futures)</v>
       </c>
     </row>
@@ -1117,14 +1118,14 @@
         <v>15</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Light] Rbob</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'RBS',</v>
       </c>
       <c r="F11">
@@ -1134,11 +1135,11 @@
         <v>81</v>
       </c>
       <c r="H11" t="str">
-        <f>_xlfn.CONCAT(D11," (",G11, ")")</f>
+        <f t="shared" si="0"/>
         <v>RBS (RBOB Gasoline 1st Line Future)</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1146,14 +1147,14 @@
         <v>15</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Light] Rbob</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'RBR',</v>
       </c>
       <c r="F12">
@@ -1163,11 +1164,11 @@
         <v>82</v>
       </c>
       <c r="H12" t="str">
-        <f>_xlfn.CONCAT(D12," (",G12, ")")</f>
+        <f t="shared" si="0"/>
         <v>RBR (Gasoline Crack - RBOB Gasoline 1st Line vs Brent 1st Line Future (in bbls))</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1175,14 +1176,14 @@
         <v>15</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Light] Rbob</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'GDO',</v>
       </c>
       <c r="F13">
@@ -1192,7 +1193,7 @@
         <v>78</v>
       </c>
       <c r="H13" t="str">
-        <f>_xlfn.CONCAT(D13," (",G13, ")")</f>
+        <f t="shared" si="0"/>
         <v>GDO (Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future)</v>
       </c>
     </row>
@@ -1204,14 +1205,14 @@
         <v>19</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Light] MOPJ Naph</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'NJC',</v>
       </c>
       <c r="F14">
@@ -1221,11 +1222,11 @@
         <v>83</v>
       </c>
       <c r="H14" t="str">
-        <f>_xlfn.CONCAT(D14," (",G14, ")")</f>
+        <f t="shared" si="0"/>
         <v>NJC (Naphtha C+F Japan Cargo Swap)</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1233,14 +1234,14 @@
         <v>19</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Light] MOPJ Naph</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'NBG',</v>
       </c>
       <c r="F15">
@@ -1250,11 +1251,11 @@
         <v>84</v>
       </c>
       <c r="H15" t="str">
-        <f>_xlfn.CONCAT(D15," (",G15, ")")</f>
+        <f t="shared" si="0"/>
         <v>NBG (Naphtha Crack - Naphtha C+F Japan (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1262,14 +1263,14 @@
         <v>19</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Light] MOPJ Naph</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'JOE',</v>
       </c>
       <c r="F16">
@@ -1279,7 +1280,7 @@
         <v>85</v>
       </c>
       <c r="H16" t="str">
-        <f>_xlfn.CONCAT(D16," (",G16, ")")</f>
+        <f t="shared" si="0"/>
         <v>JOE (Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future)</v>
       </c>
     </row>
@@ -1291,14 +1292,14 @@
         <v>23</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Light] NWE Naph</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'NEC',</v>
       </c>
       <c r="F17">
@@ -1308,11 +1309,11 @@
         <v>86</v>
       </c>
       <c r="H17" t="str">
-        <f>_xlfn.CONCAT(D17," (",G17, ")")</f>
+        <f t="shared" si="0"/>
         <v>NEC (Naphtha CIF NWE Cargoes Swap)</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1320,14 +1321,14 @@
         <v>23</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Light] NWE Naph</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'JOE',</v>
       </c>
       <c r="F18">
@@ -1337,11 +1338,11 @@
         <v>85</v>
       </c>
       <c r="H18" t="str">
-        <f>_xlfn.CONCAT(D18," (",G18, ")")</f>
+        <f t="shared" si="0"/>
         <v>JOE (Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future)</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1349,14 +1350,14 @@
         <v>23</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Light] NWE Naph</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'NOB',</v>
       </c>
       <c r="F19">
@@ -1366,11 +1367,11 @@
         <v>87</v>
       </c>
       <c r="H19" t="str">
-        <f>_xlfn.CONCAT(D19," (",G19, ")")</f>
+        <f t="shared" si="0"/>
         <v>NOB (Naphtha CIF NWE Cargoes vs Brent 1st Line Swap)</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1378,14 +1379,14 @@
         <v>23</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Light] NWE Naph</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'EON',</v>
       </c>
       <c r="F20">
@@ -1395,11 +1396,11 @@
         <v>79</v>
       </c>
       <c r="H20" t="str">
-        <f>_xlfn.CONCAT(D20," (",G20, ")")</f>
+        <f t="shared" si="0"/>
         <v>EON (Argus Eurobob OXY FOB Rotterdam Barges VS Platts Naphtha CIF NWE Cargoes Future)</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1407,14 +1408,14 @@
         <v>27</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] SGO</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'GST.J',</v>
       </c>
       <c r="F21">
@@ -1424,11 +1425,11 @@
         <v>88</v>
       </c>
       <c r="H21" t="str">
-        <f>_xlfn.CONCAT(D21," (",G21, ")")</f>
+        <f t="shared" si="0"/>
         <v>GST.J (Singapore Gasoil Swap)</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1436,14 +1437,14 @@
         <v>27</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] SGO</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'SGB',</v>
       </c>
       <c r="F22">
@@ -1453,11 +1454,11 @@
         <v>89</v>
       </c>
       <c r="H22" t="str">
-        <f>_xlfn.CONCAT(D22," (",G22, ")")</f>
+        <f t="shared" si="0"/>
         <v>SGB (Gasoil Crack - Singapore Gasoil (Platts) vs Brent 1st Line Future)</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1465,14 +1466,14 @@
         <v>27</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] SGO</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'BAO',</v>
       </c>
       <c r="F23">
@@ -1482,11 +1483,11 @@
         <v>90</v>
       </c>
       <c r="H23" t="str">
-        <f>_xlfn.CONCAT(D23," (",G23, ")")</f>
+        <f t="shared" si="0"/>
         <v>BAO (Gasoil Crack - Singapore Gasoil (Platts) vs Dubai 1st Line (Platts) Future)</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1494,14 +1495,14 @@
         <v>27</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] SGO</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'BAP',</v>
       </c>
       <c r="F24">
@@ -1511,11 +1512,11 @@
         <v>91</v>
       </c>
       <c r="H24" t="str">
-        <f>_xlfn.CONCAT(D24," (",G24, ")")</f>
+        <f t="shared" si="0"/>
         <v>BAP (Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1523,14 +1524,14 @@
         <v>27</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] SGO</v>
       </c>
       <c r="D25" t="s">
         <v>32</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'BAQ',</v>
       </c>
       <c r="F25">
@@ -1540,11 +1541,11 @@
         <v>92</v>
       </c>
       <c r="H25" t="str">
-        <f>_xlfn.CONCAT(D25," (",G25, ")")</f>
+        <f t="shared" si="0"/>
         <v>BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1552,14 +1553,14 @@
         <v>33</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'GAS',</v>
       </c>
       <c r="F26" s="2">
@@ -1569,11 +1570,11 @@
         <v>93</v>
       </c>
       <c r="H26" t="str">
-        <f>_xlfn.CONCAT(D26," (",G26, ")")</f>
+        <f t="shared" si="0"/>
         <v>GAS (Low Sulphur Gasoil Futures)</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1581,14 +1582,14 @@
         <v>33</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
       <c r="D27" t="s">
         <v>35</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'ULA',</v>
       </c>
       <c r="F27">
@@ -1598,11 +1599,11 @@
         <v>94</v>
       </c>
       <c r="H27" t="str">
-        <f>_xlfn.CONCAT(D27," (",G27, ")")</f>
+        <f t="shared" si="0"/>
         <v>ULA (Low Sulphur Gasoil 1st Line Future)</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1610,14 +1611,14 @@
         <v>33</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'ULD',</v>
       </c>
       <c r="F28">
@@ -1627,11 +1628,11 @@
         <v>95</v>
       </c>
       <c r="H28" t="str">
-        <f>_xlfn.CONCAT(D28," (",G28, ")")</f>
+        <f t="shared" si="0"/>
         <v>ULD (Gasoil Crack - Low Sulphur Gasoil 1st Line vs Brent 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1639,14 +1640,14 @@
         <v>33</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
       <c r="D29" t="s">
         <v>37</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'ULJ',</v>
       </c>
       <c r="F29">
@@ -1656,11 +1657,11 @@
         <v>96</v>
       </c>
       <c r="H29" t="str">
-        <f>_xlfn.CONCAT(D29," (",G29, ")")</f>
+        <f t="shared" si="0"/>
         <v>ULJ (Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future)</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1668,14 +1669,14 @@
         <v>33</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'BAP',</v>
       </c>
       <c r="F30">
@@ -1685,11 +1686,11 @@
         <v>91</v>
       </c>
       <c r="H30" t="str">
-        <f>_xlfn.CONCAT(D30," (",G30, ")")</f>
+        <f t="shared" si="0"/>
         <v>BAP (Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1697,14 +1698,14 @@
         <v>33</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'ULM',</v>
       </c>
       <c r="F31">
@@ -1714,11 +1715,11 @@
         <v>97</v>
       </c>
       <c r="H31" t="str">
-        <f>_xlfn.CONCAT(D31," (",G31, ")")</f>
+        <f t="shared" si="0"/>
         <v>ULM (Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1726,14 +1727,14 @@
         <v>39</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] SKO</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'SRS',</v>
       </c>
       <c r="F32">
@@ -1743,11 +1744,11 @@
         <v>98</v>
       </c>
       <c r="H32" t="str">
-        <f>_xlfn.CONCAT(D32," (",G32, ")")</f>
+        <f t="shared" si="0"/>
         <v>SRS (Singapore Jet Kerosene Swap)</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1755,14 +1756,14 @@
         <v>39</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] SKO</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'SFF',</v>
       </c>
       <c r="F33">
@@ -1772,11 +1773,11 @@
         <v>99</v>
       </c>
       <c r="H33" t="str">
-        <f>_xlfn.CONCAT(D33," (",G33, ")")</f>
+        <f t="shared" si="0"/>
         <v>SFF (Jet Fuel Crack - Singapore Jet Kerosene Cargoes (Platts) vs Dubai 1st Line (Platts) Future)</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1784,14 +1785,14 @@
         <v>39</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] SKO</v>
       </c>
       <c r="D34" t="s">
         <v>32</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'BAQ',</v>
       </c>
       <c r="F34">
@@ -1801,11 +1802,11 @@
         <v>92</v>
       </c>
       <c r="H34" t="str">
-        <f>_xlfn.CONCAT(D34," (",G34, ")")</f>
+        <f t="shared" ref="H34:H63" si="3">_xlfn.CONCAT(D34," (",G34, ")")</f>
         <v>BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1813,14 +1814,14 @@
         <v>42</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] NWE Jet</v>
       </c>
       <c r="D35" t="s">
         <v>43</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'JCN',</v>
       </c>
       <c r="F35">
@@ -1830,11 +1831,11 @@
         <v>100</v>
       </c>
       <c r="H35" t="str">
-        <f>_xlfn.CONCAT(D35," (",G35, ")")</f>
+        <f t="shared" si="3"/>
         <v>JCN (Jet CIF NWE Cargoes Future)</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1842,14 +1843,14 @@
         <v>42</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] NWE Jet</v>
       </c>
       <c r="D36" t="s">
         <v>44</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'JNB',</v>
       </c>
       <c r="F36">
@@ -1859,11 +1860,11 @@
         <v>101</v>
       </c>
       <c r="H36" t="str">
-        <f>_xlfn.CONCAT(D36," (",G36, ")")</f>
+        <f t="shared" si="3"/>
         <v>JNB (Jet Fuel Crack - Jet CIF NWE Cargoes vs Brent 1st Line Future)</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1871,14 +1872,14 @@
         <v>42</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] NWE Jet</v>
       </c>
       <c r="D37" t="s">
         <v>37</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'ULJ',</v>
       </c>
       <c r="F37">
@@ -1888,11 +1889,11 @@
         <v>96</v>
       </c>
       <c r="H37" t="str">
-        <f>_xlfn.CONCAT(D37," (",G37, ")")</f>
+        <f t="shared" si="3"/>
         <v>ULJ (Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future)</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>26</v>
       </c>
@@ -1900,14 +1901,14 @@
         <v>42</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] NWE Jet</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'JRJ',</v>
       </c>
       <c r="F38">
@@ -1917,11 +1918,11 @@
         <v>46</v>
       </c>
       <c r="H38" t="str">
-        <f>_xlfn.CONCAT(D38," (",G38, ")")</f>
+        <f t="shared" si="3"/>
         <v>JRJ (Jet Fuel Diff - Jet FOB Rotterdam Barges vs Jet CIF NWE Cargoes Future)</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1929,14 +1930,14 @@
         <v>47</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] HO</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'UHO',</v>
       </c>
       <c r="F39" s="2">
@@ -1946,11 +1947,11 @@
         <v>102</v>
       </c>
       <c r="H39" t="str">
-        <f>_xlfn.CONCAT(D39," (",G39, ")")</f>
+        <f t="shared" si="3"/>
         <v>UHO (Heating Oil Futures)</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1958,14 +1959,14 @@
         <v>47</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] HO</v>
       </c>
       <c r="D40" t="s">
         <v>49</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'HOF',</v>
       </c>
       <c r="F40">
@@ -1975,11 +1976,11 @@
         <v>103</v>
       </c>
       <c r="H40" t="str">
-        <f>_xlfn.CONCAT(D40," (",G40, ")")</f>
+        <f t="shared" si="3"/>
         <v>HOF (Heating Oil 1st Line Future)</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1987,14 +1988,14 @@
         <v>47</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] HO</v>
       </c>
       <c r="D41" t="s">
         <v>50</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'HBT',</v>
       </c>
       <c r="F41">
@@ -2004,11 +2005,11 @@
         <v>104</v>
       </c>
       <c r="H41" t="str">
-        <f>_xlfn.CONCAT(D41," (",G41, ")")</f>
+        <f t="shared" si="3"/>
         <v>HBT (Heating Oil Crack - Heating Oil 1st Line vs Brent 1st Line Future (in bbls))</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -2016,14 +2017,14 @@
         <v>47</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Middle] HO</v>
       </c>
       <c r="D42" t="s">
         <v>38</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'ULM',</v>
       </c>
       <c r="F42">
@@ -2033,11 +2034,11 @@
         <v>97</v>
       </c>
       <c r="H42" t="str">
-        <f>_xlfn.CONCAT(D42," (",G42, ")")</f>
+        <f t="shared" si="3"/>
         <v>ULM (Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -2045,14 +2046,14 @@
         <v>52</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
       <c r="D43" t="s">
         <v>53</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'MF4',</v>
       </c>
       <c r="F43">
@@ -2062,11 +2063,11 @@
         <v>105</v>
       </c>
       <c r="H43" t="str">
-        <f>_xlfn.CONCAT(D43," (",G43, ")")</f>
+        <f t="shared" si="3"/>
         <v>MF4 (Marine Fuel 0.5% FOB Singapore Swap)</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -2074,14 +2075,14 @@
         <v>52</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
       <c r="D44" t="s">
         <v>54</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'MFT',</v>
       </c>
       <c r="F44">
@@ -2091,11 +2092,11 @@
         <v>106</v>
       </c>
       <c r="H44" t="str">
-        <f>_xlfn.CONCAT(D44," (",G44, ")")</f>
+        <f t="shared" si="3"/>
         <v>MFT (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2103,14 +2104,14 @@
         <v>52</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
       <c r="D45" t="s">
         <v>55</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'TEN',</v>
       </c>
       <c r="F45">
@@ -2120,11 +2121,11 @@
         <v>107</v>
       </c>
       <c r="H45" t="str">
-        <f>_xlfn.CONCAT(D45," (",G45, ")")</f>
+        <f t="shared" si="3"/>
         <v>TEN (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in MTs))</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2132,14 +2133,14 @@
         <v>52</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
       <c r="D46" t="s">
         <v>56</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'MF6',</v>
       </c>
       <c r="F46">
@@ -2149,11 +2150,11 @@
         <v>108</v>
       </c>
       <c r="H46" t="str">
-        <f>_xlfn.CONCAT(D46," (",G46, ")")</f>
+        <f t="shared" si="3"/>
         <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2161,14 +2162,14 @@
         <v>52</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
       <c r="D47" t="s">
         <v>57</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'MF7',</v>
       </c>
       <c r="F47">
@@ -2178,11 +2179,11 @@
         <v>109</v>
       </c>
       <c r="H47" t="str">
-        <f>_xlfn.CONCAT(D47," (",G47, ")")</f>
+        <f t="shared" si="3"/>
         <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2190,14 +2191,14 @@
         <v>52</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
       <c r="D48" t="s">
         <v>58</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'FDF',</v>
       </c>
       <c r="F48">
@@ -2207,11 +2208,11 @@
         <v>110</v>
       </c>
       <c r="H48" t="str">
-        <f>_xlfn.CONCAT(D48," (",G48, ")")</f>
+        <f t="shared" si="3"/>
         <v>FDF (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Singapore Gasoil (Platts) Future (in MTs))</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2219,14 +2220,14 @@
         <v>59</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D49" t="s">
         <v>60</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'MF3',</v>
       </c>
       <c r="F49">
@@ -2236,11 +2237,11 @@
         <v>111</v>
       </c>
       <c r="H49" t="str">
-        <f>_xlfn.CONCAT(D49," (",G49, ")")</f>
+        <f t="shared" si="3"/>
         <v>MF3 (Marine Fuel 0.5% FOB Rotterdam Barge Swap)</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2248,14 +2249,14 @@
         <v>59</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D50" t="s">
         <v>61</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'MF5',</v>
       </c>
       <c r="F50">
@@ -2265,11 +2266,11 @@
         <v>112</v>
       </c>
       <c r="H50" t="str">
-        <f>_xlfn.CONCAT(D50," (",G50, ")")</f>
+        <f t="shared" si="3"/>
         <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2277,14 +2278,14 @@
         <v>59</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D51" t="s">
         <v>62</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'MFR',</v>
       </c>
       <c r="F51">
@@ -2294,11 +2295,11 @@
         <v>113</v>
       </c>
       <c r="H51" t="str">
-        <f>_xlfn.CONCAT(D51," (",G51, ")")</f>
+        <f t="shared" si="3"/>
         <v>MFR (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2306,14 +2307,14 @@
         <v>59</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D52" t="s">
         <v>63</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'TEO',</v>
       </c>
       <c r="F52">
@@ -2323,11 +2324,11 @@
         <v>114</v>
       </c>
       <c r="H52" t="str">
-        <f>_xlfn.CONCAT(D52," (",G52, ")")</f>
+        <f t="shared" si="3"/>
         <v>TEO (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in MTs))</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2335,14 +2336,14 @@
         <v>59</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D53" t="s">
         <v>57</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'MF7',</v>
       </c>
       <c r="F53">
@@ -2352,11 +2353,11 @@
         <v>109</v>
       </c>
       <c r="H53" t="str">
-        <f>_xlfn.CONCAT(D53," (",G53, ")")</f>
+        <f t="shared" si="3"/>
         <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2364,14 +2365,14 @@
         <v>64</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] S380</v>
       </c>
       <c r="D54" t="s">
         <v>65</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'SYS',</v>
       </c>
       <c r="F54">
@@ -2381,11 +2382,11 @@
         <v>115</v>
       </c>
       <c r="H54" t="str">
-        <f>_xlfn.CONCAT(D54," (",G54, ")")</f>
+        <f t="shared" si="3"/>
         <v>SYS (Fuel Oil 380 CST Singapore Swap)</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -2393,14 +2394,14 @@
         <v>64</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] S380</v>
       </c>
       <c r="D55" t="s">
         <v>66</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'SPS',</v>
       </c>
       <c r="F55">
@@ -2410,11 +2411,11 @@
         <v>116</v>
       </c>
       <c r="H55" t="str">
-        <f>_xlfn.CONCAT(D55," (",G55, ")")</f>
+        <f t="shared" si="3"/>
         <v>SPS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Brent 1st Line Future)</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -2422,14 +2423,14 @@
         <v>64</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] S380</v>
       </c>
       <c r="D56" t="s">
         <v>67</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'SLS',</v>
       </c>
       <c r="F56">
@@ -2439,11 +2440,11 @@
         <v>117</v>
       </c>
       <c r="H56" t="str">
-        <f>_xlfn.CONCAT(D56," (",G56, ")")</f>
+        <f t="shared" si="3"/>
         <v>SLS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Dubai 1st Line Future)</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -2451,14 +2452,14 @@
         <v>64</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] S380</v>
       </c>
       <c r="D57" t="s">
         <v>68</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'SJS',</v>
       </c>
       <c r="F57">
@@ -2468,11 +2469,11 @@
         <v>118</v>
       </c>
       <c r="H57" t="str">
-        <f>_xlfn.CONCAT(D57," (",G57, ")")</f>
+        <f t="shared" si="3"/>
         <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -2480,14 +2481,14 @@
         <v>64</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] S380</v>
       </c>
       <c r="D58" t="s">
         <v>56</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'MF6',</v>
       </c>
       <c r="F58">
@@ -2497,11 +2498,11 @@
         <v>108</v>
       </c>
       <c r="H58" t="str">
-        <f>_xlfn.CONCAT(D58," (",G58, ")")</f>
+        <f t="shared" si="3"/>
         <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -2509,14 +2510,14 @@
         <v>69</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D59" t="s">
         <v>70</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'BAR',</v>
       </c>
       <c r="F59">
@@ -2526,11 +2527,11 @@
         <v>119</v>
       </c>
       <c r="H59" t="str">
-        <f>_xlfn.CONCAT(D59," (",G59, ")")</f>
+        <f t="shared" si="3"/>
         <v>BAR (Fuel Oil 3.5% FOB Rotterdam Barges Balmo Swap)</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -2538,14 +2539,14 @@
         <v>69</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D60" t="s">
         <v>71</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'BOB',</v>
       </c>
       <c r="F60">
@@ -2555,11 +2556,11 @@
         <v>120</v>
       </c>
       <c r="H60" t="str">
-        <f>_xlfn.CONCAT(D60," (",G60, ")")</f>
+        <f t="shared" si="3"/>
         <v>BOB (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future)</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -2567,14 +2568,14 @@
         <v>69</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D61" t="s">
         <v>72</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'BOA',</v>
       </c>
       <c r="F61">
@@ -2584,11 +2585,11 @@
         <v>121</v>
       </c>
       <c r="H61" t="str">
-        <f>_xlfn.CONCAT(D61," (",G61, ")")</f>
+        <f t="shared" si="3"/>
         <v>BOA (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -2596,14 +2597,14 @@
         <v>69</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D62" t="s">
         <v>68</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'SJS',</v>
       </c>
       <c r="F62">
@@ -2613,11 +2614,11 @@
         <v>118</v>
       </c>
       <c r="H62" t="str">
-        <f>_xlfn.CONCAT(D62," (",G62, ")")</f>
+        <f t="shared" si="3"/>
         <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -2625,14 +2626,14 @@
         <v>69</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D63" t="s">
         <v>61</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'MF5',</v>
       </c>
       <c r="F63">
@@ -2642,12 +2643,23 @@
         <v>112</v>
       </c>
       <c r="H63" t="str">
-        <f>_xlfn.CONCAT(D63," (",G63, ")")</f>
+        <f t="shared" si="3"/>
         <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H63" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}"/>
+  <autoFilter ref="A1:H63" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Light"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/OI_product_map.xlsx
+++ b/data/OI_product_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31A1ABFB-B8A1-4CCD-8911-E88A0CFFAED8}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{767C205C-FB59-4E33-A9F8-26210FDA594D}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="1350" windowWidth="26700" windowHeight="12615" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="38640" windowHeight="15840" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -813,7 +813,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+      <selection activeCell="E3" sqref="E3:E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +849,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -878,7 +878,7 @@
         <v>SMT (Singapore Mogas 92 Unleaded Swap)</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -907,7 +907,7 @@
         <v>GDK (Gasoline Diff - Singapore Mogas 92 Unleaded (Platts) vs Argus Eurobob Oxy FOB Rotterdam Barges Future)</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -936,7 +936,7 @@
         <v>STB (Singapore Mogas 92 Unleaded vs Brent 1st Line Future)</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -965,7 +965,7 @@
         <v>AEO (Argus Eurobob Oxy FOB Rotterdam Barges Future)</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -994,7 +994,7 @@
         <v>GDK (Gasoline Diff - Singapore Mogas 92 Unleaded (Platts) vs Argus Eurobob Oxy FOB Rotterdam Barges Future)</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>EOB (Gasoline Crack - Argus Eurobob Oxy FOB Rotterdam Barges vs Brent 1st Line Future)</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>GDO (Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future)</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>EON (Argus Eurobob OXY FOB Rotterdam Barges VS Platts Naphtha CIF NWE Cargoes Future)</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>UHU (NYH (RBOB) Gasoline Futures)</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>RBS (RBOB Gasoline 1st Line Future)</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>RBR (Gasoline Crack - RBOB Gasoline 1st Line vs Brent 1st Line Future (in bbls))</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>GDO (Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future)</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>NJC (Naphtha C+F Japan Cargo Swap)</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>NBG (Naphtha Crack - Naphtha C+F Japan (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>JOE (Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future)</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>NEC (Naphtha CIF NWE Cargoes Swap)</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>JOE (Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future)</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>NOB (Naphtha CIF NWE Cargoes vs Brent 1st Line Swap)</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>GST.J (Singapore Gasoil Swap)</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>SGB (Gasoil Crack - Singapore Gasoil (Platts) vs Brent 1st Line Future)</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>BAO (Gasoil Crack - Singapore Gasoil (Platts) vs Dubai 1st Line (Platts) Future)</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>BAP (Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>ULA (Low Sulphur Gasoil 1st Line Future)</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>ULD (Gasoil Crack - Low Sulphur Gasoil 1st Line vs Brent 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>ULJ (Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future)</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>BAP (Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>SRS (Singapore Jet Kerosene Swap)</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>SFF (Jet Fuel Crack - Singapore Jet Kerosene Cargoes (Platts) vs Dubai 1st Line (Platts) Future)</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>JCN (Jet CIF NWE Cargoes Future)</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>JNB (Jet Fuel Crack - Jet CIF NWE Cargoes vs Brent 1st Line Future)</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>ULJ (Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future)</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>26</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>HOF (Heating Oil 1st Line Future)</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>HBT (Heating Oil Crack - Heating Oil 1st Line vs Brent 1st Line Future (in bbls))</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>MF4 (Marine Fuel 0.5% FOB Singapore Swap)</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>MFT (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>TEN (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in MTs))</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>MF3 (Marine Fuel 0.5% FOB Rotterdam Barge Swap)</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>MFR (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>TEO (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in MTs))</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>SYS (Fuel Oil 380 CST Singapore Swap)</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>SPS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Brent 1st Line Future)</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>SLS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Dubai 1st Line Future)</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>BAR (Fuel Oil 3.5% FOB Rotterdam Barges Balmo Swap)</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>BOB (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future)</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>BOA (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls))</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -2649,14 +2649,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H63" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Light"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="1"/>
+        <filter val="0"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/OI_product_map.xlsx
+++ b/data/OI_product_map.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{767C205C-FB59-4E33-A9F8-26210FDA594D}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4BE30AE-7E18-42EB-8F4B-4051D4B04C9B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="16080" windowWidth="38640" windowHeight="15840" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$H$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$J$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="147">
   <si>
     <t>Product Family</t>
   </si>
@@ -411,6 +415,75 @@
   </si>
   <si>
     <t>spread</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>OI conv</t>
+  </si>
+  <si>
+    <t>price conv</t>
+  </si>
+  <si>
+    <t>OI unit</t>
+  </si>
+  <si>
+    <t>price unit</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>BBL</t>
+  </si>
+  <si>
+    <t>134.228MT</t>
+  </si>
+  <si>
+    <t>6350BBL</t>
+  </si>
+  <si>
+    <t>8330BBL</t>
+  </si>
+  <si>
+    <t>349860GAL</t>
+  </si>
+  <si>
+    <t>GAL</t>
+  </si>
+  <si>
+    <t>42000GAL</t>
+  </si>
+  <si>
+    <t>8900BBL</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>python_lst</t>
+  </si>
+  <si>
+    <t>Price Unit</t>
+  </si>
+  <si>
+    <t>$/BBL</t>
+  </si>
+  <si>
+    <t>$/MT</t>
+  </si>
+  <si>
+    <t>¢/GAL</t>
+  </si>
+  <si>
+    <t>$/GAL</t>
+  </si>
+  <si>
+    <t>OI Unit</t>
   </si>
 </sst>
 </file>
@@ -432,7 +505,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,19 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,11 +531,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,6 +556,961 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jia Shang" refreshedDate="45890.676370370369" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="62" xr:uid="{A8808549-A262-40B2-9E8C-C122B670117C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H63" sheet="Data"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Product Family" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Product" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Label" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Symbol" numFmtId="0">
+      <sharedItems count="50">
+        <s v="SMT"/>
+        <s v="GDK"/>
+        <s v="STB"/>
+        <s v="AEO"/>
+        <s v="EOB"/>
+        <s v="GDO"/>
+        <s v="EON"/>
+        <s v="UHU"/>
+        <s v="RBS"/>
+        <s v="RBR"/>
+        <s v="NJC"/>
+        <s v="NBG"/>
+        <s v="JOE"/>
+        <s v="NEC"/>
+        <s v="NOB"/>
+        <s v="GST.J"/>
+        <s v="SGB"/>
+        <s v="BAO"/>
+        <s v="BAP"/>
+        <s v="BAQ"/>
+        <s v="GAS"/>
+        <s v="ULA"/>
+        <s v="ULD"/>
+        <s v="ULJ"/>
+        <s v="ULM"/>
+        <s v="SRS"/>
+        <s v="SFF"/>
+        <s v="JCN"/>
+        <s v="JNB"/>
+        <s v="JRJ"/>
+        <s v="UHO"/>
+        <s v="HOF"/>
+        <s v="HBT"/>
+        <s v="MF4"/>
+        <s v="MFT"/>
+        <s v="TEN"/>
+        <s v="MF6"/>
+        <s v="MF7"/>
+        <s v="FDF"/>
+        <s v="MF3"/>
+        <s v="MF5"/>
+        <s v="MFR"/>
+        <s v="TEO"/>
+        <s v="SYS"/>
+        <s v="SPS"/>
+        <s v="SLS"/>
+        <s v="SJS"/>
+        <s v="BAR"/>
+        <s v="BOB"/>
+        <s v="BOA"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="list" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="spread" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Symbol Description" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="62">
+  <r>
+    <s v="Light"/>
+    <s v="S92"/>
+    <s v="[Light] S92"/>
+    <x v="0"/>
+    <s v="'SMT',"/>
+    <n v="1"/>
+    <s v="Singapore Mogas 92 Unleaded Swap"/>
+    <s v="SMT (Singapore Mogas 92 Unleaded Swap)"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="S92"/>
+    <s v="[Light] S92"/>
+    <x v="1"/>
+    <s v="'GDK',"/>
+    <n v="0"/>
+    <s v="Gasoline Diff - Singapore Mogas 92 Unleaded (Platts) vs Argus Eurobob Oxy FOB Rotterdam Barges Future"/>
+    <s v="GDK (Gasoline Diff - Singapore Mogas 92 Unleaded (Platts) vs Argus Eurobob Oxy FOB Rotterdam Barges Future)"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="S92"/>
+    <s v="[Light] S92"/>
+    <x v="2"/>
+    <s v="'STB',"/>
+    <n v="0"/>
+    <s v="Singapore Mogas 92 Unleaded vs Brent 1st Line Future"/>
+    <s v="STB (Singapore Mogas 92 Unleaded vs Brent 1st Line Future)"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="Ebob"/>
+    <s v="[Light] Ebob"/>
+    <x v="3"/>
+    <s v="'AEO',"/>
+    <n v="1"/>
+    <s v="Argus Eurobob Oxy FOB Rotterdam Barges Future"/>
+    <s v="AEO (Argus Eurobob Oxy FOB Rotterdam Barges Future)"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="Ebob"/>
+    <s v="[Light] Ebob"/>
+    <x v="1"/>
+    <s v="'GDK',"/>
+    <n v="0"/>
+    <s v="Gasoline Diff - Singapore Mogas 92 Unleaded (Platts) vs Argus Eurobob Oxy FOB Rotterdam Barges Future"/>
+    <s v="GDK (Gasoline Diff - Singapore Mogas 92 Unleaded (Platts) vs Argus Eurobob Oxy FOB Rotterdam Barges Future)"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="Ebob"/>
+    <s v="[Light] Ebob"/>
+    <x v="4"/>
+    <s v="'EOB',"/>
+    <n v="0"/>
+    <s v="Gasoline Crack - Argus Eurobob Oxy FOB Rotterdam Barges vs Brent 1st Line Future"/>
+    <s v="EOB (Gasoline Crack - Argus Eurobob Oxy FOB Rotterdam Barges vs Brent 1st Line Future)"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="Ebob"/>
+    <s v="[Light] Ebob"/>
+    <x v="5"/>
+    <s v="'GDO',"/>
+    <n v="0"/>
+    <s v="Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future"/>
+    <s v="GDO (Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future)"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="Ebob"/>
+    <s v="[Light] Ebob"/>
+    <x v="6"/>
+    <s v="'EON',"/>
+    <n v="0"/>
+    <s v="Argus Eurobob OXY FOB Rotterdam Barges VS Platts Naphtha CIF NWE Cargoes Future"/>
+    <s v="EON (Argus Eurobob OXY FOB Rotterdam Barges VS Platts Naphtha CIF NWE Cargoes Future)"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="Rbob"/>
+    <s v="[Light] Rbob"/>
+    <x v="7"/>
+    <s v="'UHU',"/>
+    <n v="1"/>
+    <s v="NYH (RBOB) Gasoline Futures"/>
+    <s v="UHU (NYH (RBOB) Gasoline Futures)"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="Rbob"/>
+    <s v="[Light] Rbob"/>
+    <x v="8"/>
+    <s v="'RBS',"/>
+    <n v="1"/>
+    <s v="RBOB Gasoline 1st Line Future"/>
+    <s v="RBS (RBOB Gasoline 1st Line Future)"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="Rbob"/>
+    <s v="[Light] Rbob"/>
+    <x v="9"/>
+    <s v="'RBR',"/>
+    <n v="0"/>
+    <s v="Gasoline Crack - RBOB Gasoline 1st Line vs Brent 1st Line Future (in bbls)"/>
+    <s v="RBR (Gasoline Crack - RBOB Gasoline 1st Line vs Brent 1st Line Future (in bbls))"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="Rbob"/>
+    <s v="[Light] Rbob"/>
+    <x v="5"/>
+    <s v="'GDO',"/>
+    <n v="0"/>
+    <s v="Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future"/>
+    <s v="GDO (Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future)"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="MOPJ Naph"/>
+    <s v="[Light] MOPJ Naph"/>
+    <x v="10"/>
+    <s v="'NJC',"/>
+    <n v="1"/>
+    <s v="Naphtha C+F Japan Cargo Swap"/>
+    <s v="NJC (Naphtha C+F Japan Cargo Swap)"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="MOPJ Naph"/>
+    <s v="[Light] MOPJ Naph"/>
+    <x v="11"/>
+    <s v="'NBG',"/>
+    <n v="0"/>
+    <s v="Naphtha Crack - Naphtha C+F Japan (Platts) vs Brent 1st Line Future (in Bbls)"/>
+    <s v="NBG (Naphtha Crack - Naphtha C+F Japan (Platts) vs Brent 1st Line Future (in Bbls))"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="MOPJ Naph"/>
+    <s v="[Light] MOPJ Naph"/>
+    <x v="12"/>
+    <s v="'JOE',"/>
+    <n v="0"/>
+    <s v="Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future"/>
+    <s v="JOE (Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future)"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="NWE Naph"/>
+    <s v="[Light] NWE Naph"/>
+    <x v="13"/>
+    <s v="'NEC',"/>
+    <n v="1"/>
+    <s v="Naphtha CIF NWE Cargoes Swap"/>
+    <s v="NEC (Naphtha CIF NWE Cargoes Swap)"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="NWE Naph"/>
+    <s v="[Light] NWE Naph"/>
+    <x v="12"/>
+    <s v="'JOE',"/>
+    <n v="0"/>
+    <s v="Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future"/>
+    <s v="JOE (Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future)"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="NWE Naph"/>
+    <s v="[Light] NWE Naph"/>
+    <x v="14"/>
+    <s v="'NOB',"/>
+    <n v="0"/>
+    <s v="Naphtha CIF NWE Cargoes vs Brent 1st Line Swap"/>
+    <s v="NOB (Naphtha CIF NWE Cargoes vs Brent 1st Line Swap)"/>
+  </r>
+  <r>
+    <s v="Light"/>
+    <s v="NWE Naph"/>
+    <s v="[Light] NWE Naph"/>
+    <x v="6"/>
+    <s v="'EON',"/>
+    <n v="0"/>
+    <s v="Argus Eurobob OXY FOB Rotterdam Barges VS Platts Naphtha CIF NWE Cargoes Future"/>
+    <s v="EON (Argus Eurobob OXY FOB Rotterdam Barges VS Platts Naphtha CIF NWE Cargoes Future)"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="SGO"/>
+    <s v="[Middle] SGO"/>
+    <x v="15"/>
+    <s v="'GST.J',"/>
+    <n v="1"/>
+    <s v="Singapore Gasoil Swap"/>
+    <s v="GST.J (Singapore Gasoil Swap)"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="SGO"/>
+    <s v="[Middle] SGO"/>
+    <x v="16"/>
+    <s v="'SGB',"/>
+    <n v="0"/>
+    <s v="Gasoil Crack - Singapore Gasoil (Platts) vs Brent 1st Line Future"/>
+    <s v="SGB (Gasoil Crack - Singapore Gasoil (Platts) vs Brent 1st Line Future)"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="SGO"/>
+    <s v="[Middle] SGO"/>
+    <x v="17"/>
+    <s v="'BAO',"/>
+    <n v="0"/>
+    <s v="Gasoil Crack - Singapore Gasoil (Platts) vs Dubai 1st Line (Platts) Future"/>
+    <s v="BAO (Gasoil Crack - Singapore Gasoil (Platts) vs Dubai 1st Line (Platts) Future)"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="SGO"/>
+    <s v="[Middle] SGO"/>
+    <x v="18"/>
+    <s v="'BAP',"/>
+    <n v="0"/>
+    <s v="Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls)"/>
+    <s v="BAP (Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls))"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="SGO"/>
+    <s v="[Middle] SGO"/>
+    <x v="19"/>
+    <s v="'BAQ',"/>
+    <n v="0"/>
+    <s v="Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future"/>
+    <s v="BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="ICEGO"/>
+    <s v="[Middle] ICEGO"/>
+    <x v="20"/>
+    <s v="'GAS',"/>
+    <n v="1"/>
+    <s v="Low Sulphur Gasoil Futures"/>
+    <s v="GAS (Low Sulphur Gasoil Futures)"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="ICEGO"/>
+    <s v="[Middle] ICEGO"/>
+    <x v="21"/>
+    <s v="'ULA',"/>
+    <n v="1"/>
+    <s v="Low Sulphur Gasoil 1st Line Future"/>
+    <s v="ULA (Low Sulphur Gasoil 1st Line Future)"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="ICEGO"/>
+    <s v="[Middle] ICEGO"/>
+    <x v="22"/>
+    <s v="'ULD',"/>
+    <n v="0"/>
+    <s v="Gasoil Crack - Low Sulphur Gasoil 1st Line vs Brent 1st Line Future (in Bbls)"/>
+    <s v="ULD (Gasoil Crack - Low Sulphur Gasoil 1st Line vs Brent 1st Line Future (in Bbls))"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="ICEGO"/>
+    <s v="[Middle] ICEGO"/>
+    <x v="23"/>
+    <s v="'ULJ',"/>
+    <n v="0"/>
+    <s v="Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future"/>
+    <s v="ULJ (Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future)"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="ICEGO"/>
+    <s v="[Middle] ICEGO"/>
+    <x v="18"/>
+    <s v="'BAP',"/>
+    <n v="0"/>
+    <s v="Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls)"/>
+    <s v="BAP (Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls))"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="ICEGO"/>
+    <s v="[Middle] ICEGO"/>
+    <x v="24"/>
+    <s v="'ULM',"/>
+    <n v="0"/>
+    <s v="Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls)"/>
+    <s v="ULM (Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls))"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="SKO"/>
+    <s v="[Middle] SKO"/>
+    <x v="25"/>
+    <s v="'SRS',"/>
+    <n v="1"/>
+    <s v="Singapore Jet Kerosene Swap"/>
+    <s v="SRS (Singapore Jet Kerosene Swap)"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="SKO"/>
+    <s v="[Middle] SKO"/>
+    <x v="26"/>
+    <s v="'SFF',"/>
+    <n v="0"/>
+    <s v="Jet Fuel Crack - Singapore Jet Kerosene Cargoes (Platts) vs Dubai 1st Line (Platts) Future"/>
+    <s v="SFF (Jet Fuel Crack - Singapore Jet Kerosene Cargoes (Platts) vs Dubai 1st Line (Platts) Future)"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="SKO"/>
+    <s v="[Middle] SKO"/>
+    <x v="19"/>
+    <s v="'BAQ',"/>
+    <n v="0"/>
+    <s v="Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future"/>
+    <s v="BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="NWE Jet"/>
+    <s v="[Middle] NWE Jet"/>
+    <x v="27"/>
+    <s v="'JCN',"/>
+    <n v="1"/>
+    <s v="Jet CIF NWE Cargoes Future"/>
+    <s v="JCN (Jet CIF NWE Cargoes Future)"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="NWE Jet"/>
+    <s v="[Middle] NWE Jet"/>
+    <x v="28"/>
+    <s v="'JNB',"/>
+    <n v="0"/>
+    <s v="Jet Fuel Crack - Jet CIF NWE Cargoes vs Brent 1st Line Future"/>
+    <s v="JNB (Jet Fuel Crack - Jet CIF NWE Cargoes vs Brent 1st Line Future)"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="NWE Jet"/>
+    <s v="[Middle] NWE Jet"/>
+    <x v="23"/>
+    <s v="'ULJ',"/>
+    <n v="0"/>
+    <s v="Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future"/>
+    <s v="ULJ (Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future)"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="NWE Jet"/>
+    <s v="[Middle] NWE Jet"/>
+    <x v="29"/>
+    <s v="'JRJ',"/>
+    <n v="0"/>
+    <s v="Jet Fuel Diff - Jet FOB Rotterdam Barges vs Jet CIF NWE Cargoes Future"/>
+    <s v="JRJ (Jet Fuel Diff - Jet FOB Rotterdam Barges vs Jet CIF NWE Cargoes Future)"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="HO"/>
+    <s v="[Middle] HO"/>
+    <x v="30"/>
+    <s v="'UHO',"/>
+    <n v="1"/>
+    <s v="Heating Oil Futures"/>
+    <s v="UHO (Heating Oil Futures)"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="HO"/>
+    <s v="[Middle] HO"/>
+    <x v="31"/>
+    <s v="'HOF',"/>
+    <n v="1"/>
+    <s v="Heating Oil 1st Line Future"/>
+    <s v="HOF (Heating Oil 1st Line Future)"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="HO"/>
+    <s v="[Middle] HO"/>
+    <x v="32"/>
+    <s v="'HBT',"/>
+    <n v="0"/>
+    <s v="Heating Oil Crack - Heating Oil 1st Line vs Brent 1st Line Future (in bbls)"/>
+    <s v="HBT (Heating Oil Crack - Heating Oil 1st Line vs Brent 1st Line Future (in bbls))"/>
+  </r>
+  <r>
+    <s v="Middle"/>
+    <s v="HO"/>
+    <s v="[Middle] HO"/>
+    <x v="24"/>
+    <s v="'ULM',"/>
+    <n v="0"/>
+    <s v="Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls)"/>
+    <s v="ULM (Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls))"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="S0.5"/>
+    <s v="[Heavy] S0.5"/>
+    <x v="33"/>
+    <s v="'MF4',"/>
+    <n v="1"/>
+    <s v="Marine Fuel 0.5% FOB Singapore Swap"/>
+    <s v="MF4 (Marine Fuel 0.5% FOB Singapore Swap)"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="S0.5"/>
+    <s v="[Heavy] S0.5"/>
+    <x v="34"/>
+    <s v="'MFT',"/>
+    <n v="0"/>
+    <s v="Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in Bbls)"/>
+    <s v="MFT (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in Bbls))"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="S0.5"/>
+    <s v="[Heavy] S0.5"/>
+    <x v="35"/>
+    <s v="'TEN',"/>
+    <n v="0"/>
+    <s v="Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in MTs)"/>
+    <s v="TEN (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in MTs))"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="S0.5"/>
+    <s v="[Heavy] S0.5"/>
+    <x v="36"/>
+    <s v="'MF6',"/>
+    <n v="0"/>
+    <s v="Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future"/>
+    <s v="MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="S0.5"/>
+    <s v="[Heavy] S0.5"/>
+    <x v="37"/>
+    <s v="'MF7',"/>
+    <n v="0"/>
+    <s v="Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures"/>
+    <s v="MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="S0.5"/>
+    <s v="[Heavy] S0.5"/>
+    <x v="38"/>
+    <s v="'FDF',"/>
+    <n v="0"/>
+    <s v="Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Singapore Gasoil (Platts) Future (in MTs)"/>
+    <s v="FDF (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Singapore Gasoil (Platts) Future (in MTs))"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="Rdm0.5"/>
+    <s v="[Heavy] Rdm0.5"/>
+    <x v="39"/>
+    <s v="'MF3',"/>
+    <n v="1"/>
+    <s v="Marine Fuel 0.5% FOB Rotterdam Barge Swap"/>
+    <s v="MF3 (Marine Fuel 0.5% FOB Rotterdam Barge Swap)"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="Rdm0.5"/>
+    <s v="[Heavy] Rdm0.5"/>
+    <x v="40"/>
+    <s v="'MF5',"/>
+    <n v="0"/>
+    <s v="Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap"/>
+    <s v="MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="Rdm0.5"/>
+    <s v="[Heavy] Rdm0.5"/>
+    <x v="41"/>
+    <s v="'MFR',"/>
+    <n v="0"/>
+    <s v="Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in Bbls)"/>
+    <s v="MFR (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in Bbls))"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="Rdm0.5"/>
+    <s v="[Heavy] Rdm0.5"/>
+    <x v="42"/>
+    <s v="'TEO',"/>
+    <n v="0"/>
+    <s v="Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in MTs)"/>
+    <s v="TEO (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in MTs))"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="Rdm0.5"/>
+    <s v="[Heavy] Rdm0.5"/>
+    <x v="37"/>
+    <s v="'MF7',"/>
+    <n v="0"/>
+    <s v="Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures"/>
+    <s v="MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="S380"/>
+    <s v="[Heavy] S380"/>
+    <x v="43"/>
+    <s v="'SYS',"/>
+    <n v="1"/>
+    <s v="Fuel Oil 380 CST Singapore Swap"/>
+    <s v="SYS (Fuel Oil 380 CST Singapore Swap)"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="S380"/>
+    <s v="[Heavy] S380"/>
+    <x v="44"/>
+    <s v="'SPS',"/>
+    <n v="0"/>
+    <s v="Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Brent 1st Line Future"/>
+    <s v="SPS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Brent 1st Line Future)"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="S380"/>
+    <s v="[Heavy] S380"/>
+    <x v="45"/>
+    <s v="'SLS',"/>
+    <n v="0"/>
+    <s v="Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Dubai 1st Line Future"/>
+    <s v="SLS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Dubai 1st Line Future)"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="S380"/>
+    <s v="[Heavy] S380"/>
+    <x v="46"/>
+    <s v="'SJS',"/>
+    <n v="0"/>
+    <s v="Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap"/>
+    <s v="SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="S380"/>
+    <s v="[Heavy] S380"/>
+    <x v="36"/>
+    <s v="'MF6',"/>
+    <n v="0"/>
+    <s v="Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future"/>
+    <s v="MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="Rdm3.5"/>
+    <s v="[Heavy] Rdm3.5"/>
+    <x v="47"/>
+    <s v="'BAR',"/>
+    <n v="1"/>
+    <s v="Fuel Oil 3.5% FOB Rotterdam Barges Balmo Swap"/>
+    <s v="BAR (Fuel Oil 3.5% FOB Rotterdam Barges Balmo Swap)"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="Rdm3.5"/>
+    <s v="[Heavy] Rdm3.5"/>
+    <x v="48"/>
+    <s v="'BOB',"/>
+    <n v="0"/>
+    <s v="Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future"/>
+    <s v="BOB (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future)"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="Rdm3.5"/>
+    <s v="[Heavy] Rdm3.5"/>
+    <x v="49"/>
+    <s v="'BOA',"/>
+    <n v="0"/>
+    <s v="Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls)"/>
+    <s v="BOA (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls))"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="Rdm3.5"/>
+    <s v="[Heavy] Rdm3.5"/>
+    <x v="46"/>
+    <s v="'SJS',"/>
+    <n v="0"/>
+    <s v="Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap"/>
+    <s v="SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)"/>
+  </r>
+  <r>
+    <s v="Heavy"/>
+    <s v="Rdm3.5"/>
+    <s v="[Heavy] Rdm3.5"/>
+    <x v="40"/>
+    <s v="'MF5',"/>
+    <n v="0"/>
+    <s v="Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap"/>
+    <s v="MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23CDFA64-99A4-40E4-9BAE-6970E7183312}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="51">
+        <item x="3"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="47"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="38"/>
+        <item x="20"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="12"/>
+        <item x="29"/>
+        <item x="39"/>
+        <item x="33"/>
+        <item x="40"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="41"/>
+        <item x="34"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="26"/>
+        <item x="16"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="0"/>
+        <item x="44"/>
+        <item x="25"/>
+        <item x="2"/>
+        <item x="43"/>
+        <item x="35"/>
+        <item x="42"/>
+        <item x="30"/>
+        <item x="7"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="51">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -809,11 +1830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E63"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,1841 +1841,3337 @@
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="96.140625" customWidth="1"/>
     <col min="8" max="8" width="107.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="3" t="str">
         <f>_xlfn.CONCAT("[",A2,"] ",B2)</f>
         <v>[Light] S92</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="3" t="str">
         <f>_xlfn.CONCAT("'",D2,"',")</f>
         <v>'SMT',</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="3" t="str">
         <f t="shared" ref="H2:H33" si="0">_xlfn.CONCAT(D2," (",G2, ")")</f>
         <v>SMT (Singapore Mogas 92 Unleaded Swap)</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="I2" s="3" t="str">
+        <f>VLOOKUP(D2, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J2" s="3" t="str">
+        <f>VLOOKUP(D2, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:C63" si="1">_xlfn.CONCAT("[",A3,"] ",B3)</f>
         <v>[Light] S92</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E63" si="2">_xlfn.CONCAT("'",D3,"',")</f>
         <v>'GDK',</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H3" t="str">
+      <c r="H3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>GDK (Gasoline Diff - Singapore Mogas 92 Unleaded (Platts) vs Argus Eurobob Oxy FOB Rotterdam Barges Future)</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="I3" s="3" t="str">
+        <f>VLOOKUP(D3, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f>VLOOKUP(D3, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Light] S92</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'STB',</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>STB (Singapore Mogas 92 Unleaded vs Brent 1st Line Future)</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="I4" s="3" t="str">
+        <f>VLOOKUP(D4, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f>VLOOKUP(D4, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Ebob</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'AEO',</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>AEO (Argus Eurobob Oxy FOB Rotterdam Barges Future)</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="I5" s="3" t="str">
+        <f>VLOOKUP(D5, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f>VLOOKUP(D5, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Ebob</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'GDK',</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>GDK (Gasoline Diff - Singapore Mogas 92 Unleaded (Platts) vs Argus Eurobob Oxy FOB Rotterdam Barges Future)</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="I6" s="3" t="str">
+        <f>VLOOKUP(D6, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f>VLOOKUP(D6, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Ebob</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'EOB',</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>EOB (Gasoline Crack - Argus Eurobob Oxy FOB Rotterdam Barges vs Brent 1st Line Future)</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="I7" s="3" t="str">
+        <f>VLOOKUP(D7, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f>VLOOKUP(D7, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Ebob</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'GDO',</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>GDO (Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future)</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="I8" s="3" t="str">
+        <f>VLOOKUP(D8, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>¢/GAL</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f>VLOOKUP(D8, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Ebob</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'EON',</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>EON (Argus Eurobob OXY FOB Rotterdam Barges VS Platts Naphtha CIF NWE Cargoes Future)</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="I9" s="3" t="str">
+        <f>VLOOKUP(D9, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f>VLOOKUP(D9, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Rbob</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'UHU',</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H10" t="str">
+      <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>UHU (NYH (RBOB) Gasoline Futures)</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="I10" s="3" t="str">
+        <f>VLOOKUP(D10, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/GAL</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f>VLOOKUP(D10, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Rbob</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'RBS',</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>RBS (RBOB Gasoline 1st Line Future)</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="I11" s="3" t="str">
+        <f>VLOOKUP(D11, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/GAL</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f>VLOOKUP(D11, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Rbob</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'RBR',</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H12" t="str">
+      <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>RBR (Gasoline Crack - RBOB Gasoline 1st Line vs Brent 1st Line Future (in bbls))</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="I12" s="3" t="str">
+        <f>VLOOKUP(D12, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f>VLOOKUP(D12, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Rbob</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'GDO',</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H13" t="str">
+      <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>GDO (Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future)</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="I13" s="3" t="str">
+        <f>VLOOKUP(D13, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>¢/GAL</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f>VLOOKUP(D13, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Light] MOPJ Naph</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'NJC',</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H14" t="str">
+      <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>NJC (Naphtha C+F Japan Cargo Swap)</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="I14" s="3" t="str">
+        <f>VLOOKUP(D14, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f>VLOOKUP(D14, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Light] MOPJ Naph</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'NBG',</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H15" t="str">
+      <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>NBG (Naphtha Crack - Naphtha C+F Japan (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="I15" s="3" t="str">
+        <f>VLOOKUP(D15, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f>VLOOKUP(D15, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Light] MOPJ Naph</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'JOE',</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>JOE (Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future)</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="I16" s="3" t="str">
+        <f>VLOOKUP(D16, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f>VLOOKUP(D16, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Light] NWE Naph</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'NEC',</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H17" t="str">
+      <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>NEC (Naphtha CIF NWE Cargoes Swap)</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="I17" s="3" t="str">
+        <f>VLOOKUP(D17, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f>VLOOKUP(D17, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Light] NWE Naph</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'JOE',</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H18" t="str">
+      <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>JOE (Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future)</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="I18" s="3" t="str">
+        <f>VLOOKUP(D18, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f>VLOOKUP(D18, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Light] NWE Naph</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'NOB',</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H19" t="str">
+      <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>NOB (Naphtha CIF NWE Cargoes vs Brent 1st Line Swap)</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="I19" s="3" t="str">
+        <f>VLOOKUP(D19, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f>VLOOKUP(D19, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Light] NWE Naph</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'EON',</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>EON (Argus Eurobob OXY FOB Rotterdam Barges VS Platts Naphtha CIF NWE Cargoes Future)</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="I20" s="3" t="str">
+        <f>VLOOKUP(D20, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f>VLOOKUP(D20, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] SGO</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'GST.J',</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>GST.J (Singapore Gasoil Swap)</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="I21" s="3" t="str">
+        <f>VLOOKUP(D21, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f>VLOOKUP(D21, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] SGO</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'SGB',</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SGB (Gasoil Crack - Singapore Gasoil (Platts) vs Brent 1st Line Future)</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="I22" s="3" t="str">
+        <f>VLOOKUP(D22, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f>VLOOKUP(D22, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] SGO</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E23" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'BAO',</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BAO (Gasoil Crack - Singapore Gasoil (Platts) vs Dubai 1st Line (Platts) Future)</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="I23" s="3" t="str">
+        <f>VLOOKUP(D23, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f>VLOOKUP(D23, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] SGO</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E24" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'BAP',</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H24" t="str">
+      <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BAP (Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="I24" s="3" t="str">
+        <f>VLOOKUP(D24, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f>VLOOKUP(D24, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] SGO</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E25" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'BAQ',</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H25" t="str">
+      <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="I25" s="3" t="str">
+        <f>VLOOKUP(D25, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f>VLOOKUP(D25, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E26" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'GAS',</v>
       </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H26" t="str">
+      <c r="H26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>GAS (Low Sulphur Gasoil Futures)</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="I26" s="3" t="str">
+        <f>VLOOKUP(D26, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J26" s="3" t="str">
+        <f>VLOOKUP(D26, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E27" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'ULA',</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ULA (Low Sulphur Gasoil 1st Line Future)</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="I27" s="3" t="str">
+        <f>VLOOKUP(D27, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J27" s="3" t="str">
+        <f>VLOOKUP(D27, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E28" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'ULD',</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ULD (Gasoil Crack - Low Sulphur Gasoil 1st Line vs Brent 1st Line Future (in Bbls))</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="I28" s="3" t="str">
+        <f>VLOOKUP(D28, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J28" s="3" t="str">
+        <f>VLOOKUP(D28, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E29" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'ULJ',</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H29" t="str">
+      <c r="H29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ULJ (Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future)</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="I29" s="3" t="str">
+        <f>VLOOKUP(D29, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J29" s="3" t="str">
+        <f>VLOOKUP(D29, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E30" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'BAP',</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H30" t="str">
+      <c r="H30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BAP (Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="I30" s="3" t="str">
+        <f>VLOOKUP(D30, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J30" s="3" t="str">
+        <f>VLOOKUP(D30, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E31" t="str">
+      <c r="E31" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'ULM',</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H31" t="str">
+      <c r="H31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ULM (Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="I31" s="3" t="str">
+        <f>VLOOKUP(D31, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/GAL</v>
+      </c>
+      <c r="J31" s="3" t="str">
+        <f>VLOOKUP(D31, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] SKO</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E32" t="str">
+      <c r="E32" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'SRS',</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H32" t="str">
+      <c r="H32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SRS (Singapore Jet Kerosene Swap)</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="I32" s="3" t="str">
+        <f>VLOOKUP(D32, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J32" s="3" t="str">
+        <f>VLOOKUP(D32, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] SKO</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E33" t="str">
+      <c r="E33" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'SFF',</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H33" t="str">
+      <c r="H33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SFF (Jet Fuel Crack - Singapore Jet Kerosene Cargoes (Platts) vs Dubai 1st Line (Platts) Future)</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="I33" s="3" t="str">
+        <f>VLOOKUP(D33, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J33" s="3" t="str">
+        <f>VLOOKUP(D33, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] SKO</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E34" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'BAQ',</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H34" t="str">
+      <c r="H34" s="3" t="str">
         <f t="shared" ref="H34:H63" si="3">_xlfn.CONCAT(D34," (",G34, ")")</f>
         <v>BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="I34" s="3" t="str">
+        <f>VLOOKUP(D34, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f>VLOOKUP(D34, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] NWE Jet</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E35" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'JCN',</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H35" t="str">
+      <c r="H35" s="3" t="str">
         <f t="shared" si="3"/>
         <v>JCN (Jet CIF NWE Cargoes Future)</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="I35" s="3" t="str">
+        <f>VLOOKUP(D35, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J35" s="3" t="str">
+        <f>VLOOKUP(D35, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] NWE Jet</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E36" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'JNB',</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H36" t="str">
+      <c r="H36" s="3" t="str">
         <f t="shared" si="3"/>
         <v>JNB (Jet Fuel Crack - Jet CIF NWE Cargoes vs Brent 1st Line Future)</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="I36" s="3" t="str">
+        <f>VLOOKUP(D36, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J36" s="3" t="str">
+        <f>VLOOKUP(D36, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] NWE Jet</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E37" t="str">
+      <c r="E37" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'ULJ',</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H37" t="str">
+      <c r="H37" s="3" t="str">
         <f t="shared" si="3"/>
         <v>ULJ (Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future)</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="3" t="str">
+        <f>VLOOKUP(D37, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J37" s="3" t="str">
+        <f>VLOOKUP(D37, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] NWE Jet</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E38" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'JRJ',</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H38" t="str">
+      <c r="H38" s="3" t="str">
         <f t="shared" si="3"/>
         <v>JRJ (Jet Fuel Diff - Jet FOB Rotterdam Barges vs Jet CIF NWE Cargoes Future)</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="I38" s="3" t="str">
+        <f>VLOOKUP(D38, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J38" s="3" t="str">
+        <f>VLOOKUP(D38, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] HO</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E39" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'UHO',</v>
       </c>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H39" t="str">
+      <c r="H39" s="3" t="str">
         <f t="shared" si="3"/>
         <v>UHO (Heating Oil Futures)</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="I39" s="3" t="str">
+        <f>VLOOKUP(D39, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/GAL</v>
+      </c>
+      <c r="J39" s="3" t="str">
+        <f>VLOOKUP(D39, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] HO</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E40" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'HOF',</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H40" t="str">
+      <c r="H40" s="3" t="str">
         <f t="shared" si="3"/>
         <v>HOF (Heating Oil 1st Line Future)</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="I40" s="3" t="str">
+        <f>VLOOKUP(D40, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/GAL</v>
+      </c>
+      <c r="J40" s="3" t="str">
+        <f>VLOOKUP(D40, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] HO</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E41" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'HBT',</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H41" t="str">
+      <c r="H41" s="3" t="str">
         <f t="shared" si="3"/>
         <v>HBT (Heating Oil Crack - Heating Oil 1st Line vs Brent 1st Line Future (in bbls))</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="I41" s="3" t="str">
+        <f>VLOOKUP(D41, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J41" s="3" t="str">
+        <f>VLOOKUP(D41, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] HO</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E42" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'ULM',</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H42" s="3" t="str">
         <f t="shared" si="3"/>
         <v>ULM (Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="I42" s="3" t="str">
+        <f>VLOOKUP(D42, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/GAL</v>
+      </c>
+      <c r="J42" s="3" t="str">
+        <f>VLOOKUP(D42, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E43" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'MF4',</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H43" t="str">
+      <c r="H43" s="3" t="str">
         <f t="shared" si="3"/>
         <v>MF4 (Marine Fuel 0.5% FOB Singapore Swap)</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="I43" s="3" t="str">
+        <f>VLOOKUP(D43, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J43" s="3" t="str">
+        <f>VLOOKUP(D43, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E44" t="str">
+      <c r="E44" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'MFT',</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H44" t="str">
+      <c r="H44" s="3" t="str">
         <f t="shared" si="3"/>
         <v>MFT (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="I44" s="3" t="str">
+        <f>VLOOKUP(D44, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J44" s="3" t="str">
+        <f>VLOOKUP(D44, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E45" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'TEN',</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H45" t="str">
+      <c r="H45" s="3" t="str">
         <f t="shared" si="3"/>
         <v>TEN (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in MTs))</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="I45" s="3" t="str">
+        <f>VLOOKUP(D45, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J45" s="3" t="str">
+        <f>VLOOKUP(D45, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E46" t="str">
+      <c r="E46" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'MF6',</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H46" t="str">
+      <c r="H46" s="3" t="str">
         <f t="shared" si="3"/>
         <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="I46" s="3" t="str">
+        <f>VLOOKUP(D46, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J46" s="3" t="str">
+        <f>VLOOKUP(D46, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E47" t="str">
+      <c r="E47" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'MF7',</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H47" t="str">
+      <c r="H47" s="3" t="str">
         <f t="shared" si="3"/>
         <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="I47" s="3" t="str">
+        <f>VLOOKUP(D47, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J47" s="3" t="str">
+        <f>VLOOKUP(D47, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E48" t="str">
+      <c r="E48" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'FDF',</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H48" t="str">
+      <c r="H48" s="3" t="str">
         <f t="shared" si="3"/>
         <v>FDF (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Singapore Gasoil (Platts) Future (in MTs))</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="I48" s="3" t="str">
+        <f>VLOOKUP(D48, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J48" s="3" t="str">
+        <f>VLOOKUP(D48, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E49" t="str">
+      <c r="E49" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'MF3',</v>
       </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H49" t="str">
+      <c r="H49" s="3" t="str">
         <f t="shared" si="3"/>
         <v>MF3 (Marine Fuel 0.5% FOB Rotterdam Barge Swap)</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="I49" s="3" t="str">
+        <f>VLOOKUP(D49, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J49" s="3" t="str">
+        <f>VLOOKUP(D49, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E50" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'MF5',</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H50" t="str">
+      <c r="H50" s="3" t="str">
         <f t="shared" si="3"/>
         <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="I50" s="3" t="str">
+        <f>VLOOKUP(D50, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J50" s="3" t="str">
+        <f>VLOOKUP(D50, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E51" t="str">
+      <c r="E51" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'MFR',</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H51" t="str">
+      <c r="H51" s="3" t="str">
         <f t="shared" si="3"/>
         <v>MFR (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="I51" s="3" t="str">
+        <f>VLOOKUP(D51, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J51" s="3" t="str">
+        <f>VLOOKUP(D51, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E52" t="str">
+      <c r="E52" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'TEO',</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H52" t="str">
+      <c r="H52" s="3" t="str">
         <f t="shared" si="3"/>
         <v>TEO (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in MTs))</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="I52" s="3" t="str">
+        <f>VLOOKUP(D52, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J52" s="3" t="str">
+        <f>VLOOKUP(D52, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E53" t="str">
+      <c r="E53" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'MF7',</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H53" t="str">
+      <c r="H53" s="3" t="str">
         <f t="shared" si="3"/>
         <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="I53" s="3" t="str">
+        <f>VLOOKUP(D53, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J53" s="3" t="str">
+        <f>VLOOKUP(D53, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S380</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E54" t="str">
+      <c r="E54" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'SYS',</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H54" t="str">
+      <c r="H54" s="3" t="str">
         <f t="shared" si="3"/>
         <v>SYS (Fuel Oil 380 CST Singapore Swap)</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="I54" s="3" t="str">
+        <f>VLOOKUP(D54, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J54" s="3" t="str">
+        <f>VLOOKUP(D54, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S380</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E55" t="str">
+      <c r="E55" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'SPS',</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H55" t="str">
+      <c r="H55" s="3" t="str">
         <f t="shared" si="3"/>
         <v>SPS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Brent 1st Line Future)</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="I55" s="3" t="str">
+        <f>VLOOKUP(D55, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J55" s="3" t="str">
+        <f>VLOOKUP(D55, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S380</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E56" t="str">
+      <c r="E56" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'SLS',</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H56" t="str">
+      <c r="H56" s="3" t="str">
         <f t="shared" si="3"/>
         <v>SLS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Dubai 1st Line Future)</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="I56" s="3" t="str">
+        <f>VLOOKUP(D56, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J56" s="3" t="str">
+        <f>VLOOKUP(D56, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S380</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E57" t="str">
+      <c r="E57" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'SJS',</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H57" t="str">
+      <c r="H57" s="3" t="str">
         <f t="shared" si="3"/>
         <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="I57" s="3" t="str">
+        <f>VLOOKUP(D57, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J57" s="3" t="str">
+        <f>VLOOKUP(D57, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S380</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E58" t="str">
+      <c r="E58" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'MF6',</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H58" t="str">
+      <c r="H58" s="3" t="str">
         <f t="shared" si="3"/>
         <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="I58" s="3" t="str">
+        <f>VLOOKUP(D58, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J58" s="3" t="str">
+        <f>VLOOKUP(D58, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E59" t="str">
+      <c r="E59" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'BAR',</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H59" t="str">
+      <c r="H59" s="3" t="str">
         <f t="shared" si="3"/>
         <v>BAR (Fuel Oil 3.5% FOB Rotterdam Barges Balmo Swap)</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="I59" s="3" t="str">
+        <f>VLOOKUP(D59, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J59" s="3" t="str">
+        <f>VLOOKUP(D59, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C60" t="str">
+      <c r="C60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E60" t="str">
+      <c r="E60" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'BOB',</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H60" t="str">
+      <c r="H60" s="3" t="str">
         <f t="shared" si="3"/>
         <v>BOB (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future)</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="I60" s="3" t="str">
+        <f>VLOOKUP(D60, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J60" s="3" t="str">
+        <f>VLOOKUP(D60, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E61" t="str">
+      <c r="E61" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'BOA',</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H61" t="str">
+      <c r="H61" s="3" t="str">
         <f t="shared" si="3"/>
         <v>BOA (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls))</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="I61" s="3" t="str">
+        <f>VLOOKUP(D61, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/BBL</v>
+      </c>
+      <c r="J61" s="3" t="str">
+        <f>VLOOKUP(D61, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>BBL</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C62" t="str">
+      <c r="C62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E62" t="str">
+      <c r="E62" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'SJS',</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H62" t="str">
+      <c r="H62" s="3" t="str">
         <f t="shared" si="3"/>
         <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="I62" s="3" t="str">
+        <f>VLOOKUP(D62, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J62" s="3" t="str">
+        <f>VLOOKUP(D62, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C63" t="str">
+      <c r="C63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E63" t="str">
+      <c r="E63" s="3" t="str">
         <f t="shared" si="2"/>
         <v>'MF5',</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H63" t="str">
+      <c r="H63" s="3" t="str">
         <f t="shared" si="3"/>
         <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
+      <c r="I63" s="3" t="str">
+        <f>VLOOKUP(D63, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J63" s="3" t="str">
+        <f>VLOOKUP(D63, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H63" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J63" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79F6FFB-87B1-4A05-841C-8DAB5CB24C7E}">
+  <dimension ref="A3:G54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <f>B4=C4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <f>B5=C5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <f>B6=C6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <f>B7=C7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <f>B8=C8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <f>B9=C9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <f>B10=C10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <f>B11=C11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <f>B12=C12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="2" t="b">
+        <f>B13=C13</f>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <f>B14=C14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="2" t="b">
+        <f>B15=C15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="2" t="b">
+        <f>B16=C16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="2" t="b">
+        <f>B17=C17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="2" t="b">
+        <f>B18=C18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="2" t="b">
+        <f>B19=C19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="2" t="b">
+        <f>B20=C20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="2" t="b">
+        <f>B21=C21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="2" t="b">
+        <f>B22=C22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="2" t="b">
+        <f>B23=C23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="2" t="b">
+        <f>B24=C24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="2" t="b">
+        <f>B25=C25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="2" t="b">
+        <f>B26=C26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="2" t="b">
+        <f>B27=C27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="2" t="b">
+        <f>B28=C28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="2" t="b">
+        <f>B29=C29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="2" t="b">
+        <f>B30=C30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="2" t="b">
+        <f>B31=C31</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="2" t="b">
+        <f>B32=C32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="2" t="b">
+        <f>B33=C33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="2" t="b">
+        <f>B34=C34</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="2" t="b">
+        <f>B35=C35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="2" t="b">
+        <f>B36=C36</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="2" t="b">
+        <f>B37=C37</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="2" t="b">
+        <f>B38=C38</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="2" t="b">
+        <f>B39=C39</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="2" t="b">
+        <f>B40=C40</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="2" t="b">
+        <f>B41=C41</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="2" t="b">
+        <f>B42=C42</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="2" t="b">
+        <f>B43=C43</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="2" t="b">
+        <f>B44=C44</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="2" t="b">
+        <f>B45=C45</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="2" t="b">
+        <f>B46=C46</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="2" t="b">
+        <f>B47=C47</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="2" t="b">
+        <f>B48=C48</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="2" t="b">
+        <f>B49=C49</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="2" t="b">
+        <f>B50=C50</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="2" t="b">
+        <f>B51=C51</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="2" t="b">
+        <f>B52=C52</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="2" t="b">
+        <f>B53=C53</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/OI_product_map.xlsx
+++ b/data/OI_product_map.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4BE30AE-7E18-42EB-8F4B-4051D4B04C9B}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1D36506-C0BA-402A-B611-B2FBE636F3E6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="38640" windowHeight="15840" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$J$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$G$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="147">
   <si>
     <t>Product Family</t>
   </si>
@@ -531,13 +533,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1274,7 +1275,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23CDFA64-99A4-40E4-9BAE-6970E7183312}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23CDFA64-99A4-40E4-9BAE-6970E7183312}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -1832,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,2331 +1846,2332 @@
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="96.140625" customWidth="1"/>
     <col min="8" max="8" width="107.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" t="str">
         <f>_xlfn.CONCAT("[",A2,"] ",B2)</f>
         <v>[Light] S92</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="str">
+      <c r="E2" t="str">
         <f>_xlfn.CONCAT("'",D2,"',")</f>
         <v>'SMT',</v>
       </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="3" t="str">
+      <c r="H2" t="str">
         <f t="shared" ref="H2:H33" si="0">_xlfn.CONCAT(D2," (",G2, ")")</f>
         <v>SMT (Singapore Mogas 92 Unleaded Swap)</v>
       </c>
-      <c r="I2" s="3" t="str">
+      <c r="I2" t="str">
         <f>VLOOKUP(D2, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J2" s="3" t="str">
+      <c r="J2" t="str">
         <f>VLOOKUP(D2, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" t="str">
         <f t="shared" ref="C3:C63" si="1">_xlfn.CONCAT("[",A3,"] ",B3)</f>
         <v>[Light] S92</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="str">
+      <c r="E3" t="str">
         <f t="shared" ref="E3:E63" si="2">_xlfn.CONCAT("'",D3,"',")</f>
         <v>'GDK',</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="3" t="str">
+      <c r="H3" t="str">
         <f t="shared" si="0"/>
         <v>GDK (Gasoline Diff - Singapore Mogas 92 Unleaded (Platts) vs Argus Eurobob Oxy FOB Rotterdam Barges Future)</v>
       </c>
-      <c r="I3" s="3" t="str">
+      <c r="I3" t="str">
         <f>VLOOKUP(D3, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="J3" t="str">
         <f>VLOOKUP(D3, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" t="str">
         <f t="shared" si="1"/>
         <v>[Light] S92</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" t="str">
         <f t="shared" si="2"/>
         <v>'STB',</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" t="str">
         <f t="shared" si="0"/>
         <v>STB (Singapore Mogas 92 Unleaded vs Brent 1st Line Future)</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" t="str">
         <f>VLOOKUP(D4, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" t="str">
         <f>VLOOKUP(D4, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Ebob</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="str">
+      <c r="E5" t="str">
         <f t="shared" si="2"/>
         <v>'AEO',</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" t="str">
         <f t="shared" si="0"/>
         <v>AEO (Argus Eurobob Oxy FOB Rotterdam Barges Future)</v>
       </c>
-      <c r="I5" s="3" t="str">
+      <c r="I5" t="str">
         <f>VLOOKUP(D5, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J5" s="3" t="str">
+      <c r="J5" t="str">
         <f>VLOOKUP(D5, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Ebob</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="str">
+      <c r="E6" t="str">
         <f t="shared" si="2"/>
         <v>'GDK',</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>GDK (Gasoline Diff - Singapore Mogas 92 Unleaded (Platts) vs Argus Eurobob Oxy FOB Rotterdam Barges Future)</v>
       </c>
-      <c r="I6" s="3" t="str">
+      <c r="I6" t="str">
         <f>VLOOKUP(D6, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="J6" t="str">
         <f>VLOOKUP(D6, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Ebob</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="str">
+      <c r="E7" t="str">
         <f t="shared" si="2"/>
         <v>'EOB',</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>EOB (Gasoline Crack - Argus Eurobob Oxy FOB Rotterdam Barges vs Brent 1st Line Future)</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" t="str">
         <f>VLOOKUP(D7, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" t="str">
         <f>VLOOKUP(D7, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="C8" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Ebob</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3" t="str">
+      <c r="E8" t="str">
         <f t="shared" si="2"/>
         <v>'GDO',</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>GDO (Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future)</v>
       </c>
-      <c r="I8" s="3" t="str">
+      <c r="I8" t="str">
         <f>VLOOKUP(D8, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>¢/GAL</v>
       </c>
-      <c r="J8" s="3" t="str">
+      <c r="J8" t="str">
         <f>VLOOKUP(D8, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="str">
+      <c r="C9" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Ebob</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3" t="str">
+      <c r="E9" t="str">
         <f t="shared" si="2"/>
         <v>'EON',</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>EON (Argus Eurobob OXY FOB Rotterdam Barges VS Platts Naphtha CIF NWE Cargoes Future)</v>
       </c>
-      <c r="I9" s="3" t="str">
+      <c r="I9" t="str">
         <f>VLOOKUP(D9, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J9" s="3" t="str">
+      <c r="J9" t="str">
         <f>VLOOKUP(D9, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C10" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Rbob</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="3" t="str">
+      <c r="E10" t="str">
         <f t="shared" si="2"/>
         <v>'UHU',</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="3" t="str">
+      <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>UHU (NYH (RBOB) Gasoline Futures)</v>
       </c>
-      <c r="I10" s="3" t="str">
+      <c r="I10" t="str">
         <f>VLOOKUP(D10, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/GAL</v>
       </c>
-      <c r="J10" s="3" t="str">
+      <c r="J10" t="str">
         <f>VLOOKUP(D10, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Rbob</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="str">
+      <c r="E11" t="str">
         <f t="shared" si="2"/>
         <v>'RBS',</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="3" t="str">
+      <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>RBS (RBOB Gasoline 1st Line Future)</v>
       </c>
-      <c r="I11" s="3" t="str">
+      <c r="I11" t="str">
         <f>VLOOKUP(D11, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/GAL</v>
       </c>
-      <c r="J11" s="3" t="str">
+      <c r="J11" t="str">
         <f>VLOOKUP(D11, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Rbob</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="3" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="2"/>
         <v>'RBR',</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="3" t="str">
+      <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>RBR (Gasoline Crack - RBOB Gasoline 1st Line vs Brent 1st Line Future (in bbls))</v>
       </c>
-      <c r="I12" s="3" t="str">
+      <c r="I12" t="str">
         <f>VLOOKUP(D12, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J12" s="3" t="str">
+      <c r="J12" t="str">
         <f>VLOOKUP(D12, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="1"/>
         <v>[Light] Rbob</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="3" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="2"/>
         <v>'GDO',</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="3" t="str">
+      <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>GDO (Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future)</v>
       </c>
-      <c r="I13" s="3" t="str">
+      <c r="I13" t="str">
         <f>VLOOKUP(D13, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>¢/GAL</v>
       </c>
-      <c r="J13" s="3" t="str">
+      <c r="J13" t="str">
         <f>VLOOKUP(D13, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="1"/>
         <v>[Light] MOPJ Naph</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="3" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="2"/>
         <v>'NJC',</v>
       </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="3" t="str">
+      <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>NJC (Naphtha C+F Japan Cargo Swap)</v>
       </c>
-      <c r="I14" s="3" t="str">
+      <c r="I14" t="str">
         <f>VLOOKUP(D14, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J14" s="3" t="str">
+      <c r="J14" t="str">
         <f>VLOOKUP(D14, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="1"/>
         <v>[Light] MOPJ Naph</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="3" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="2"/>
         <v>'NBG',</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="3" t="str">
+      <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>NBG (Naphtha Crack - Naphtha C+F Japan (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
-      <c r="I15" s="3" t="str">
+      <c r="I15" t="str">
         <f>VLOOKUP(D15, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J15" s="3" t="str">
+      <c r="J15" t="str">
         <f>VLOOKUP(D15, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="1"/>
         <v>[Light] MOPJ Naph</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="3" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="2"/>
         <v>'JOE',</v>
       </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="3" t="str">
+      <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>JOE (Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future)</v>
       </c>
-      <c r="I16" s="3" t="str">
+      <c r="I16" t="str">
         <f>VLOOKUP(D16, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J16" s="3" t="str">
+      <c r="J16" t="str">
         <f>VLOOKUP(D16, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="3" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="1"/>
         <v>[Light] NWE Naph</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="3" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="2"/>
         <v>'NEC',</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="3" t="str">
+      <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>NEC (Naphtha CIF NWE Cargoes Swap)</v>
       </c>
-      <c r="I17" s="3" t="str">
+      <c r="I17" t="str">
         <f>VLOOKUP(D17, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J17" s="3" t="str">
+      <c r="J17" t="str">
         <f>VLOOKUP(D17, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="3" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="1"/>
         <v>[Light] NWE Naph</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="3" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="2"/>
         <v>'JOE',</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="3" t="str">
+      <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>JOE (Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future)</v>
       </c>
-      <c r="I18" s="3" t="str">
+      <c r="I18" t="str">
         <f>VLOOKUP(D18, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J18" s="3" t="str">
+      <c r="J18" t="str">
         <f>VLOOKUP(D18, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="3" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="1"/>
         <v>[Light] NWE Naph</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="3" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="2"/>
         <v>'NOB',</v>
       </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="3" t="str">
+      <c r="H19" t="str">
         <f t="shared" si="0"/>
         <v>NOB (Naphtha CIF NWE Cargoes vs Brent 1st Line Swap)</v>
       </c>
-      <c r="I19" s="3" t="str">
+      <c r="I19" t="str">
         <f>VLOOKUP(D19, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J19" s="3" t="str">
+      <c r="J19" t="str">
         <f>VLOOKUP(D19, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="3" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="1"/>
         <v>[Light] NWE Naph</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="2"/>
         <v>'EON',</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="3" t="str">
+      <c r="H20" t="str">
         <f t="shared" si="0"/>
         <v>EON (Argus Eurobob OXY FOB Rotterdam Barges VS Platts Naphtha CIF NWE Cargoes Future)</v>
       </c>
-      <c r="I20" s="3" t="str">
+      <c r="I20" t="str">
         <f>VLOOKUP(D20, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J20" s="3" t="str">
+      <c r="J20" t="str">
         <f>VLOOKUP(D20, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="3" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] SGO</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="3" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="2"/>
         <v>'GST.J',</v>
       </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="3" t="str">
+      <c r="H21" t="str">
         <f t="shared" si="0"/>
         <v>GST.J (Singapore Gasoil Swap)</v>
       </c>
-      <c r="I21" s="3" t="str">
+      <c r="I21" t="str">
         <f>VLOOKUP(D21, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J21" s="3" t="str">
+      <c r="J21" t="str">
         <f>VLOOKUP(D21, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] SGO</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="3" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="2"/>
         <v>'SGB',</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="3" t="str">
+      <c r="H22" t="str">
         <f t="shared" si="0"/>
         <v>SGB (Gasoil Crack - Singapore Gasoil (Platts) vs Brent 1st Line Future)</v>
       </c>
-      <c r="I22" s="3" t="str">
+      <c r="I22" t="str">
         <f>VLOOKUP(D22, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J22" s="3" t="str">
+      <c r="J22" t="str">
         <f>VLOOKUP(D22, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] SGO</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="3" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="2"/>
         <v>'BAO',</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="3" t="str">
+      <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v>BAO (Gasoil Crack - Singapore Gasoil (Platts) vs Dubai 1st Line (Platts) Future)</v>
       </c>
-      <c r="I23" s="3" t="str">
+      <c r="I23" t="str">
         <f>VLOOKUP(D23, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J23" s="3" t="str">
+      <c r="J23" t="str">
         <f>VLOOKUP(D23, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] SGO</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="3" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="2"/>
         <v>'BAP',</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="3" t="str">
+      <c r="H24" t="str">
         <f t="shared" si="0"/>
         <v>BAP (Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
-      <c r="I24" s="3" t="str">
+      <c r="I24" t="str">
         <f>VLOOKUP(D24, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J24" s="3" t="str">
+      <c r="J24" t="str">
         <f>VLOOKUP(D24, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] SGO</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="3" t="str">
+      <c r="E25" t="str">
         <f t="shared" si="2"/>
         <v>'BAQ',</v>
       </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="3" t="str">
+      <c r="H25" t="str">
         <f t="shared" si="0"/>
         <v>BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)</v>
       </c>
-      <c r="I25" s="3" t="str">
+      <c r="I25" t="str">
         <f>VLOOKUP(D25, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J25" s="3" t="str">
+      <c r="J25" t="str">
         <f>VLOOKUP(D25, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="3" t="str">
+      <c r="C26" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="3" t="str">
+      <c r="E26" t="str">
         <f t="shared" si="2"/>
         <v>'GAS',</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="3" t="str">
+      <c r="H26" t="str">
         <f t="shared" si="0"/>
         <v>GAS (Low Sulphur Gasoil Futures)</v>
       </c>
-      <c r="I26" s="3" t="str">
+      <c r="I26" t="str">
         <f>VLOOKUP(D26, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J26" s="3" t="str">
+      <c r="J26" t="str">
         <f>VLOOKUP(D26, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="C27" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="3" t="str">
+      <c r="E27" t="str">
         <f t="shared" si="2"/>
         <v>'ULA',</v>
       </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="3" t="str">
+      <c r="H27" t="str">
         <f t="shared" si="0"/>
         <v>ULA (Low Sulphur Gasoil 1st Line Future)</v>
       </c>
-      <c r="I27" s="3" t="str">
+      <c r="I27" t="str">
         <f>VLOOKUP(D27, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J27" s="3" t="str">
+      <c r="J27" t="str">
         <f>VLOOKUP(D27, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="3" t="str">
+      <c r="C28" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="3" t="str">
+      <c r="E28" t="str">
         <f t="shared" si="2"/>
         <v>'ULD',</v>
       </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="3" t="str">
+      <c r="H28" t="str">
         <f t="shared" si="0"/>
         <v>ULD (Gasoil Crack - Low Sulphur Gasoil 1st Line vs Brent 1st Line Future (in Bbls))</v>
       </c>
-      <c r="I28" s="3" t="str">
+      <c r="I28" t="str">
         <f>VLOOKUP(D28, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J28" s="3" t="str">
+      <c r="J28" t="str">
         <f>VLOOKUP(D28, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="3" t="str">
+      <c r="C29" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="3" t="str">
+      <c r="E29" t="str">
         <f t="shared" si="2"/>
         <v>'ULJ',</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
         <v>96</v>
       </c>
-      <c r="H29" s="3" t="str">
+      <c r="H29" t="str">
         <f t="shared" si="0"/>
         <v>ULJ (Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future)</v>
       </c>
-      <c r="I29" s="3" t="str">
+      <c r="I29" t="str">
         <f>VLOOKUP(D29, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J29" s="3" t="str">
+      <c r="J29" t="str">
         <f>VLOOKUP(D29, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="3" t="str">
+      <c r="C30" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="3" t="str">
+      <c r="E30" t="str">
         <f t="shared" si="2"/>
         <v>'BAP',</v>
       </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
         <v>91</v>
       </c>
-      <c r="H30" s="3" t="str">
+      <c r="H30" t="str">
         <f t="shared" si="0"/>
         <v>BAP (Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
-      <c r="I30" s="3" t="str">
+      <c r="I30" t="str">
         <f>VLOOKUP(D30, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J30" s="3" t="str">
+      <c r="J30" t="str">
         <f>VLOOKUP(D30, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="3" t="str">
+      <c r="C31" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] ICEGO</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="3" t="str">
+      <c r="E31" t="str">
         <f t="shared" si="2"/>
         <v>'ULM',</v>
       </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="3" t="str">
+      <c r="H31" t="str">
         <f t="shared" si="0"/>
         <v>ULM (Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
-      <c r="I31" s="3" t="str">
+      <c r="I31" t="str">
         <f>VLOOKUP(D31, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/GAL</v>
       </c>
-      <c r="J31" s="3" t="str">
+      <c r="J31" t="str">
         <f>VLOOKUP(D31, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="3" t="str">
+      <c r="C32" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] SKO</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="3" t="str">
+      <c r="E32" t="str">
         <f t="shared" si="2"/>
         <v>'SRS',</v>
       </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
         <v>98</v>
       </c>
-      <c r="H32" s="3" t="str">
+      <c r="H32" t="str">
         <f t="shared" si="0"/>
         <v>SRS (Singapore Jet Kerosene Swap)</v>
       </c>
-      <c r="I32" s="3" t="str">
+      <c r="I32" t="str">
         <f>VLOOKUP(D32, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J32" s="3" t="str">
+      <c r="J32" t="str">
         <f>VLOOKUP(D32, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="3" t="str">
+      <c r="C33" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] SKO</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="3" t="str">
+      <c r="E33" t="str">
         <f t="shared" si="2"/>
         <v>'SFF',</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
         <v>99</v>
       </c>
-      <c r="H33" s="3" t="str">
+      <c r="H33" t="str">
         <f t="shared" si="0"/>
         <v>SFF (Jet Fuel Crack - Singapore Jet Kerosene Cargoes (Platts) vs Dubai 1st Line (Platts) Future)</v>
       </c>
-      <c r="I33" s="3" t="str">
+      <c r="I33" t="str">
         <f>VLOOKUP(D33, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J33" s="3" t="str">
+      <c r="J33" t="str">
         <f>VLOOKUP(D33, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="3" t="str">
+      <c r="C34" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] SKO</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="3" t="str">
+      <c r="E34" t="str">
         <f t="shared" si="2"/>
         <v>'BAQ',</v>
       </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
         <v>92</v>
       </c>
-      <c r="H34" s="3" t="str">
+      <c r="H34" t="str">
         <f t="shared" ref="H34:H63" si="3">_xlfn.CONCAT(D34," (",G34, ")")</f>
         <v>BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)</v>
       </c>
-      <c r="I34" s="3" t="str">
+      <c r="I34" t="str">
         <f>VLOOKUP(D34, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J34" s="3" t="str">
+      <c r="J34" t="str">
         <f>VLOOKUP(D34, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="3" t="str">
+      <c r="C35" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] NWE Jet</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="3" t="str">
+      <c r="E35" t="str">
         <f t="shared" si="2"/>
         <v>'JCN',</v>
       </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="3" t="str">
+      <c r="H35" t="str">
         <f t="shared" si="3"/>
         <v>JCN (Jet CIF NWE Cargoes Future)</v>
       </c>
-      <c r="I35" s="3" t="str">
+      <c r="I35" t="str">
         <f>VLOOKUP(D35, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J35" s="3" t="str">
+      <c r="J35" t="str">
         <f>VLOOKUP(D35, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="3" t="str">
+      <c r="C36" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] NWE Jet</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="3" t="str">
+      <c r="E36" t="str">
         <f t="shared" si="2"/>
         <v>'JNB',</v>
       </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
         <v>101</v>
       </c>
-      <c r="H36" s="3" t="str">
+      <c r="H36" t="str">
         <f t="shared" si="3"/>
         <v>JNB (Jet Fuel Crack - Jet CIF NWE Cargoes vs Brent 1st Line Future)</v>
       </c>
-      <c r="I36" s="3" t="str">
+      <c r="I36" t="str">
         <f>VLOOKUP(D36, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J36" s="3" t="str">
+      <c r="J36" t="str">
         <f>VLOOKUP(D36, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="3" t="str">
+      <c r="C37" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] NWE Jet</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="3" t="str">
+      <c r="E37" t="str">
         <f t="shared" si="2"/>
         <v>'ULJ',</v>
       </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
         <v>96</v>
       </c>
-      <c r="H37" s="3" t="str">
+      <c r="H37" t="str">
         <f t="shared" si="3"/>
         <v>ULJ (Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future)</v>
       </c>
-      <c r="I37" s="3" t="str">
+      <c r="I37" t="str">
         <f>VLOOKUP(D37, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J37" s="3" t="str">
+      <c r="J37" t="str">
         <f>VLOOKUP(D37, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="3" t="str">
+      <c r="C38" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] NWE Jet</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="3" t="str">
+      <c r="E38" t="str">
         <f t="shared" si="2"/>
         <v>'JRJ',</v>
       </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="3" t="str">
+      <c r="H38" t="str">
         <f t="shared" si="3"/>
         <v>JRJ (Jet Fuel Diff - Jet FOB Rotterdam Barges vs Jet CIF NWE Cargoes Future)</v>
       </c>
-      <c r="I38" s="3" t="str">
+      <c r="I38" t="str">
         <f>VLOOKUP(D38, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J38" s="3" t="str">
+      <c r="J38" t="str">
         <f>VLOOKUP(D38, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="3" t="str">
+      <c r="C39" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] HO</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="3" t="str">
+      <c r="E39" t="str">
         <f t="shared" si="2"/>
         <v>'UHO',</v>
       </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="3" t="str">
+      <c r="H39" t="str">
         <f t="shared" si="3"/>
         <v>UHO (Heating Oil Futures)</v>
       </c>
-      <c r="I39" s="3" t="str">
+      <c r="I39" t="str">
         <f>VLOOKUP(D39, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/GAL</v>
       </c>
-      <c r="J39" s="3" t="str">
+      <c r="J39" t="str">
         <f>VLOOKUP(D39, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="3" t="str">
+      <c r="C40" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] HO</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="3" t="str">
+      <c r="E40" t="str">
         <f t="shared" si="2"/>
         <v>'HOF',</v>
       </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="3" t="str">
+      <c r="H40" t="str">
         <f t="shared" si="3"/>
         <v>HOF (Heating Oil 1st Line Future)</v>
       </c>
-      <c r="I40" s="3" t="str">
+      <c r="I40" t="str">
         <f>VLOOKUP(D40, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/GAL</v>
       </c>
-      <c r="J40" s="3" t="str">
+      <c r="J40" t="str">
         <f>VLOOKUP(D40, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="3" t="str">
+      <c r="C41" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] HO</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="3" t="str">
+      <c r="E41" t="str">
         <f t="shared" si="2"/>
         <v>'HBT',</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
         <v>104</v>
       </c>
-      <c r="H41" s="3" t="str">
+      <c r="H41" t="str">
         <f t="shared" si="3"/>
         <v>HBT (Heating Oil Crack - Heating Oil 1st Line vs Brent 1st Line Future (in bbls))</v>
       </c>
-      <c r="I41" s="3" t="str">
+      <c r="I41" t="str">
         <f>VLOOKUP(D41, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J41" s="3" t="str">
+      <c r="J41" t="str">
         <f>VLOOKUP(D41, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="3" t="str">
+      <c r="C42" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] HO</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="3" t="str">
+      <c r="E42" t="str">
         <f t="shared" si="2"/>
         <v>'ULM',</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
         <v>97</v>
       </c>
-      <c r="H42" s="3" t="str">
+      <c r="H42" t="str">
         <f t="shared" si="3"/>
         <v>ULM (Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
-      <c r="I42" s="3" t="str">
+      <c r="I42" t="str">
         <f>VLOOKUP(D42, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/GAL</v>
       </c>
-      <c r="J42" s="3" t="str">
+      <c r="J42" t="str">
         <f>VLOOKUP(D42, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="3" t="str">
+      <c r="C43" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="3" t="str">
+      <c r="E43" t="str">
         <f t="shared" si="2"/>
         <v>'MF4',</v>
       </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
         <v>105</v>
       </c>
-      <c r="H43" s="3" t="str">
+      <c r="H43" t="str">
         <f t="shared" si="3"/>
         <v>MF4 (Marine Fuel 0.5% FOB Singapore Swap)</v>
       </c>
-      <c r="I43" s="3" t="str">
+      <c r="I43" t="str">
         <f>VLOOKUP(D43, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J43" s="3" t="str">
+      <c r="J43" t="str">
         <f>VLOOKUP(D43, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="3" t="str">
+      <c r="C44" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="3" t="str">
+      <c r="E44" t="str">
         <f t="shared" si="2"/>
         <v>'MFT',</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
         <v>106</v>
       </c>
-      <c r="H44" s="3" t="str">
+      <c r="H44" t="str">
         <f t="shared" si="3"/>
         <v>MFT (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
-      <c r="I44" s="3" t="str">
+      <c r="I44" t="str">
         <f>VLOOKUP(D44, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J44" s="3" t="str">
+      <c r="J44" t="str">
         <f>VLOOKUP(D44, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="3" t="str">
+      <c r="C45" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="3" t="str">
+      <c r="E45" t="str">
         <f t="shared" si="2"/>
         <v>'TEN',</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
         <v>107</v>
       </c>
-      <c r="H45" s="3" t="str">
+      <c r="H45" t="str">
         <f t="shared" si="3"/>
         <v>TEN (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in MTs))</v>
       </c>
-      <c r="I45" s="3" t="str">
+      <c r="I45" t="str">
         <f>VLOOKUP(D45, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J45" s="3" t="str">
+      <c r="J45" t="str">
         <f>VLOOKUP(D45, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="3" t="str">
+      <c r="C46" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="3" t="str">
+      <c r="E46" t="str">
         <f t="shared" si="2"/>
         <v>'MF6',</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
         <v>108</v>
       </c>
-      <c r="H46" s="3" t="str">
+      <c r="H46" t="str">
         <f t="shared" si="3"/>
         <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
       </c>
-      <c r="I46" s="3" t="str">
+      <c r="I46" t="str">
         <f>VLOOKUP(D46, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J46" s="3" t="str">
+      <c r="J46" t="str">
         <f>VLOOKUP(D46, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="3" t="str">
+      <c r="C47" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="3" t="str">
+      <c r="E47" t="str">
         <f t="shared" si="2"/>
         <v>'MF7',</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
         <v>109</v>
       </c>
-      <c r="H47" s="3" t="str">
+      <c r="H47" t="str">
         <f t="shared" si="3"/>
         <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
       </c>
-      <c r="I47" s="3" t="str">
+      <c r="I47" t="str">
         <f>VLOOKUP(D47, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J47" s="3" t="str">
+      <c r="J47" t="str">
         <f>VLOOKUP(D47, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="3" t="str">
+      <c r="C48" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S0.5</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="3" t="str">
+      <c r="E48" t="str">
         <f t="shared" si="2"/>
         <v>'FDF',</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
         <v>110</v>
       </c>
-      <c r="H48" s="3" t="str">
+      <c r="H48" t="str">
         <f t="shared" si="3"/>
         <v>FDF (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Singapore Gasoil (Platts) Future (in MTs))</v>
       </c>
-      <c r="I48" s="3" t="str">
+      <c r="I48" t="str">
         <f>VLOOKUP(D48, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J48" s="3" t="str">
+      <c r="J48" t="str">
         <f>VLOOKUP(D48, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="3" t="str">
+      <c r="C49" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="3" t="str">
+      <c r="E49" t="str">
         <f t="shared" si="2"/>
         <v>'MF3',</v>
       </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
         <v>111</v>
       </c>
-      <c r="H49" s="3" t="str">
+      <c r="H49" t="str">
         <f t="shared" si="3"/>
         <v>MF3 (Marine Fuel 0.5% FOB Rotterdam Barge Swap)</v>
       </c>
-      <c r="I49" s="3" t="str">
+      <c r="I49" t="str">
         <f>VLOOKUP(D49, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J49" s="3" t="str">
+      <c r="J49" t="str">
         <f>VLOOKUP(D49, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="3" t="str">
+      <c r="C50" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" t="s">
         <v>61</v>
       </c>
-      <c r="E50" s="3" t="str">
+      <c r="E50" t="str">
         <f t="shared" si="2"/>
         <v>'MF5',</v>
       </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
         <v>112</v>
       </c>
-      <c r="H50" s="3" t="str">
+      <c r="H50" t="str">
         <f t="shared" si="3"/>
         <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
-      <c r="I50" s="3" t="str">
+      <c r="I50" t="str">
         <f>VLOOKUP(D50, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J50" s="3" t="str">
+      <c r="J50" t="str">
         <f>VLOOKUP(D50, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="3" t="str">
+      <c r="C51" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" t="s">
         <v>62</v>
       </c>
-      <c r="E51" s="3" t="str">
+      <c r="E51" t="str">
         <f t="shared" si="2"/>
         <v>'MFR',</v>
       </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3" t="s">
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
         <v>113</v>
       </c>
-      <c r="H51" s="3" t="str">
+      <c r="H51" t="str">
         <f t="shared" si="3"/>
         <v>MFR (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
-      <c r="I51" s="3" t="str">
+      <c r="I51" t="str">
         <f>VLOOKUP(D51, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J51" s="3" t="str">
+      <c r="J51" t="str">
         <f>VLOOKUP(D51, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="3" t="str">
+      <c r="C52" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="3" t="str">
+      <c r="E52" t="str">
         <f t="shared" si="2"/>
         <v>'TEO',</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
         <v>114</v>
       </c>
-      <c r="H52" s="3" t="str">
+      <c r="H52" t="str">
         <f t="shared" si="3"/>
         <v>TEO (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in MTs))</v>
       </c>
-      <c r="I52" s="3" t="str">
+      <c r="I52" t="str">
         <f>VLOOKUP(D52, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J52" s="3" t="str">
+      <c r="J52" t="str">
         <f>VLOOKUP(D52, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="3" t="str">
+      <c r="C53" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="3" t="str">
+      <c r="E53" t="str">
         <f t="shared" si="2"/>
         <v>'MF7',</v>
       </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
         <v>109</v>
       </c>
-      <c r="H53" s="3" t="str">
+      <c r="H53" t="str">
         <f t="shared" si="3"/>
         <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
       </c>
-      <c r="I53" s="3" t="str">
+      <c r="I53" t="str">
         <f>VLOOKUP(D53, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J53" s="3" t="str">
+      <c r="J53" t="str">
         <f>VLOOKUP(D53, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="3" t="str">
+      <c r="C54" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S380</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="3" t="str">
+      <c r="E54" t="str">
         <f t="shared" si="2"/>
         <v>'SYS',</v>
       </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
         <v>115</v>
       </c>
-      <c r="H54" s="3" t="str">
+      <c r="H54" t="str">
         <f t="shared" si="3"/>
         <v>SYS (Fuel Oil 380 CST Singapore Swap)</v>
       </c>
-      <c r="I54" s="3" t="str">
+      <c r="I54" t="str">
         <f>VLOOKUP(D54, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J54" s="3" t="str">
+      <c r="J54" t="str">
         <f>VLOOKUP(D54, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="3" t="str">
+      <c r="C55" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S380</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="3" t="str">
+      <c r="E55" t="str">
         <f t="shared" si="2"/>
         <v>'SPS',</v>
       </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
         <v>116</v>
       </c>
-      <c r="H55" s="3" t="str">
+      <c r="H55" t="str">
         <f t="shared" si="3"/>
         <v>SPS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Brent 1st Line Future)</v>
       </c>
-      <c r="I55" s="3" t="str">
+      <c r="I55" t="str">
         <f>VLOOKUP(D55, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J55" s="3" t="str">
+      <c r="J55" t="str">
         <f>VLOOKUP(D55, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="3" t="str">
+      <c r="C56" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S380</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="3" t="str">
+      <c r="E56" t="str">
         <f t="shared" si="2"/>
         <v>'SLS',</v>
       </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
         <v>117</v>
       </c>
-      <c r="H56" s="3" t="str">
+      <c r="H56" t="str">
         <f t="shared" si="3"/>
         <v>SLS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Dubai 1st Line Future)</v>
       </c>
-      <c r="I56" s="3" t="str">
+      <c r="I56" t="str">
         <f>VLOOKUP(D56, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J56" s="3" t="str">
+      <c r="J56" t="str">
         <f>VLOOKUP(D56, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="3" t="str">
+      <c r="C57" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S380</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="3" t="str">
+      <c r="E57" t="str">
         <f t="shared" si="2"/>
         <v>'SJS',</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="s">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
         <v>118</v>
       </c>
-      <c r="H57" s="3" t="str">
+      <c r="H57" t="str">
         <f t="shared" si="3"/>
         <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
-      <c r="I57" s="3" t="str">
+      <c r="I57" t="str">
         <f>VLOOKUP(D57, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J57" s="3" t="str">
+      <c r="J57" t="str">
         <f>VLOOKUP(D57, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="3" t="str">
+      <c r="C58" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S380</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="3" t="str">
+      <c r="E58" t="str">
         <f t="shared" si="2"/>
         <v>'MF6',</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
         <v>108</v>
       </c>
-      <c r="H58" s="3" t="str">
+      <c r="H58" t="str">
         <f t="shared" si="3"/>
         <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
       </c>
-      <c r="I58" s="3" t="str">
+      <c r="I58" t="str">
         <f>VLOOKUP(D58, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J58" s="3" t="str">
+      <c r="J58" t="str">
         <f>VLOOKUP(D58, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="3" t="str">
+      <c r="C59" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="3" t="str">
+      <c r="E59" t="str">
         <f t="shared" si="2"/>
         <v>'BAR',</v>
       </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
         <v>119</v>
       </c>
-      <c r="H59" s="3" t="str">
+      <c r="H59" t="str">
         <f t="shared" si="3"/>
         <v>BAR (Fuel Oil 3.5% FOB Rotterdam Barges Balmo Swap)</v>
       </c>
-      <c r="I59" s="3" t="str">
+      <c r="I59" t="str">
         <f>VLOOKUP(D59, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J59" s="3" t="str">
+      <c r="J59" t="str">
         <f>VLOOKUP(D59, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="3" t="str">
+      <c r="C60" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" t="s">
         <v>71</v>
       </c>
-      <c r="E60" s="3" t="str">
+      <c r="E60" t="str">
         <f t="shared" si="2"/>
         <v>'BOB',</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
         <v>120</v>
       </c>
-      <c r="H60" s="3" t="str">
+      <c r="H60" t="str">
         <f t="shared" si="3"/>
         <v>BOB (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future)</v>
       </c>
-      <c r="I60" s="3" t="str">
+      <c r="I60" t="str">
         <f>VLOOKUP(D60, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J60" s="3" t="str">
+      <c r="J60" t="str">
         <f>VLOOKUP(D60, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="3" t="str">
+      <c r="C61" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="3" t="str">
+      <c r="E61" t="str">
         <f t="shared" si="2"/>
         <v>'BOA',</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
         <v>121</v>
       </c>
-      <c r="H61" s="3" t="str">
+      <c r="H61" t="str">
         <f t="shared" si="3"/>
         <v>BOA (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls))</v>
       </c>
-      <c r="I61" s="3" t="str">
+      <c r="I61" t="str">
         <f>VLOOKUP(D61, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/BBL</v>
       </c>
-      <c r="J61" s="3" t="str">
+      <c r="J61" t="str">
         <f>VLOOKUP(D61, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="3" t="str">
+      <c r="C62" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="3" t="str">
+      <c r="E62" t="str">
         <f t="shared" si="2"/>
         <v>'SJS',</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
         <v>118</v>
       </c>
-      <c r="H62" s="3" t="str">
+      <c r="H62" t="str">
         <f t="shared" si="3"/>
         <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
-      <c r="I62" s="3" t="str">
+      <c r="I62" t="str">
         <f>VLOOKUP(D62, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J62" s="3" t="str">
+      <c r="J62" t="str">
         <f>VLOOKUP(D62, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="3" t="str">
+      <c r="C63" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="3" t="str">
+      <c r="E63" t="str">
         <f t="shared" si="2"/>
         <v>'MF5',</v>
       </c>
-      <c r="F63" s="3">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
         <v>112</v>
       </c>
-      <c r="H63" s="3" t="str">
+      <c r="H63" t="str">
         <f t="shared" si="3"/>
         <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
-      <c r="I63" s="3" t="str">
+      <c r="I63" t="str">
         <f>VLOOKUP(D63, Sheet1!$A$4:$D$53, 4, FALSE)</f>
         <v>$/MT</v>
       </c>
-      <c r="J63" s="3" t="str">
+      <c r="J63" t="str">
         <f>VLOOKUP(D63, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
@@ -4185,8 +4187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79F6FFB-87B1-4A05-841C-8DAB5CB24C7E}">
   <dimension ref="A3:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4231,7 +4233,7 @@
         <v>143</v>
       </c>
       <c r="E4" s="2" t="b">
-        <f>B4=C4</f>
+        <f t="shared" ref="E4:E35" si="0">B4=C4</f>
         <v>1</v>
       </c>
     </row>
@@ -4249,7 +4251,7 @@
         <v>142</v>
       </c>
       <c r="E5" s="2" t="b">
-        <f>B5=C5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4267,7 +4269,7 @@
         <v>143</v>
       </c>
       <c r="E6" s="2" t="b">
-        <f>B6=C6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -4288,7 +4290,7 @@
         <v>142</v>
       </c>
       <c r="E7" s="2" t="b">
-        <f>B7=C7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4306,7 +4308,7 @@
         <v>143</v>
       </c>
       <c r="E8" s="2" t="b">
-        <f>B8=C8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4324,7 +4326,7 @@
         <v>142</v>
       </c>
       <c r="E9" s="2" t="b">
-        <f>B9=C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4342,7 +4344,7 @@
         <v>142</v>
       </c>
       <c r="E10" s="2" t="b">
-        <f>B10=C10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -4363,7 +4365,7 @@
         <v>142</v>
       </c>
       <c r="E11" s="2" t="b">
-        <f>B11=C11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -4384,7 +4386,7 @@
         <v>143</v>
       </c>
       <c r="E12" s="2" t="b">
-        <f>B12=C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4402,7 +4404,7 @@
         <v>143</v>
       </c>
       <c r="E13" s="2" t="b">
-        <f>B13=C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G13">
@@ -4423,7 +4425,7 @@
         <v>143</v>
       </c>
       <c r="E14" s="2" t="b">
-        <f>B14=C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4441,7 +4443,7 @@
         <v>142</v>
       </c>
       <c r="E15" s="2" t="b">
-        <f>B15=C15</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4452,14 +4454,14 @@
       <c r="B16" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>144</v>
       </c>
       <c r="E16" s="2" t="b">
-        <f>B16=C16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" t="s">
@@ -4480,7 +4482,7 @@
         <v>142</v>
       </c>
       <c r="E17" s="2" t="b">
-        <f>B17=C17</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4498,7 +4500,7 @@
         <v>142</v>
       </c>
       <c r="E18" s="2" t="b">
-        <f>B18=C18</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4509,14 +4511,14 @@
       <c r="B19" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E19" s="2" t="b">
-        <f>B19=C19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -4537,7 +4539,7 @@
         <v>143</v>
       </c>
       <c r="E20" s="2" t="b">
-        <f>B20=C20</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4555,7 +4557,7 @@
         <v>142</v>
       </c>
       <c r="E21" s="2" t="b">
-        <f>B21=C21</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4573,7 +4575,7 @@
         <v>143</v>
       </c>
       <c r="E22" s="2" t="b">
-        <f>B22=C22</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4591,7 +4593,7 @@
         <v>143</v>
       </c>
       <c r="E23" s="2" t="b">
-        <f>B23=C23</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4609,7 +4611,7 @@
         <v>143</v>
       </c>
       <c r="E24" s="2" t="b">
-        <f>B24=C24</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4627,7 +4629,7 @@
         <v>143</v>
       </c>
       <c r="E25" s="2" t="b">
-        <f>B25=C25</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4645,7 +4647,7 @@
         <v>143</v>
       </c>
       <c r="E26" s="2" t="b">
-        <f>B26=C26</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4663,7 +4665,7 @@
         <v>143</v>
       </c>
       <c r="E27" s="2" t="b">
-        <f>B27=C27</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4681,7 +4683,7 @@
         <v>143</v>
       </c>
       <c r="E28" s="2" t="b">
-        <f>B28=C28</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4699,7 +4701,7 @@
         <v>142</v>
       </c>
       <c r="E29" s="2" t="b">
-        <f>B29=C29</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4717,7 +4719,7 @@
         <v>142</v>
       </c>
       <c r="E30" s="2" t="b">
-        <f>B30=C30</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4735,7 +4737,7 @@
         <v>142</v>
       </c>
       <c r="E31" s="2" t="b">
-        <f>B31=C31</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4753,7 +4755,7 @@
         <v>143</v>
       </c>
       <c r="E32" s="2" t="b">
-        <f>B32=C32</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4771,7 +4773,7 @@
         <v>143</v>
       </c>
       <c r="E33" s="2" t="b">
-        <f>B33=C33</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4789,7 +4791,7 @@
         <v>142</v>
       </c>
       <c r="E34" s="2" t="b">
-        <f>B34=C34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -4810,7 +4812,7 @@
         <v>142</v>
       </c>
       <c r="E35" s="2" t="b">
-        <f>B35=C35</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4821,14 +4823,14 @@
       <c r="B36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E36" s="2" t="b">
-        <f>B36=C36</f>
+        <f t="shared" ref="E36:E53" si="1">B36=C36</f>
         <v>0</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -4849,7 +4851,7 @@
         <v>142</v>
       </c>
       <c r="E37" s="2" t="b">
-        <f>B37=C37</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4867,7 +4869,7 @@
         <v>142</v>
       </c>
       <c r="E38" s="2" t="b">
-        <f>B38=C38</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4885,7 +4887,7 @@
         <v>143</v>
       </c>
       <c r="E39" s="2" t="b">
-        <f>B39=C39</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4903,7 +4905,7 @@
         <v>142</v>
       </c>
       <c r="E40" s="2" t="b">
-        <f>B40=C40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -4924,7 +4926,7 @@
         <v>142</v>
       </c>
       <c r="E41" s="2" t="b">
-        <f>B41=C41</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4942,7 +4944,7 @@
         <v>142</v>
       </c>
       <c r="E42" s="2" t="b">
-        <f>B42=C42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -4963,7 +4965,7 @@
         <v>142</v>
       </c>
       <c r="E43" s="2" t="b">
-        <f>B43=C43</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4981,7 +4983,7 @@
         <v>142</v>
       </c>
       <c r="E44" s="2" t="b">
-        <f>B44=C44</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4999,7 +5001,7 @@
         <v>143</v>
       </c>
       <c r="E45" s="2" t="b">
-        <f>B45=C45</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5017,7 +5019,7 @@
         <v>142</v>
       </c>
       <c r="E46" s="2" t="b">
-        <f>B46=C46</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -5038,7 +5040,7 @@
         <v>142</v>
       </c>
       <c r="E47" s="2" t="b">
-        <f>B47=C47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -5052,14 +5054,14 @@
       <c r="B48" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E48" s="2" t="b">
-        <f>B48=C48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -5073,14 +5075,14 @@
       <c r="B49" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E49" s="2" t="b">
-        <f>B49=C49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -5101,7 +5103,7 @@
         <v>143</v>
       </c>
       <c r="E50" s="2" t="b">
-        <f>B50=C50</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5119,7 +5121,7 @@
         <v>142</v>
       </c>
       <c r="E51" s="2" t="b">
-        <f>B51=C51</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5137,7 +5139,7 @@
         <v>143</v>
       </c>
       <c r="E52" s="2" t="b">
-        <f>B52=C52</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5148,14 +5150,14 @@
       <c r="B53" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E53" s="2" t="b">
-        <f>B53=C53</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -5174,4 +5176,1001 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183314DF-B94F-4F67-857A-E183621DCFBD}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <f t="shared" ref="E2:E51" si="0">B2=C2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G51" xr:uid="{183314DF-B94F-4F67-857A-E183621DCFBD}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="MT"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/OI_product_map.xlsx
+++ b/data/OI_product_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="257" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1D36506-C0BA-402A-B611-B2FBE636F3E6}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B77C7174-2A2C-46BE-8697-ECAA5D43490F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="38640" windowHeight="15840" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$J$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$J$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$G$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="147">
   <si>
     <t>Product Family</t>
   </si>
@@ -185,9 +185,6 @@
     <t>JRJ</t>
   </si>
   <si>
-    <t>Jet Fuel Diff - Jet FOB Rotterdam Barges vs Jet CIF NWE Cargoes Future</t>
-  </si>
-  <si>
     <t>HO</t>
   </si>
   <si>
@@ -486,6 +483,9 @@
   </si>
   <si>
     <t>OI Unit</t>
+  </si>
+  <si>
+    <t>conversion_factor</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jia Shang" refreshedDate="45890.676370370369" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="62" xr:uid="{A8808549-A262-40B2-9E8C-C122B670117C}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H63" sheet="Data"/>
+    <worksheetSource ref="A1:H62" sheet="Data"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Product Family" numFmtId="0">
@@ -1831,10 +1831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,7 +1850,7 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1858,31 +1858,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1904,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H33" si="0">_xlfn.CONCAT(D2," (",G2, ")")</f>
@@ -1918,8 +1921,11 @@
         <f>VLOOKUP(D2, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1927,21 +1933,21 @@
         <v>5</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C63" si="1">_xlfn.CONCAT("[",A3,"] ",B3)</f>
+        <f t="shared" ref="C3:C62" si="1">_xlfn.CONCAT("[",A3,"] ",B3)</f>
         <v>[Light] S92</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E63" si="2">_xlfn.CONCAT("'",D3,"',")</f>
+        <f t="shared" ref="E3:E62" si="2">_xlfn.CONCAT("'",D3,"',")</f>
         <v>'GDK',</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
@@ -1955,8 +1961,11 @@
         <f>VLOOKUP(D3, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1978,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -1992,8 +2001,11 @@
         <f>VLOOKUP(D4, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2029,8 +2041,11 @@
         <f>VLOOKUP(D5, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2052,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -2066,8 +2081,11 @@
         <f>VLOOKUP(D6, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2089,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -2103,8 +2121,11 @@
         <f>VLOOKUP(D7, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2126,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -2140,8 +2161,11 @@
         <f>VLOOKUP(D8, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2163,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -2177,8 +2201,11 @@
         <f>VLOOKUP(D9, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2200,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -2214,8 +2241,11 @@
         <f>VLOOKUP(D10, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2237,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -2251,8 +2281,11 @@
         <f>VLOOKUP(D11, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2274,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -2288,8 +2321,11 @@
         <f>VLOOKUP(D12, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2311,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -2325,8 +2361,11 @@
         <f>VLOOKUP(D13, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2348,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -2362,8 +2401,11 @@
         <f>VLOOKUP(D14, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2385,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -2399,8 +2441,11 @@
         <f>VLOOKUP(D15, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2422,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -2436,8 +2481,11 @@
         <f>VLOOKUP(D16, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2459,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -2473,8 +2521,11 @@
         <f>VLOOKUP(D17, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2496,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -2510,8 +2561,11 @@
         <f>VLOOKUP(D18, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2533,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -2547,8 +2601,11 @@
         <f>VLOOKUP(D19, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2570,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -2584,8 +2641,11 @@
         <f>VLOOKUP(D20, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2607,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -2621,8 +2681,11 @@
         <f>VLOOKUP(D21, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2644,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -2658,8 +2721,11 @@
         <f>VLOOKUP(D22, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2681,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -2695,8 +2761,11 @@
         <f>VLOOKUP(D23, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2718,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -2732,8 +2801,11 @@
         <f>VLOOKUP(D24, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2755,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -2769,8 +2841,11 @@
         <f>VLOOKUP(D25, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2792,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -2806,8 +2881,11 @@
         <f>VLOOKUP(D26, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2829,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -2843,8 +2921,11 @@
         <f>VLOOKUP(D27, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2866,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -2880,8 +2961,11 @@
         <f>VLOOKUP(D28, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2903,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -2917,8 +3001,11 @@
         <f>VLOOKUP(D29, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -2940,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -2954,8 +3041,11 @@
         <f>VLOOKUP(D30, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -2977,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -2991,8 +3081,11 @@
         <f>VLOOKUP(D31, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -3014,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
@@ -3028,8 +3121,11 @@
         <f>VLOOKUP(D32, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -3051,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
@@ -3065,8 +3161,11 @@
         <f>VLOOKUP(D33, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -3088,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" ref="H34:H63" si="3">_xlfn.CONCAT(D34," (",G34, ")")</f>
+        <f t="shared" ref="H34:H62" si="3">_xlfn.CONCAT(D34," (",G34, ")")</f>
         <v>BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)</v>
       </c>
       <c r="I34" t="str">
@@ -3102,8 +3201,11 @@
         <f>VLOOKUP(D34, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -3125,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="3"/>
@@ -3139,8 +3241,11 @@
         <f>VLOOKUP(D35, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -3162,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="3"/>
@@ -3176,8 +3281,11 @@
         <f>VLOOKUP(D36, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -3199,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="3"/>
@@ -3213,50 +3321,56 @@
         <f>VLOOKUP(D37, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
-        <v>[Middle] NWE Jet</v>
+        <v>[Middle] HO</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="2"/>
-        <v>'JRJ',</v>
+        <v>'UHO',</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="3"/>
-        <v>JRJ (Jet Fuel Diff - Jet FOB Rotterdam Barges vs Jet CIF NWE Cargoes Future)</v>
+        <v>UHO (Heating Oil Futures)</v>
       </c>
       <c r="I38" t="str">
         <f>VLOOKUP(D38, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/GAL</v>
       </c>
       <c r="J38" t="str">
         <f>VLOOKUP(D38, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>BBL</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
@@ -3267,7 +3381,7 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" si="2"/>
-        <v>'UHO',</v>
+        <v>'HOF',</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3277,7 +3391,7 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" si="3"/>
-        <v>UHO (Heating Oil Futures)</v>
+        <v>HOF (Heating Oil 1st Line Future)</v>
       </c>
       <c r="I39" t="str">
         <f>VLOOKUP(D39, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3287,13 +3401,16 @@
         <f>VLOOKUP(D39, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
@@ -3304,107 +3421,116 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" si="2"/>
-        <v>'HOF',</v>
+        <v>'HBT',</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="s">
         <v>103</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="3"/>
-        <v>HOF (Heating Oil 1st Line Future)</v>
+        <v>HBT (Heating Oil Crack - Heating Oil 1st Line vs Brent 1st Line Future (in bbls))</v>
       </c>
       <c r="I40" t="str">
         <f>VLOOKUP(D40, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/GAL</v>
+        <v>$/BBL</v>
       </c>
       <c r="J40" t="str">
         <f>VLOOKUP(D40, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="1"/>
         <v>[Middle] HO</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="2"/>
-        <v>'HBT',</v>
+        <v>'ULM',</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="3"/>
-        <v>HBT (Heating Oil Crack - Heating Oil 1st Line vs Brent 1st Line Future (in bbls))</v>
+        <v>ULM (Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
       <c r="I41" t="str">
         <f>VLOOKUP(D41, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/GAL</v>
       </c>
       <c r="J41" t="str">
         <f>VLOOKUP(D41, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>BBL</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="1"/>
-        <v>[Middle] HO</v>
+        <v>[Heavy] S0.5</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="2"/>
-        <v>'ULM',</v>
+        <v>'MF4',</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="3"/>
-        <v>ULM (Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
+        <v>MF4 (Marine Fuel 0.5% FOB Singapore Swap)</v>
       </c>
       <c r="I42" t="str">
         <f>VLOOKUP(D42, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/GAL</v>
+        <v>$/MT</v>
       </c>
       <c r="J42" t="str">
         <f>VLOOKUP(D42, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>MT</v>
+      </c>
+      <c r="K42">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
         <v>51</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="1"/>
@@ -3415,33 +3541,36 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" si="2"/>
-        <v>'MF4',</v>
+        <v>'MFT',</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="s">
         <v>105</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="3"/>
-        <v>MF4 (Marine Fuel 0.5% FOB Singapore Swap)</v>
+        <v>MFT (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
       <c r="I43" t="str">
         <f>VLOOKUP(D43, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J43" t="str">
         <f>VLOOKUP(D43, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>BBL</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
         <v>51</v>
-      </c>
-      <c r="B44" t="s">
-        <v>52</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
@@ -3452,7 +3581,7 @@
       </c>
       <c r="E44" t="str">
         <f t="shared" si="2"/>
-        <v>'MFT',</v>
+        <v>'TEN',</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3462,7 +3591,7 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" si="3"/>
-        <v>MFT (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in Bbls))</v>
+        <v>TEN (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in MTs))</v>
       </c>
       <c r="I44" t="str">
         <f>VLOOKUP(D44, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3470,15 +3599,18 @@
       </c>
       <c r="J44" t="str">
         <f>VLOOKUP(D44, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>MT</v>
+      </c>
+      <c r="K44">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
         <v>51</v>
-      </c>
-      <c r="B45" t="s">
-        <v>52</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
@@ -3489,7 +3621,7 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" si="2"/>
-        <v>'TEN',</v>
+        <v>'MF6',</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -3499,23 +3631,26 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" si="3"/>
-        <v>TEN (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in MTs))</v>
+        <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
       </c>
       <c r="I45" t="str">
         <f>VLOOKUP(D45, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J45" t="str">
         <f>VLOOKUP(D45, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
         <v>51</v>
-      </c>
-      <c r="B46" t="s">
-        <v>52</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
@@ -3526,7 +3661,7 @@
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
-        <v>'MF6',</v>
+        <v>'MF7',</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -3536,7 +3671,7 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" si="3"/>
-        <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
+        <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
       </c>
       <c r="I46" t="str">
         <f>VLOOKUP(D46, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3546,13 +3681,16 @@
         <f>VLOOKUP(D46, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
         <v>51</v>
-      </c>
-      <c r="B47" t="s">
-        <v>52</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
@@ -3563,7 +3701,7 @@
       </c>
       <c r="E47" t="str">
         <f t="shared" si="2"/>
-        <v>'MF7',</v>
+        <v>'FDF',</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3573,7 +3711,7 @@
       </c>
       <c r="H47" t="str">
         <f t="shared" si="3"/>
-        <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
+        <v>FDF (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Singapore Gasoil (Platts) Future (in MTs))</v>
       </c>
       <c r="I47" t="str">
         <f>VLOOKUP(D47, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3583,34 +3721,37 @@
         <f>VLOOKUP(D47, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
-        <v>[Heavy] S0.5</v>
+        <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
-        <v>'FDF',</v>
+        <v>'MF3',</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="s">
         <v>110</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="3"/>
-        <v>FDF (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Singapore Gasoil (Platts) Future (in MTs))</v>
+        <v>MF3 (Marine Fuel 0.5% FOB Rotterdam Barge Swap)</v>
       </c>
       <c r="I48" t="str">
         <f>VLOOKUP(D48, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3620,13 +3761,16 @@
         <f>VLOOKUP(D48, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
@@ -3637,17 +3781,17 @@
       </c>
       <c r="E49" t="str">
         <f t="shared" si="2"/>
-        <v>'MF3',</v>
+        <v>'MF5',</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
         <v>111</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="3"/>
-        <v>MF3 (Marine Fuel 0.5% FOB Rotterdam Barge Swap)</v>
+        <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
       <c r="I49" t="str">
         <f>VLOOKUP(D49, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3657,13 +3801,16 @@
         <f>VLOOKUP(D49, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
@@ -3674,7 +3821,7 @@
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
-        <v>'MF5',</v>
+        <v>'MFR',</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3684,23 +3831,26 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" si="3"/>
-        <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
+        <v>MFR (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
       <c r="I50" t="str">
         <f>VLOOKUP(D50, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J50" t="str">
         <f>VLOOKUP(D50, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>BBL</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
@@ -3711,7 +3861,7 @@
       </c>
       <c r="E51" t="str">
         <f t="shared" si="2"/>
-        <v>'MFR',</v>
+        <v>'TEO',</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3721,7 +3871,7 @@
       </c>
       <c r="H51" t="str">
         <f t="shared" si="3"/>
-        <v>MFR (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in Bbls))</v>
+        <v>TEO (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in MTs))</v>
       </c>
       <c r="I51" t="str">
         <f>VLOOKUP(D51, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3729,73 +3879,79 @@
       </c>
       <c r="J51" t="str">
         <f>VLOOKUP(D51, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>MT</v>
+      </c>
+      <c r="K51">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="2"/>
-        <v>'TEO',</v>
+        <v>'MF7',</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="3"/>
-        <v>TEO (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in MTs))</v>
+        <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
       </c>
       <c r="I52" t="str">
         <f>VLOOKUP(D52, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J52" t="str">
         <f>VLOOKUP(D52, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
-        <v>[Heavy] Rdm0.5</v>
+        <v>[Heavy] S380</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="2"/>
-        <v>'MF7',</v>
+        <v>'SYS',</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="3"/>
-        <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
+        <v>SYS (Fuel Oil 380 CST Singapore Swap)</v>
       </c>
       <c r="I53" t="str">
         <f>VLOOKUP(D53, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3805,13 +3961,16 @@
         <f>VLOOKUP(D53, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="1"/>
@@ -3822,33 +3981,36 @@
       </c>
       <c r="E54" t="str">
         <f t="shared" si="2"/>
-        <v>'SYS',</v>
+        <v>'SPS',</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="s">
         <v>115</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="3"/>
-        <v>SYS (Fuel Oil 380 CST Singapore Swap)</v>
+        <v>SPS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Brent 1st Line Future)</v>
       </c>
       <c r="I54" t="str">
         <f>VLOOKUP(D54, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J54" t="str">
         <f>VLOOKUP(D54, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="1"/>
@@ -3859,7 +4021,7 @@
       </c>
       <c r="E55" t="str">
         <f t="shared" si="2"/>
-        <v>'SPS',</v>
+        <v>'SLS',</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3869,7 +4031,7 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="3"/>
-        <v>SPS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Brent 1st Line Future)</v>
+        <v>SLS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Dubai 1st Line Future)</v>
       </c>
       <c r="I55" t="str">
         <f>VLOOKUP(D55, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3879,13 +4041,16 @@
         <f>VLOOKUP(D55, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="1"/>
@@ -3896,7 +4061,7 @@
       </c>
       <c r="E56" t="str">
         <f t="shared" si="2"/>
-        <v>'SLS',</v>
+        <v>'SJS',</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3906,44 +4071,47 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="3"/>
-        <v>SLS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Dubai 1st Line Future)</v>
+        <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
       <c r="I56" t="str">
         <f>VLOOKUP(D56, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J56" t="str">
         <f>VLOOKUP(D56, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] S380</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="2"/>
-        <v>'SJS',</v>
+        <v>'MF6',</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="3"/>
-        <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
+        <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
       </c>
       <c r="I57" t="str">
         <f>VLOOKUP(D57, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3953,34 +4121,37 @@
         <f>VLOOKUP(D57, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="1"/>
-        <v>[Heavy] S380</v>
+        <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="2"/>
-        <v>'MF6',</v>
+        <v>'BAR',</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="3"/>
-        <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
+        <v>BAR (Fuel Oil 3.5% FOB Rotterdam Barges Balmo Swap)</v>
       </c>
       <c r="I58" t="str">
         <f>VLOOKUP(D58, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3990,13 +4161,16 @@
         <f>VLOOKUP(D58, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="1"/>
@@ -4007,33 +4181,36 @@
       </c>
       <c r="E59" t="str">
         <f t="shared" si="2"/>
-        <v>'BAR',</v>
+        <v>'BOB',</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
         <v>119</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="3"/>
-        <v>BAR (Fuel Oil 3.5% FOB Rotterdam Barges Balmo Swap)</v>
+        <v>BOB (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future)</v>
       </c>
       <c r="I59" t="str">
         <f>VLOOKUP(D59, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J59" t="str">
         <f>VLOOKUP(D59, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="1"/>
@@ -4044,7 +4221,7 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" si="2"/>
-        <v>'BOB',</v>
+        <v>'BOA',</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4054,7 +4231,7 @@
       </c>
       <c r="H60" t="str">
         <f t="shared" si="3"/>
-        <v>BOB (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future)</v>
+        <v>BOA (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls))</v>
       </c>
       <c r="I60" t="str">
         <f>VLOOKUP(D60, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4062,73 +4239,79 @@
       </c>
       <c r="J60" t="str">
         <f>VLOOKUP(D60, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>BBL</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D61" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="2"/>
-        <v>'BOA',</v>
+        <v>'SJS',</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="3"/>
-        <v>BOA (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls))</v>
+        <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
       <c r="I61" t="str">
         <f>VLOOKUP(D61, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J61" t="str">
         <f>VLOOKUP(D61, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>MT</v>
+      </c>
+      <c r="K61">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="1"/>
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
-        <v>'SJS',</v>
+        <v>'MF5',</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="3"/>
-        <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
+        <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
       <c r="I62" t="str">
         <f>VLOOKUP(D62, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4138,46 +4321,12 @@
         <f>VLOOKUP(D62, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" t="str">
-        <f t="shared" si="1"/>
-        <v>[Heavy] Rdm3.5</v>
-      </c>
-      <c r="D63" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="2"/>
-        <v>'MF5',</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
-        <v>112</v>
-      </c>
-      <c r="H63" t="str">
-        <f t="shared" si="3"/>
-        <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
-      </c>
-      <c r="I63" t="str">
-        <f>VLOOKUP(D63, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
-      </c>
-      <c r="J63" t="str">
-        <f>VLOOKUP(D63, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
+      <c r="K62">
+        <v>6.35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J63" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}"/>
+  <autoFilter ref="A1:J62" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4200,23 +4349,23 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
         <v>126</v>
-      </c>
-      <c r="G3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4224,13 +4373,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="2" t="b">
         <f t="shared" ref="E4:E35" si="0">B4=C4</f>
@@ -4242,13 +4391,13 @@
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4260,20 +4409,20 @@
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4281,13 +4430,13 @@
         <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4296,16 +4445,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4314,16 +4463,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4332,23 +4481,23 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E10" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4356,20 +4505,20 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4377,13 +4526,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4392,16 +4541,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4416,13 +4565,13 @@
         <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E14" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4434,13 +4583,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4452,20 +4601,20 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4473,13 +4622,13 @@
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E17" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4488,16 +4637,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4506,23 +4655,23 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4530,13 +4679,13 @@
         <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4548,13 +4697,13 @@
         <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E21" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4566,13 +4715,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E22" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4584,13 +4733,13 @@
         <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E23" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4599,16 +4748,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E24" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4617,16 +4766,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4635,16 +4784,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E26" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4653,16 +4802,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4671,16 +4820,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E28" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4689,16 +4838,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E29" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4707,16 +4856,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4728,13 +4877,13 @@
         <v>21</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E31" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4746,13 +4895,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E32" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4764,13 +4913,13 @@
         <v>20</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E33" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4782,20 +4931,20 @@
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E34" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -4803,13 +4952,13 @@
         <v>18</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E35" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4821,20 +4970,20 @@
         <v>17</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E36" s="2" t="b">
         <f t="shared" ref="E36:E53" si="1">B36=C36</f>
         <v>0</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4842,13 +4991,13 @@
         <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E37" s="2" t="b">
         <f t="shared" si="1"/>
@@ -4860,13 +5009,13 @@
         <v>29</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E38" s="2" t="b">
         <f t="shared" si="1"/>
@@ -4875,16 +5024,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E39" s="2" t="b">
         <f t="shared" si="1"/>
@@ -4893,23 +5042,23 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E40" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4917,13 +5066,13 @@
         <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E41" s="2" t="b">
         <f t="shared" si="1"/>
@@ -4932,23 +5081,23 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E42" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -4956,13 +5105,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E43" s="2" t="b">
         <f t="shared" si="1"/>
@@ -4974,13 +5123,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E44" s="2" t="b">
         <f t="shared" si="1"/>
@@ -4989,16 +5138,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E45" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5007,65 +5156,65 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E46" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E47" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -5073,20 +5222,20 @@
         <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -5094,13 +5243,13 @@
         <v>35</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E50" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5112,13 +5261,13 @@
         <v>36</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E51" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5130,13 +5279,13 @@
         <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E52" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5148,25 +5297,25 @@
         <v>38</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5183,8 +5332,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5200,22 +5349,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
         <v>128</v>
       </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>129</v>
-      </c>
       <c r="F1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" t="s">
         <v>126</v>
-      </c>
-      <c r="G1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5223,13 +5372,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2" t="b">
         <f t="shared" ref="E2:E51" si="0">B2=C2</f>
@@ -5241,13 +5390,13 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5259,20 +5408,20 @@
         <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5280,13 +5429,13 @@
         <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5295,16 +5444,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5313,16 +5462,16 @@
     </row>
     <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5331,23 +5480,23 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -5355,20 +5504,20 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5376,13 +5525,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5391,16 +5540,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5415,13 +5564,13 @@
         <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5433,13 +5582,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5451,20 +5600,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5472,13 +5621,13 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5487,16 +5636,16 @@
     </row>
     <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E16" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5505,23 +5654,23 @@
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5529,13 +5678,13 @@
         <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5547,13 +5696,13 @@
         <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5565,13 +5714,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5583,13 +5732,13 @@
         <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E21" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5598,16 +5747,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E22" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5616,16 +5765,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E23" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5634,16 +5783,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E24" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5652,16 +5801,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5670,16 +5819,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E26" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5688,16 +5837,16 @@
     </row>
     <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E27" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5706,16 +5855,16 @@
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E28" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5727,13 +5876,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E29" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5745,13 +5894,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E30" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5763,13 +5912,13 @@
         <v>20</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E31" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5781,20 +5930,20 @@
         <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E32" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -5802,13 +5951,13 @@
         <v>18</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E33" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5820,20 +5969,20 @@
         <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -5841,13 +5990,13 @@
         <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E35" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5859,13 +6008,13 @@
         <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E36" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5874,16 +6023,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E37" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5892,23 +6041,23 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E38" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -5916,13 +6065,13 @@
         <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E39" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5931,23 +6080,23 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E40" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -5955,13 +6104,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E41" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5973,13 +6122,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E42" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5988,16 +6137,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E43" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6006,65 +6155,65 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E44" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6072,20 +6221,20 @@
         <v>16</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6093,13 +6242,13 @@
         <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E48" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6111,13 +6260,13 @@
         <v>36</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E49" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6129,13 +6278,13 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E50" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6147,20 +6296,20 @@
         <v>38</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E51" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/data/OI_product_map.xlsx
+++ b/data/OI_product_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B77C7174-2A2C-46BE-8697-ECAA5D43490F}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6B7BBD6-86F7-4EF0-83DF-E9E1CCE870E6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="38640" windowHeight="15840" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$J$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$J$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$G$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="149">
   <si>
     <t>Product Family</t>
   </si>
@@ -275,9 +275,6 @@
     <t>Singapore Mogas 92 Unleaded vs Brent 1st Line Future</t>
   </si>
   <si>
-    <t>Gasoline Crack - Argus Eurobob Oxy FOB Rotterdam Barges vs Brent 1st Line Future</t>
-  </si>
-  <si>
     <t>Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future</t>
   </si>
   <si>
@@ -486,6 +483,15 @@
   </si>
   <si>
     <t>conversion_factor</t>
+  </si>
+  <si>
+    <t>AEB</t>
+  </si>
+  <si>
+    <t>Gasoline Crack - Argus Eurobob Oxy FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls)</t>
+  </si>
+  <si>
+    <t>Gasoline Crack - Argus Eurobob Oxy FOB Rotterdam Barges vs Brent 1st Line Future (in MTs)</t>
   </si>
 </sst>
 </file>
@@ -562,7 +568,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jia Shang" refreshedDate="45890.676370370369" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="62" xr:uid="{A8808549-A262-40B2-9E8C-C122B670117C}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H62" sheet="Data"/>
+    <worksheetSource ref="A1:H63" sheet="Data"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Product Family" numFmtId="0">
@@ -1831,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,25 +1870,25 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" t="s">
         <v>145</v>
-      </c>
-      <c r="K1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1910,7 +1916,7 @@
         <v>73</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H33" si="0">_xlfn.CONCAT(D2," (",G2, ")")</f>
+        <f t="shared" ref="H2:H34" si="0">_xlfn.CONCAT(D2," (",G2, ")")</f>
         <v>SMT (Singapore Mogas 92 Unleaded Swap)</v>
       </c>
       <c r="I2" t="str">
@@ -1933,14 +1939,14 @@
         <v>5</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C62" si="1">_xlfn.CONCAT("[",A3,"] ",B3)</f>
+        <f t="shared" ref="C3:C63" si="1">_xlfn.CONCAT("[",A3,"] ",B3)</f>
         <v>[Light] S92</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E62" si="2">_xlfn.CONCAT("'",D3,"',")</f>
+        <f t="shared" ref="E3:E63" si="2">_xlfn.CONCAT("'",D3,"',")</f>
         <v>'GDK',</v>
       </c>
       <c r="F3">
@@ -2107,11 +2113,11 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>EOB (Gasoline Crack - Argus Eurobob Oxy FOB Rotterdam Barges vs Brent 1st Line Future)</v>
+        <v>EOB (Gasoline Crack - Argus Eurobob Oxy FOB Rotterdam Barges vs Brent 1st Line Future (in MTs))</v>
       </c>
       <c r="I7" t="str">
         <f>VLOOKUP(D7, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -2133,36 +2139,34 @@
         <v>9</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C8" si="3">_xlfn.CONCAT("[",A8,"] ",B8)</f>
         <v>[Light] Ebob</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="2"/>
-        <v>'GDO',</v>
+        <f>_xlfn.CONCAT("'",D8,"',")</f>
+        <v>'AEB',</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>GDO (Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future)</v>
-      </c>
-      <c r="I8" t="str">
-        <f>VLOOKUP(D8, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>¢/GAL</v>
-      </c>
-      <c r="J8" t="str">
-        <f>VLOOKUP(D8, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
+        <f>_xlfn.CONCAT(D8," (",G8, ")")</f>
+        <v>AEB (Gasoline Crack - Argus Eurobob Oxy FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls))</v>
+      </c>
+      <c r="I8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" t="s">
+        <v>129</v>
       </c>
       <c r="K8">
-        <v>8.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2177,32 +2181,32 @@
         <v>[Light] Ebob</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="2"/>
-        <v>'EON',</v>
+        <v>'GDO',</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>EON (Argus Eurobob OXY FOB Rotterdam Barges VS Platts Naphtha CIF NWE Cargoes Future)</v>
+        <v>GDO (Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future)</v>
       </c>
       <c r="I9" t="str">
         <f>VLOOKUP(D9, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>¢/GAL</v>
       </c>
       <c r="J9" t="str">
         <f>VLOOKUP(D9, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
       <c r="K9">
-        <v>8.9</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2210,39 +2214,39 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>[Light] Rbob</v>
+        <v>[Light] Ebob</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="2"/>
-        <v>'UHU',</v>
+        <v>'EON',</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>UHU (NYH (RBOB) Gasoline Futures)</v>
+        <v>EON (Argus Eurobob OXY FOB Rotterdam Barges VS Platts Naphtha CIF NWE Cargoes Future)</v>
       </c>
       <c r="I10" t="str">
         <f>VLOOKUP(D10, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/GAL</v>
+        <v>$/MT</v>
       </c>
       <c r="J10" t="str">
         <f>VLOOKUP(D10, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
+        <v>MT</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2257,21 +2261,21 @@
         <v>[Light] Rbob</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="2"/>
-        <v>'RBS',</v>
+        <v>'UHU',</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>RBS (RBOB Gasoline 1st Line Future)</v>
+        <v>UHU (NYH (RBOB) Gasoline Futures)</v>
       </c>
       <c r="I11" t="str">
         <f>VLOOKUP(D11, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -2297,25 +2301,25 @@
         <v>[Light] Rbob</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="2"/>
-        <v>'RBR',</v>
+        <v>'RBS',</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>RBR (Gasoline Crack - RBOB Gasoline 1st Line vs Brent 1st Line Future (in bbls))</v>
+        <v>RBS (RBOB Gasoline 1st Line Future)</v>
       </c>
       <c r="I12" t="str">
         <f>VLOOKUP(D12, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/GAL</v>
       </c>
       <c r="J12" t="str">
         <f>VLOOKUP(D12, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -2337,32 +2341,32 @@
         <v>[Light] Rbob</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="2"/>
-        <v>'GDO',</v>
+        <v>'RBR',</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>GDO (Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future)</v>
+        <v>RBR (Gasoline Crack - RBOB Gasoline 1st Line vs Brent 1st Line Future (in bbls))</v>
       </c>
       <c r="I13" t="str">
         <f>VLOOKUP(D13, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>¢/GAL</v>
+        <v>$/BBL</v>
       </c>
       <c r="J13" t="str">
         <f>VLOOKUP(D13, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
+        <v>BBL</v>
       </c>
       <c r="K13">
-        <v>8.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2370,39 +2374,39 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>[Light] MOPJ Naph</v>
+        <v>[Light] Rbob</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="2"/>
-        <v>'NJC',</v>
+        <v>'GDO',</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>NJC (Naphtha C+F Japan Cargo Swap)</v>
+        <v>GDO (Gasoline Diff - RBOB Gasoline 1st Line vs Argus Eurobob Oxy FOB Rotterdam Barge Future)</v>
       </c>
       <c r="I14" t="str">
         <f>VLOOKUP(D14, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>¢/GAL</v>
       </c>
       <c r="J14" t="str">
         <f>VLOOKUP(D14, Sheet1!$A$4:$B$53, 2, FALSE)</f>
         <v>MT</v>
       </c>
       <c r="K14">
-        <v>8.9</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2417,32 +2421,32 @@
         <v>[Light] MOPJ Naph</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="2"/>
-        <v>'NBG',</v>
+        <v>'NJC',</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>NBG (Naphtha Crack - Naphtha C+F Japan (Platts) vs Brent 1st Line Future (in Bbls))</v>
+        <v>NJC (Naphtha C+F Japan Cargo Swap)</v>
       </c>
       <c r="I15" t="str">
         <f>VLOOKUP(D15, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J15" t="str">
         <f>VLOOKUP(D15, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
+        <v>MT</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2457,32 +2461,32 @@
         <v>[Light] MOPJ Naph</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="2"/>
-        <v>'JOE',</v>
+        <v>'NBG',</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>JOE (Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future)</v>
+        <v>NBG (Naphtha Crack - Naphtha C+F Japan (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
       <c r="I16" t="str">
         <f>VLOOKUP(D16, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J16" t="str">
         <f>VLOOKUP(D16, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
+        <v>BBL</v>
       </c>
       <c r="K16">
-        <v>8.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2490,28 +2494,28 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
-        <v>[Light] NWE Naph</v>
+        <v>[Light] MOPJ Naph</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="2"/>
-        <v>'NEC',</v>
+        <v>'JOE',</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>NEC (Naphtha CIF NWE Cargoes Swap)</v>
+        <v>JOE (Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future)</v>
       </c>
       <c r="I17" t="str">
         <f>VLOOKUP(D17, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -2537,21 +2541,21 @@
         <v>[Light] NWE Naph</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="2"/>
-        <v>'JOE',</v>
+        <v>'NEC',</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
         <v>84</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>JOE (Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future)</v>
+        <v>NEC (Naphtha CIF NWE Cargoes Swap)</v>
       </c>
       <c r="I18" t="str">
         <f>VLOOKUP(D18, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -2577,25 +2581,25 @@
         <v>[Light] NWE Naph</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="2"/>
-        <v>'NOB',</v>
+        <v>'JOE',</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>NOB (Naphtha CIF NWE Cargoes vs Brent 1st Line Swap)</v>
+        <v>JOE (Naphtha Diff - Naphtha C+F Japan vs Naphtha CIF NWE Cargoes Future)</v>
       </c>
       <c r="I19" t="str">
         <f>VLOOKUP(D19, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J19" t="str">
         <f>VLOOKUP(D19, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -2617,25 +2621,25 @@
         <v>[Light] NWE Naph</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="2"/>
-        <v>'EON',</v>
+        <v>'NOB',</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>EON (Argus Eurobob OXY FOB Rotterdam Barges VS Platts Naphtha CIF NWE Cargoes Future)</v>
+        <v>NOB (Naphtha CIF NWE Cargoes vs Brent 1st Line Swap)</v>
       </c>
       <c r="I20" t="str">
         <f>VLOOKUP(D20, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J20" t="str">
         <f>VLOOKUP(D20, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -2647,42 +2651,42 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
-        <v>[Middle] SGO</v>
+        <v>[Light] NWE Naph</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="2"/>
-        <v>'GST.J',</v>
+        <v>'EON',</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>GST.J (Singapore Gasoil Swap)</v>
+        <v>EON (Argus Eurobob OXY FOB Rotterdam Barges VS Platts Naphtha CIF NWE Cargoes Future)</v>
       </c>
       <c r="I21" t="str">
         <f>VLOOKUP(D21, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J21" t="str">
         <f>VLOOKUP(D21, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
+        <v>MT</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2697,21 +2701,21 @@
         <v>[Middle] SGO</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="2"/>
-        <v>'SGB',</v>
+        <v>'GST.J',</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>SGB (Gasoil Crack - Singapore Gasoil (Platts) vs Brent 1st Line Future)</v>
+        <v>GST.J (Singapore Gasoil Swap)</v>
       </c>
       <c r="I22" t="str">
         <f>VLOOKUP(D22, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -2737,21 +2741,21 @@
         <v>[Middle] SGO</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="2"/>
-        <v>'BAO',</v>
+        <v>'SGB',</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>BAO (Gasoil Crack - Singapore Gasoil (Platts) vs Dubai 1st Line (Platts) Future)</v>
+        <v>SGB (Gasoil Crack - Singapore Gasoil (Platts) vs Brent 1st Line Future)</v>
       </c>
       <c r="I23" t="str">
         <f>VLOOKUP(D23, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -2777,25 +2781,25 @@
         <v>[Middle] SGO</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="2"/>
-        <v>'BAP',</v>
+        <v>'BAO',</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>BAP (Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
+        <v>BAO (Gasoil Crack - Singapore Gasoil (Platts) vs Dubai 1st Line (Platts) Future)</v>
       </c>
       <c r="I24" t="str">
         <f>VLOOKUP(D24, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J24" t="str">
         <f>VLOOKUP(D24, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -2817,25 +2821,25 @@
         <v>[Middle] SGO</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="2"/>
-        <v>'BAQ',</v>
+        <v>'BAP',</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)</v>
+        <v>BAP (Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
       <c r="I25" t="str">
         <f>VLOOKUP(D25, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J25" t="str">
         <f>VLOOKUP(D25, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -2850,39 +2854,39 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="1"/>
-        <v>[Middle] ICEGO</v>
+        <v>[Middle] SGO</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="2"/>
-        <v>'GAS',</v>
+        <v>'BAQ',</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>GAS (Low Sulphur Gasoil Futures)</v>
+        <v>BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)</v>
       </c>
       <c r="I26" t="str">
         <f>VLOOKUP(D26, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J26" t="str">
         <f>VLOOKUP(D26, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
+        <v>BBL</v>
       </c>
       <c r="K26">
-        <v>7.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2897,21 +2901,21 @@
         <v>[Middle] ICEGO</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="2"/>
-        <v>'ULA',</v>
+        <v>'GAS',</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>ULA (Low Sulphur Gasoil 1st Line Future)</v>
+        <v>GAS (Low Sulphur Gasoil Futures)</v>
       </c>
       <c r="I27" t="str">
         <f>VLOOKUP(D27, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -2937,32 +2941,32 @@
         <v>[Middle] ICEGO</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="2"/>
-        <v>'ULD',</v>
+        <v>'ULA',</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>ULD (Gasoil Crack - Low Sulphur Gasoil 1st Line vs Brent 1st Line Future (in Bbls))</v>
+        <v>ULA (Low Sulphur Gasoil 1st Line Future)</v>
       </c>
       <c r="I28" t="str">
         <f>VLOOKUP(D28, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J28" t="str">
         <f>VLOOKUP(D28, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
+        <v>MT</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2977,32 +2981,32 @@
         <v>[Middle] ICEGO</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="2"/>
-        <v>'ULJ',</v>
+        <v>'ULD',</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>ULJ (Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future)</v>
+        <v>ULD (Gasoil Crack - Low Sulphur Gasoil 1st Line vs Brent 1st Line Future (in Bbls))</v>
       </c>
       <c r="I29" t="str">
         <f>VLOOKUP(D29, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J29" t="str">
         <f>VLOOKUP(D29, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
+        <v>BBL</v>
       </c>
       <c r="K29">
-        <v>7.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3017,21 +3021,21 @@
         <v>[Middle] ICEGO</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="2"/>
-        <v>'BAP',</v>
+        <v>'ULJ',</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>BAP (Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
+        <v>ULJ (Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future)</v>
       </c>
       <c r="I30" t="str">
         <f>VLOOKUP(D30, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3039,10 +3043,10 @@
       </c>
       <c r="J30" t="str">
         <f>VLOOKUP(D30, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
+        <v>MT</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3057,25 +3061,25 @@
         <v>[Middle] ICEGO</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="2"/>
-        <v>'ULM',</v>
+        <v>'BAP',</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>ULM (Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
+        <v>BAP (Gasoil Diff - Singapore Gasoil (Platts) vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
       <c r="I31" t="str">
         <f>VLOOKUP(D31, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/GAL</v>
+        <v>$/MT</v>
       </c>
       <c r="J31" t="str">
         <f>VLOOKUP(D31, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -3090,32 +3094,32 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="1"/>
-        <v>[Middle] SKO</v>
+        <v>[Middle] ICEGO</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="2"/>
-        <v>'SRS',</v>
+        <v>'ULM',</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>SRS (Singapore Jet Kerosene Swap)</v>
+        <v>ULM (Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
       <c r="I32" t="str">
         <f>VLOOKUP(D32, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/GAL</v>
       </c>
       <c r="J32" t="str">
         <f>VLOOKUP(D32, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -3137,21 +3141,21 @@
         <v>[Middle] SKO</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="2"/>
-        <v>'SFF',</v>
+        <v>'SRS',</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>SFF (Jet Fuel Crack - Singapore Jet Kerosene Cargoes (Platts) vs Dubai 1st Line (Platts) Future)</v>
+        <v>SRS (Singapore Jet Kerosene Swap)</v>
       </c>
       <c r="I33" t="str">
         <f>VLOOKUP(D33, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3177,21 +3181,21 @@
         <v>[Middle] SKO</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="2"/>
-        <v>'BAQ',</v>
+        <v>'SFF',</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" ref="H34:H62" si="3">_xlfn.CONCAT(D34," (",G34, ")")</f>
-        <v>BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)</v>
+        <f t="shared" si="0"/>
+        <v>SFF (Jet Fuel Crack - Singapore Jet Kerosene Cargoes (Platts) vs Dubai 1st Line (Platts) Future)</v>
       </c>
       <c r="I34" t="str">
         <f>VLOOKUP(D34, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3210,39 +3214,39 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
-        <v>[Middle] NWE Jet</v>
+        <v>[Middle] SKO</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="2"/>
-        <v>'JCN',</v>
+        <v>'BAQ',</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="3"/>
-        <v>JCN (Jet CIF NWE Cargoes Future)</v>
+        <f t="shared" ref="H35:H63" si="4">_xlfn.CONCAT(D35," (",G35, ")")</f>
+        <v>BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)</v>
       </c>
       <c r="I35" t="str">
         <f>VLOOKUP(D35, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J35" t="str">
         <f>VLOOKUP(D35, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
+        <v>BBL</v>
       </c>
       <c r="K35">
-        <v>7.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3257,32 +3261,32 @@
         <v>[Middle] NWE Jet</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="2"/>
-        <v>'JNB',</v>
+        <v>'JCN',</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="3"/>
-        <v>JNB (Jet Fuel Crack - Jet CIF NWE Cargoes vs Brent 1st Line Future)</v>
+        <f t="shared" si="4"/>
+        <v>JCN (Jet CIF NWE Cargoes Future)</v>
       </c>
       <c r="I36" t="str">
         <f>VLOOKUP(D36, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J36" t="str">
         <f>VLOOKUP(D36, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
+        <v>MT</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3297,32 +3301,32 @@
         <v>[Middle] NWE Jet</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="2"/>
-        <v>'ULJ',</v>
+        <v>'JNB',</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="3"/>
-        <v>ULJ (Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future)</v>
+        <f t="shared" si="4"/>
+        <v>JNB (Jet Fuel Crack - Jet CIF NWE Cargoes vs Brent 1st Line Future)</v>
       </c>
       <c r="I37" t="str">
         <f>VLOOKUP(D37, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J37" t="str">
         <f>VLOOKUP(D37, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
+        <v>BBL</v>
       </c>
       <c r="K37">
-        <v>7.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3330,39 +3334,39 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
-        <v>[Middle] HO</v>
+        <v>[Middle] NWE Jet</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="2"/>
-        <v>'UHO',</v>
+        <v>'ULJ',</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="3"/>
-        <v>UHO (Heating Oil Futures)</v>
+        <f t="shared" si="4"/>
+        <v>ULJ (Jet Fuel Diff - Jet CIF NWE Cargoes vs Low Sulphur Gasoil 1st Line Future)</v>
       </c>
       <c r="I38" t="str">
         <f>VLOOKUP(D38, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/GAL</v>
+        <v>$/MT</v>
       </c>
       <c r="J38" t="str">
         <f>VLOOKUP(D38, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
+        <v>MT</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3377,21 +3381,21 @@
         <v>[Middle] HO</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="2"/>
-        <v>'HOF',</v>
+        <v>'UHO',</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="3"/>
-        <v>HOF (Heating Oil 1st Line Future)</v>
+        <f t="shared" si="4"/>
+        <v>UHO (Heating Oil Futures)</v>
       </c>
       <c r="I39" t="str">
         <f>VLOOKUP(D39, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3417,25 +3421,25 @@
         <v>[Middle] HO</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="2"/>
-        <v>'HBT',</v>
+        <v>'HOF',</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="3"/>
-        <v>HBT (Heating Oil Crack - Heating Oil 1st Line vs Brent 1st Line Future (in bbls))</v>
+        <f t="shared" si="4"/>
+        <v>HOF (Heating Oil 1st Line Future)</v>
       </c>
       <c r="I40" t="str">
         <f>VLOOKUP(D40, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/GAL</v>
       </c>
       <c r="J40" t="str">
         <f>VLOOKUP(D40, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -3457,25 +3461,25 @@
         <v>[Middle] HO</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="2"/>
-        <v>'ULM',</v>
+        <v>'HBT',</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="3"/>
-        <v>ULM (Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
+        <f t="shared" si="4"/>
+        <v>HBT (Heating Oil Crack - Heating Oil 1st Line vs Brent 1st Line Future (in bbls))</v>
       </c>
       <c r="I41" t="str">
         <f>VLOOKUP(D41, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/GAL</v>
+        <v>$/BBL</v>
       </c>
       <c r="J41" t="str">
         <f>VLOOKUP(D41, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -3487,42 +3491,42 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="1"/>
-        <v>[Heavy] S0.5</v>
+        <v>[Middle] HO</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="2"/>
-        <v>'MF4',</v>
+        <v>'ULM',</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="3"/>
-        <v>MF4 (Marine Fuel 0.5% FOB Singapore Swap)</v>
+        <f t="shared" si="4"/>
+        <v>ULM (Heating Oil Arb - Heating Oil 1st Line vs Low Sulphur Gasoil 1st Line Future (in Bbls))</v>
       </c>
       <c r="I42" t="str">
         <f>VLOOKUP(D42, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/GAL</v>
       </c>
       <c r="J42" t="str">
         <f>VLOOKUP(D42, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
+        <v>BBL</v>
       </c>
       <c r="K42">
-        <v>6.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3537,32 +3541,32 @@
         <v>[Heavy] S0.5</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="2"/>
-        <v>'MFT',</v>
+        <v>'MF4',</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="3"/>
-        <v>MFT (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in Bbls))</v>
+        <f t="shared" si="4"/>
+        <v>MF4 (Marine Fuel 0.5% FOB Singapore Swap)</v>
       </c>
       <c r="I43" t="str">
         <f>VLOOKUP(D43, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J43" t="str">
         <f>VLOOKUP(D43, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
+        <v>MT</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3577,21 +3581,21 @@
         <v>[Heavy] S0.5</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="2"/>
-        <v>'TEN',</v>
+        <v>'MFT',</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="3"/>
-        <v>TEN (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in MTs))</v>
+        <f t="shared" si="4"/>
+        <v>MFT (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
       <c r="I44" t="str">
         <f>VLOOKUP(D44, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3599,10 +3603,10 @@
       </c>
       <c r="J44" t="str">
         <f>VLOOKUP(D44, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
+        <v>BBL</v>
       </c>
       <c r="K44">
-        <v>6.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3617,25 +3621,25 @@
         <v>[Heavy] S0.5</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="2"/>
-        <v>'MF6',</v>
+        <v>'TEN',</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="3"/>
-        <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
+        <f t="shared" si="4"/>
+        <v>TEN (Fuel Oil Crack - Marine Fuel 0.5% FOB Singapore (Platts) vs Brent 1st Line Future (in MTs))</v>
       </c>
       <c r="I45" t="str">
         <f>VLOOKUP(D45, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J45" t="str">
         <f>VLOOKUP(D45, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -3657,21 +3661,21 @@
         <v>[Heavy] S0.5</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
-        <v>'MF7',</v>
+        <v>'MF6',</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="3"/>
-        <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
+        <f t="shared" si="4"/>
+        <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
       </c>
       <c r="I46" t="str">
         <f>VLOOKUP(D46, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3697,21 +3701,21 @@
         <v>[Heavy] S0.5</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="2"/>
-        <v>'FDF',</v>
+        <v>'MF7',</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="3"/>
-        <v>FDF (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Singapore Gasoil (Platts) Future (in MTs))</v>
+        <f t="shared" si="4"/>
+        <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
       </c>
       <c r="I47" t="str">
         <f>VLOOKUP(D47, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3730,28 +3734,28 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
-        <v>[Heavy] Rdm0.5</v>
+        <v>[Heavy] S0.5</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
-        <v>'MF3',</v>
+        <v>'FDF',</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="3"/>
-        <v>MF3 (Marine Fuel 0.5% FOB Rotterdam Barge Swap)</v>
+        <f t="shared" si="4"/>
+        <v>FDF (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Singapore Gasoil (Platts) Future (in MTs))</v>
       </c>
       <c r="I48" t="str">
         <f>VLOOKUP(D48, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3777,21 +3781,21 @@
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="2"/>
-        <v>'MF5',</v>
+        <v>'MF3',</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="3"/>
-        <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
+        <f t="shared" si="4"/>
+        <v>MF3 (Marine Fuel 0.5% FOB Rotterdam Barge Swap)</v>
       </c>
       <c r="I49" t="str">
         <f>VLOOKUP(D49, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3817,32 +3821,32 @@
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
-        <v>'MFR',</v>
+        <v>'MF5',</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="3"/>
-        <v>MFR (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in Bbls))</v>
+        <f t="shared" si="4"/>
+        <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
       <c r="I50" t="str">
         <f>VLOOKUP(D50, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J50" t="str">
         <f>VLOOKUP(D50, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
+        <v>MT</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3857,21 +3861,21 @@
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="2"/>
-        <v>'TEO',</v>
+        <v>'MFR',</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="3"/>
-        <v>TEO (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in MTs))</v>
+        <f t="shared" si="4"/>
+        <v>MFR (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
       <c r="I51" t="str">
         <f>VLOOKUP(D51, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3879,10 +3883,10 @@
       </c>
       <c r="J51" t="str">
         <f>VLOOKUP(D51, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
+        <v>BBL</v>
       </c>
       <c r="K51">
-        <v>6.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3897,25 +3901,25 @@
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="2"/>
-        <v>'MF7',</v>
+        <v>'TEO',</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="3"/>
-        <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
+        <f t="shared" si="4"/>
+        <v>TEO (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in MTs))</v>
       </c>
       <c r="I52" t="str">
         <f>VLOOKUP(D52, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J52" t="str">
         <f>VLOOKUP(D52, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -3930,28 +3934,28 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
-        <v>[Heavy] S380</v>
+        <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="2"/>
-        <v>'SYS',</v>
+        <v>'MF7',</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="3"/>
-        <v>SYS (Fuel Oil 380 CST Singapore Swap)</v>
+        <f t="shared" si="4"/>
+        <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
       </c>
       <c r="I53" t="str">
         <f>VLOOKUP(D53, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3977,25 +3981,25 @@
         <v>[Heavy] S380</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="2"/>
-        <v>'SPS',</v>
+        <v>'SYS',</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="3"/>
-        <v>SPS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Brent 1st Line Future)</v>
+        <f t="shared" si="4"/>
+        <v>SYS (Fuel Oil 380 CST Singapore Swap)</v>
       </c>
       <c r="I54" t="str">
         <f>VLOOKUP(D54, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J54" t="str">
         <f>VLOOKUP(D54, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -4017,21 +4021,21 @@
         <v>[Heavy] S380</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="2"/>
-        <v>'SLS',</v>
+        <v>'SPS',</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="3"/>
-        <v>SLS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Dubai 1st Line Future)</v>
+        <f t="shared" si="4"/>
+        <v>SPS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Brent 1st Line Future)</v>
       </c>
       <c r="I55" t="str">
         <f>VLOOKUP(D55, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4057,25 +4061,25 @@
         <v>[Heavy] S380</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="2"/>
-        <v>'SJS',</v>
+        <v>'SLS',</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="3"/>
-        <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
+        <f t="shared" si="4"/>
+        <v>SLS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Dubai 1st Line Future)</v>
       </c>
       <c r="I56" t="str">
         <f>VLOOKUP(D56, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J56" t="str">
         <f>VLOOKUP(D56, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -4097,21 +4101,21 @@
         <v>[Heavy] S380</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="2"/>
-        <v>'MF6',</v>
+        <v>'SJS',</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="3"/>
-        <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
+        <f t="shared" si="4"/>
+        <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
       <c r="I57" t="str">
         <f>VLOOKUP(D57, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4130,28 +4134,28 @@
         <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="1"/>
-        <v>[Heavy] Rdm3.5</v>
+        <v>[Heavy] S380</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="2"/>
-        <v>'BAR',</v>
+        <v>'MF6',</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="3"/>
-        <v>BAR (Fuel Oil 3.5% FOB Rotterdam Barges Balmo Swap)</v>
+        <f t="shared" si="4"/>
+        <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
       </c>
       <c r="I58" t="str">
         <f>VLOOKUP(D58, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4177,25 +4181,25 @@
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="2"/>
-        <v>'BOB',</v>
+        <v>'BAR',</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="3"/>
-        <v>BOB (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future)</v>
+        <f t="shared" si="4"/>
+        <v>BAR (Fuel Oil 3.5% FOB Rotterdam Barges Balmo Swap)</v>
       </c>
       <c r="I59" t="str">
         <f>VLOOKUP(D59, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J59" t="str">
         <f>VLOOKUP(D59, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -4217,21 +4221,21 @@
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="2"/>
-        <v>'BOA',</v>
+        <v>'BOB',</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="3"/>
-        <v>BOA (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls))</v>
+        <f t="shared" si="4"/>
+        <v>BOB (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future)</v>
       </c>
       <c r="I60" t="str">
         <f>VLOOKUP(D60, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4239,10 +4243,10 @@
       </c>
       <c r="J60" t="str">
         <f>VLOOKUP(D60, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
+        <v>MT</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4257,32 +4261,32 @@
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="2"/>
-        <v>'SJS',</v>
+        <v>'BOA',</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="3"/>
-        <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
+        <f t="shared" si="4"/>
+        <v>BOA (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls))</v>
       </c>
       <c r="I61" t="str">
         <f>VLOOKUP(D61, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J61" t="str">
         <f>VLOOKUP(D61, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
+        <v>BBL</v>
       </c>
       <c r="K61">
-        <v>6.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4297,21 +4301,21 @@
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D62" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
-        <v>'MF5',</v>
+        <v>'SJS',</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="3"/>
-        <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
+        <f t="shared" si="4"/>
+        <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
       <c r="I62" t="str">
         <f>VLOOKUP(D62, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4325,8 +4329,48 @@
         <v>6.35</v>
       </c>
     </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>[Heavy] Rdm3.5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="2"/>
+        <v>'MF5',</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>110</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="4"/>
+        <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
+      </c>
+      <c r="I63" t="str">
+        <f>VLOOKUP(D63, Sheet1!$A$4:$D$53, 4, FALSE)</f>
+        <v>$/MT</v>
+      </c>
+      <c r="J63" t="str">
+        <f>VLOOKUP(D63, Sheet1!$A$4:$B$53, 2, FALSE)</f>
+        <v>MT</v>
+      </c>
+      <c r="K63">
+        <v>6.35</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J62" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}"/>
+  <autoFilter ref="A1:J63" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4349,23 +4393,23 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" t="s">
         <v>125</v>
-      </c>
-      <c r="G3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4373,13 +4417,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="2" t="b">
         <f t="shared" ref="E4:E35" si="0">B4=C4</f>
@@ -4391,13 +4435,13 @@
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4409,20 +4453,20 @@
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4430,13 +4474,13 @@
         <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4448,13 +4492,13 @@
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4466,13 +4510,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4484,20 +4528,20 @@
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4505,20 +4549,20 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4526,13 +4570,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4544,13 +4588,13 @@
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4565,13 +4609,13 @@
         <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4583,13 +4627,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4601,20 +4645,20 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E16" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4622,13 +4666,13 @@
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4640,13 +4684,13 @@
         <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4658,20 +4702,20 @@
         <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4679,13 +4723,13 @@
         <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E20" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4697,13 +4741,13 @@
         <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E21" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4715,13 +4759,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E22" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4733,13 +4777,13 @@
         <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4751,13 +4795,13 @@
         <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4769,13 +4813,13 @@
         <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4787,13 +4831,13 @@
         <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4805,13 +4849,13 @@
         <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E27" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4823,13 +4867,13 @@
         <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E28" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4841,13 +4885,13 @@
         <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4859,13 +4903,13 @@
         <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E30" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4877,13 +4921,13 @@
         <v>21</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E31" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4895,13 +4939,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E32" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4913,13 +4957,13 @@
         <v>20</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E33" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4931,20 +4975,20 @@
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E34" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -4952,13 +4996,13 @@
         <v>18</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4970,20 +5014,20 @@
         <v>17</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" s="2" t="b">
         <f t="shared" ref="E36:E53" si="1">B36=C36</f>
         <v>0</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4991,13 +5035,13 @@
         <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5009,13 +5053,13 @@
         <v>29</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5027,13 +5071,13 @@
         <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E39" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5045,20 +5089,20 @@
         <v>66</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5066,13 +5110,13 @@
         <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E41" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5084,20 +5128,20 @@
         <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5105,13 +5149,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5123,13 +5167,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5141,13 +5185,13 @@
         <v>64</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5159,20 +5203,20 @@
         <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E46" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5180,20 +5224,20 @@
         <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E47" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5201,20 +5245,20 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -5222,20 +5266,20 @@
         <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -5243,13 +5287,13 @@
         <v>35</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E50" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5261,13 +5305,13 @@
         <v>36</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E51" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5279,13 +5323,13 @@
         <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E52" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5297,25 +5341,25 @@
         <v>38</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5349,22 +5393,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" t="s">
-        <v>128</v>
-      </c>
       <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
         <v>125</v>
-      </c>
-      <c r="G1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5372,13 +5416,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="b">
         <f t="shared" ref="E2:E51" si="0">B2=C2</f>
@@ -5390,13 +5434,13 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5408,20 +5452,20 @@
         <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5429,13 +5473,13 @@
         <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5447,13 +5491,13 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5465,13 +5509,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5483,20 +5527,20 @@
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -5504,20 +5548,20 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5525,13 +5569,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E10" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5543,13 +5587,13 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5564,13 +5608,13 @@
         <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5582,13 +5626,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5600,20 +5644,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E14" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5621,13 +5665,13 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5639,13 +5683,13 @@
         <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5657,20 +5701,20 @@
         <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5678,13 +5722,13 @@
         <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5696,13 +5740,13 @@
         <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5714,13 +5758,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E20" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5732,13 +5776,13 @@
         <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E21" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5750,13 +5794,13 @@
         <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E22" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5768,13 +5812,13 @@
         <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5786,13 +5830,13 @@
         <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5804,13 +5848,13 @@
         <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5822,13 +5866,13 @@
         <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5840,13 +5884,13 @@
         <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E27" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5858,13 +5902,13 @@
         <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E28" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5876,13 +5920,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5894,13 +5938,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5912,13 +5956,13 @@
         <v>20</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E31" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5930,20 +5974,20 @@
         <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -5951,13 +5995,13 @@
         <v>18</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5969,20 +6013,20 @@
         <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -5990,13 +6034,13 @@
         <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6008,13 +6052,13 @@
         <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6026,13 +6070,13 @@
         <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E37" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6044,20 +6088,20 @@
         <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6065,13 +6109,13 @@
         <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6083,20 +6127,20 @@
         <v>65</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6104,13 +6148,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E41" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6122,13 +6166,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6140,13 +6184,13 @@
         <v>64</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E43" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6158,20 +6202,20 @@
         <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6179,20 +6223,20 @@
         <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E45" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6200,20 +6244,20 @@
         <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6221,20 +6265,20 @@
         <v>16</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6242,13 +6286,13 @@
         <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E48" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6260,13 +6304,13 @@
         <v>36</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E49" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6278,13 +6322,13 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E50" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6296,20 +6340,20 @@
         <v>38</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E51" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/OI_product_map.xlsx
+++ b/data/OI_product_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21F59CF9-8FE7-4D99-948A-99692D744D66}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FA158E0-40FE-4FA9-BF93-574CCB9B303E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
   </bookViews>
@@ -20,12 +20,12 @@
     <sheet name="Today OI" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$J$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$J$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$G$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="162">
   <si>
     <t>Product Family</t>
   </si>
@@ -373,9 +373,6 @@
     <t>Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures</t>
   </si>
   <si>
-    <t>Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Singapore Gasoil (Platts) Future (in MTs)</t>
-  </si>
-  <si>
     <t>Marine Fuel 0.5% FOB Rotterdam Barge Swap</t>
   </si>
   <si>
@@ -684,7 +681,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jia Shang" refreshedDate="45890.676370370369" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="62" xr:uid="{A8808549-A262-40B2-9E8C-C122B670117C}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H63" sheet="Data"/>
+    <worksheetSource ref="A1:H62" sheet="Data"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Product Family" numFmtId="0">
@@ -1397,7 +1394,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23CDFA64-99A4-40E4-9BAE-6970E7183312}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23CDFA64-99A4-40E4-9BAE-6970E7183312}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -1953,10 +1950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,25 +1985,25 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
         <v>144</v>
-      </c>
-      <c r="K1" t="s">
-        <v>145</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -2069,14 +2066,14 @@
         <v>5</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C63" si="1">_xlfn.CONCAT("[",A3,"] ",B3)</f>
+        <f t="shared" ref="C3:C62" si="1">_xlfn.CONCAT("[",A3,"] ",B3)</f>
         <v>[Light] S92</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E63" si="2">_xlfn.CONCAT("'",D3,"',")</f>
+        <f t="shared" ref="E3:E62" si="2">_xlfn.CONCAT("'",D3,"',")</f>
         <v>'GDK',</v>
       </c>
       <c r="F3">
@@ -2267,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -2303,7 +2300,7 @@
         <v>[Light] Ebob</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" t="str">
         <f>_xlfn.CONCAT("'",D8,"',")</f>
@@ -2313,17 +2310,17 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8" t="str">
         <f>_xlfn.CONCAT(D8," (",G8, ")")</f>
         <v>AEB (Gasoline Crack - Argus Eurobob Oxy FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls))</v>
       </c>
       <c r="I8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -3200,7 +3197,7 @@
         <v>MT</v>
       </c>
       <c r="K27">
-        <v>7.45</v>
+        <v>0.745</v>
       </c>
       <c r="L27" t="s">
         <v>26</v>
@@ -3246,7 +3243,7 @@
         <v>MT</v>
       </c>
       <c r="K28">
-        <v>7.45</v>
+        <v>0.745</v>
       </c>
       <c r="L28" t="s">
         <v>26</v>
@@ -3556,7 +3553,7 @@
         <v>90</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" ref="H35:H63" si="4">_xlfn.CONCAT(D35," (",G35, ")")</f>
+        <f t="shared" ref="H35:H62" si="4">_xlfn.CONCAT(D35," (",G35, ")")</f>
         <v>BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)</v>
       </c>
       <c r="I35" t="str">
@@ -4134,28 +4131,28 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
-        <v>[Heavy] S0.5</v>
+        <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
-        <v>'FDF',</v>
+        <v>'MF3',</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="s">
         <v>108</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="4"/>
-        <v>FDF (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Singapore Gasoil (Platts) Future (in MTs))</v>
+        <v>MF3 (Marine Fuel 0.5% FOB Rotterdam Barge Swap)</v>
       </c>
       <c r="I48" t="str">
         <f>VLOOKUP(D48, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4172,7 +4169,7 @@
         <v>50</v>
       </c>
       <c r="M48" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -4187,21 +4184,21 @@
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="2"/>
-        <v>'MF3',</v>
+        <v>'MF5',</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
         <v>109</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="4"/>
-        <v>MF3 (Marine Fuel 0.5% FOB Rotterdam Barge Swap)</v>
+        <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
       <c r="I49" t="str">
         <f>VLOOKUP(D49, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4233,11 +4230,11 @@
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
-        <v>'MF5',</v>
+        <v>'MFR',</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -4247,18 +4244,18 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" si="4"/>
-        <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
+        <v>MFR (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
       <c r="I50" t="str">
         <f>VLOOKUP(D50, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J50" t="str">
         <f>VLOOKUP(D50, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
+        <v>BBL</v>
       </c>
       <c r="K50">
-        <v>6.35</v>
+        <v>1</v>
       </c>
       <c r="L50" t="s">
         <v>50</v>
@@ -4279,11 +4276,11 @@
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="2"/>
-        <v>'MFR',</v>
+        <v>'TEO',</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -4293,7 +4290,7 @@
       </c>
       <c r="H51" t="str">
         <f t="shared" si="4"/>
-        <v>MFR (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in Bbls))</v>
+        <v>TEO (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in MTs))</v>
       </c>
       <c r="I51" t="str">
         <f>VLOOKUP(D51, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4301,10 +4298,10 @@
       </c>
       <c r="J51" t="str">
         <f>VLOOKUP(D51, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
+        <v>MT</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>6.35</v>
       </c>
       <c r="L51" t="s">
         <v>50</v>
@@ -4325,25 +4322,25 @@
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="2"/>
-        <v>'TEO',</v>
+        <v>'MF7',</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="4"/>
-        <v>TEO (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in MTs))</v>
+        <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
       </c>
       <c r="I52" t="str">
         <f>VLOOKUP(D52, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J52" t="str">
         <f>VLOOKUP(D52, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -4364,28 +4361,28 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
-        <v>[Heavy] Rdm0.5</v>
+        <v>[Heavy] S380</v>
       </c>
       <c r="D53" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="2"/>
-        <v>'MF7',</v>
+        <v>'SYS',</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="4"/>
-        <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
+        <v>SYS (Fuel Oil 380 CST Singapore Swap)</v>
       </c>
       <c r="I53" t="str">
         <f>VLOOKUP(D53, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4402,7 +4399,7 @@
         <v>50</v>
       </c>
       <c r="M53" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -4417,25 +4414,25 @@
         <v>[Heavy] S380</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="2"/>
-        <v>'SYS',</v>
+        <v>'SPS',</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="s">
         <v>113</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="4"/>
-        <v>SYS (Fuel Oil 380 CST Singapore Swap)</v>
+        <v>SPS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Brent 1st Line Future)</v>
       </c>
       <c r="I54" t="str">
         <f>VLOOKUP(D54, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J54" t="str">
         <f>VLOOKUP(D54, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -4463,11 +4460,11 @@
         <v>[Heavy] S380</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="2"/>
-        <v>'SPS',</v>
+        <v>'SLS',</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -4477,7 +4474,7 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="4"/>
-        <v>SPS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Brent 1st Line Future)</v>
+        <v>SLS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Dubai 1st Line Future)</v>
       </c>
       <c r="I55" t="str">
         <f>VLOOKUP(D55, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4509,11 +4506,11 @@
         <v>[Heavy] S380</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="2"/>
-        <v>'SLS',</v>
+        <v>'SJS',</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -4523,11 +4520,11 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="4"/>
-        <v>SLS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Dubai 1st Line Future)</v>
+        <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
       <c r="I56" t="str">
         <f>VLOOKUP(D56, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J56" t="str">
         <f>VLOOKUP(D56, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -4555,21 +4552,21 @@
         <v>[Heavy] S380</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="2"/>
-        <v>'SJS',</v>
+        <v>'MF6',</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="4"/>
-        <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
+        <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
       </c>
       <c r="I57" t="str">
         <f>VLOOKUP(D57, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4594,28 +4591,28 @@
         <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="1"/>
-        <v>[Heavy] S380</v>
+        <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="2"/>
-        <v>'MF6',</v>
+        <v>'BAR',</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="4"/>
-        <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
+        <v>BAR (Fuel Oil 3.5% FOB Rotterdam Barges Balmo Swap)</v>
       </c>
       <c r="I58" t="str">
         <f>VLOOKUP(D58, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4632,7 +4629,7 @@
         <v>50</v>
       </c>
       <c r="M58" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -4647,25 +4644,25 @@
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="2"/>
-        <v>'BAR',</v>
+        <v>'BOB',</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
         <v>117</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="4"/>
-        <v>BAR (Fuel Oil 3.5% FOB Rotterdam Barges Balmo Swap)</v>
+        <v>BOB (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future)</v>
       </c>
       <c r="I59" t="str">
         <f>VLOOKUP(D59, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J59" t="str">
         <f>VLOOKUP(D59, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -4693,11 +4690,11 @@
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="2"/>
-        <v>'BOB',</v>
+        <v>'BOA',</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4707,7 +4704,7 @@
       </c>
       <c r="H60" t="str">
         <f t="shared" si="4"/>
-        <v>BOB (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future)</v>
+        <v>BOA (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls))</v>
       </c>
       <c r="I60" t="str">
         <f>VLOOKUP(D60, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4715,10 +4712,10 @@
       </c>
       <c r="J60" t="str">
         <f>VLOOKUP(D60, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
+        <v>BBL</v>
       </c>
       <c r="K60">
-        <v>6.35</v>
+        <v>1</v>
       </c>
       <c r="L60" t="s">
         <v>50</v>
@@ -4739,32 +4736,32 @@
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="2"/>
-        <v>'BOA',</v>
+        <v>'SJS',</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="4"/>
-        <v>BOA (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls))</v>
+        <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
       <c r="I61" t="str">
         <f>VLOOKUP(D61, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J61" t="str">
         <f>VLOOKUP(D61, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
+        <v>MT</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>6.35</v>
       </c>
       <c r="L61" t="s">
         <v>50</v>
@@ -4785,21 +4782,21 @@
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
-        <v>'SJS',</v>
+        <v>'MF5',</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="4"/>
-        <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
+        <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
       <c r="I62" t="str">
         <f>VLOOKUP(D62, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4819,54 +4816,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" t="str">
-        <f t="shared" si="1"/>
-        <v>[Heavy] Rdm3.5</v>
-      </c>
-      <c r="D63" t="s">
-        <v>60</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="2"/>
-        <v>'MF5',</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
-        <v>110</v>
-      </c>
-      <c r="H63" t="str">
-        <f t="shared" si="4"/>
-        <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
-      </c>
-      <c r="I63" t="str">
-        <f>VLOOKUP(D63, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
-      </c>
-      <c r="J63" t="str">
-        <f>VLOOKUP(D63, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
-      </c>
-      <c r="K63">
-        <v>6.35</v>
-      </c>
-      <c r="L63" t="s">
-        <v>50</v>
-      </c>
-      <c r="M63" t="s">
-        <v>68</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J63" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}"/>
+  <autoFilter ref="A1:J62" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4889,23 +4840,23 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
         <v>124</v>
-      </c>
-      <c r="G3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4913,13 +4864,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" s="2" t="b">
         <f t="shared" ref="E4:E35" si="0">B4=C4</f>
@@ -4931,13 +4882,13 @@
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4949,20 +4900,20 @@
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4970,13 +4921,13 @@
         <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4988,13 +4939,13 @@
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5006,13 +4957,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5024,20 +4975,20 @@
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5045,20 +4996,20 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5066,13 +5017,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5084,13 +5035,13 @@
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5105,13 +5056,13 @@
         <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5123,13 +5074,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5141,20 +5092,20 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E16" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5162,13 +5113,13 @@
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5180,13 +5131,13 @@
         <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5198,20 +5149,20 @@
         <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5219,13 +5170,13 @@
         <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E20" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5237,13 +5188,13 @@
         <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E21" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5255,13 +5206,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5273,13 +5224,13 @@
         <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E23" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5291,13 +5242,13 @@
         <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5309,13 +5260,13 @@
         <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5327,13 +5278,13 @@
         <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E26" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5345,13 +5296,13 @@
         <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E27" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5363,13 +5314,13 @@
         <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E28" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5381,13 +5332,13 @@
         <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5399,13 +5350,13 @@
         <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E30" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5417,13 +5368,13 @@
         <v>21</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5435,13 +5386,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5453,13 +5404,13 @@
         <v>20</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5471,20 +5422,20 @@
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5492,13 +5443,13 @@
         <v>18</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E35" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5510,20 +5461,20 @@
         <v>17</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E36" s="2" t="b">
         <f t="shared" ref="E36:E53" si="1">B36=C36</f>
         <v>0</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5531,13 +5482,13 @@
         <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E37" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5549,13 +5500,13 @@
         <v>29</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E38" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5567,13 +5518,13 @@
         <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5585,20 +5536,20 @@
         <v>66</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E40" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5606,13 +5557,13 @@
         <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E41" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5624,20 +5575,20 @@
         <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E42" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5645,13 +5596,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E43" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5663,13 +5614,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E44" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5681,13 +5632,13 @@
         <v>64</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E45" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5699,20 +5650,20 @@
         <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E46" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5720,20 +5671,20 @@
         <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E47" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5741,20 +5692,20 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E48" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -5762,20 +5713,20 @@
         <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E49" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -5783,13 +5734,13 @@
         <v>35</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E50" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5801,13 +5752,13 @@
         <v>36</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E51" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5819,13 +5770,13 @@
         <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E52" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5837,25 +5788,25 @@
         <v>38</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E53" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5889,22 +5840,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" t="s">
-        <v>127</v>
-      </c>
       <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
         <v>124</v>
-      </c>
-      <c r="G1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5912,13 +5863,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2" t="b">
         <f t="shared" ref="E2:E51" si="0">B2=C2</f>
@@ -5930,13 +5881,13 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5948,20 +5899,20 @@
         <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5969,13 +5920,13 @@
         <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5987,13 +5938,13 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6005,13 +5956,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6023,20 +5974,20 @@
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6044,20 +5995,20 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -6065,13 +6016,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6083,13 +6034,13 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6104,13 +6055,13 @@
         <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6122,13 +6073,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6140,20 +6091,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6161,13 +6112,13 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6179,13 +6130,13 @@
         <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E16" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6197,20 +6148,20 @@
         <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6218,13 +6169,13 @@
         <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6236,13 +6187,13 @@
         <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E19" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6254,13 +6205,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E20" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6272,13 +6223,13 @@
         <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E21" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6290,13 +6241,13 @@
         <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6308,13 +6259,13 @@
         <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E23" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6326,13 +6277,13 @@
         <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6344,13 +6295,13 @@
         <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6362,13 +6313,13 @@
         <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E26" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6380,13 +6331,13 @@
         <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E27" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6398,13 +6349,13 @@
         <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6416,13 +6367,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6434,13 +6385,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E30" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6452,13 +6403,13 @@
         <v>20</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E31" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6470,20 +6421,20 @@
         <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6491,13 +6442,13 @@
         <v>18</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E33" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6509,20 +6460,20 @@
         <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6530,13 +6481,13 @@
         <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E35" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6548,13 +6499,13 @@
         <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E36" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6566,13 +6517,13 @@
         <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6584,20 +6535,20 @@
         <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E38" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6605,13 +6556,13 @@
         <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E39" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6623,20 +6574,20 @@
         <v>65</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E40" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6644,13 +6595,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E41" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6662,13 +6613,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E42" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6680,13 +6631,13 @@
         <v>64</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6698,20 +6649,20 @@
         <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E44" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6719,20 +6670,20 @@
         <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6740,20 +6691,20 @@
         <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E46" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6761,20 +6712,20 @@
         <v>16</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E47" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6782,13 +6733,13 @@
         <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E48" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6800,13 +6751,13 @@
         <v>36</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E49" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6818,13 +6769,13 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E50" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6836,20 +6787,20 @@
         <v>38</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -6880,22 +6831,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6909,10 +6860,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP(C2, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C2, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F2">
@@ -6931,10 +6882,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E3">
-        <f>VLOOKUP(C3, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C3, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F3">
@@ -6953,10 +6904,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E4">
-        <f>VLOOKUP(C4, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C4, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F4">
@@ -6975,10 +6926,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E5">
-        <f>VLOOKUP(C5, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C5, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F5">
@@ -6997,10 +6948,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6">
-        <f>VLOOKUP(C6, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C6, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F6">
@@ -7019,10 +6970,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7">
-        <f>VLOOKUP(C7, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C7, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F7">
@@ -7041,10 +6992,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8">
-        <f>VLOOKUP(C8, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C8, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F8">
@@ -7063,10 +7014,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9">
-        <f>VLOOKUP(C9, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C9, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F9">
@@ -7085,10 +7036,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10">
-        <f>VLOOKUP(C10, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C10, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F10">
@@ -7107,10 +7058,10 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11">
-        <f>VLOOKUP(C11, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C11, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F11">
@@ -7129,10 +7080,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12">
-        <f>VLOOKUP(C12, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C12, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F12">
@@ -7151,10 +7102,10 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13">
-        <f>VLOOKUP(C13, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C13, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F13">
@@ -7173,10 +7124,10 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14">
-        <f>VLOOKUP(C14, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C14, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F14">
@@ -7195,10 +7146,10 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15">
-        <f>VLOOKUP(C15, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C15, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F15">
@@ -7217,10 +7168,10 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16">
-        <f>VLOOKUP(C16, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C16, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F16">
@@ -7239,10 +7190,10 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E17">
-        <f>VLOOKUP(C17, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C17, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F17">
@@ -7261,10 +7212,10 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18">
-        <f>VLOOKUP(C18, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C18, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F18">
@@ -7283,10 +7234,10 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E19">
-        <f>VLOOKUP(C19, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C19, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F19">
@@ -7305,10 +7256,10 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E20">
-        <f>VLOOKUP(C20, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C20, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F20">
@@ -7327,10 +7278,10 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21">
-        <f>VLOOKUP(C21, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C21, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F21">
@@ -7349,10 +7300,10 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E22">
-        <f>VLOOKUP(C22, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C22, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F22">
@@ -7371,10 +7322,10 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E23">
-        <f>VLOOKUP(C23, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C23, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F23">
@@ -7393,10 +7344,10 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E24">
-        <f>VLOOKUP(C24, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C24, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F24">
@@ -7415,10 +7366,10 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E25">
-        <f>VLOOKUP(C25, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C25, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F25">
@@ -7437,10 +7388,10 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E26">
-        <f>VLOOKUP(C26, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C26, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F26">
@@ -7459,10 +7410,10 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E27">
-        <f>VLOOKUP(C27, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C27, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F27">
@@ -7481,10 +7432,10 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E28">
-        <f>VLOOKUP(C28, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C28, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F28">
@@ -7503,10 +7454,10 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E29">
-        <f>VLOOKUP(C29, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C29, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F29">
@@ -7525,10 +7476,10 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30">
-        <f>VLOOKUP(C30, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C30, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F30">
@@ -7547,10 +7498,10 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E31">
-        <f>VLOOKUP(C31, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C31, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F31">
@@ -7569,10 +7520,10 @@
         <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E32">
-        <f>VLOOKUP(C32, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C32, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F32">
@@ -7591,10 +7542,10 @@
         <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E33">
-        <f>VLOOKUP(C33, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C33, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F33">
@@ -7613,10 +7564,10 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E34">
-        <f>VLOOKUP(C34, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C34, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F34">
@@ -7635,10 +7586,10 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E35">
-        <f>VLOOKUP(C35, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C35, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F35">
@@ -7657,10 +7608,10 @@
         <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E36">
-        <f>VLOOKUP(C36, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C36, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F36">
@@ -7679,10 +7630,10 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E37">
-        <f>VLOOKUP(C37, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C37, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F37">
@@ -7701,10 +7652,10 @@
         <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E38">
-        <f>VLOOKUP(C38, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C38, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F38">
@@ -7723,10 +7674,10 @@
         <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E39">
-        <f>VLOOKUP(C39, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C39, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F39">
@@ -7745,10 +7696,10 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E40">
-        <f>VLOOKUP(C40, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C40, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F40">
@@ -7767,10 +7718,10 @@
         <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E41">
-        <f>VLOOKUP(C41, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C41, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F41">
@@ -7789,10 +7740,10 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E42">
-        <f>VLOOKUP(C42, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C42, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F42">
@@ -7811,10 +7762,10 @@
         <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E43">
-        <f>VLOOKUP(C43, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C43, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F43">
@@ -7833,10 +7784,10 @@
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E44">
-        <f>VLOOKUP(C44, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C44, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F44">
@@ -7855,10 +7806,10 @@
         <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E45">
-        <f>VLOOKUP(C45, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C45, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F45">
@@ -7877,10 +7828,10 @@
         <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E46">
-        <f>VLOOKUP(C46, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C46, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F46">
@@ -7899,10 +7850,10 @@
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E47">
-        <f>VLOOKUP(C47, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C47, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F47">
@@ -7921,10 +7872,10 @@
         <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E48">
-        <f>VLOOKUP(C48, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C48, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F48">
@@ -7943,10 +7894,10 @@
         <v>31</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E49">
-        <f>VLOOKUP(C49, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C49, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F49">
@@ -7965,10 +7916,10 @@
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E50">
-        <f>VLOOKUP(C50, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C50, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F50">
@@ -7987,10 +7938,10 @@
         <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E51">
-        <f>VLOOKUP(C51, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C51, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F51">
@@ -8009,10 +7960,10 @@
         <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E52">
-        <f>VLOOKUP(C52, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C52, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F52">
@@ -8031,10 +7982,10 @@
         <v>31</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E53">
-        <f>VLOOKUP(C53, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C53, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F53">
@@ -8053,10 +8004,10 @@
         <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E54">
-        <f>VLOOKUP(C54, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C54, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F54">
@@ -8075,10 +8026,10 @@
         <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E55">
-        <f>VLOOKUP(C55, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C55, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F55">
@@ -8097,10 +8048,10 @@
         <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E56">
-        <f>VLOOKUP(C56, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C56, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F56">
@@ -8119,10 +8070,10 @@
         <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E57">
-        <f>VLOOKUP(C57, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C57, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F57">
@@ -8141,10 +8092,10 @@
         <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E58">
-        <f>VLOOKUP(C58, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C58, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F58">
@@ -8163,10 +8114,10 @@
         <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E59">
-        <f>VLOOKUP(C59, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C59, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F59">
@@ -8185,10 +8136,10 @@
         <v>32</v>
       </c>
       <c r="D60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E60">
-        <f>VLOOKUP(C60, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C60, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F60">
@@ -8207,10 +8158,10 @@
         <v>32</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E61">
-        <f>VLOOKUP(C61, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C61, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F61">
@@ -8229,10 +8180,10 @@
         <v>32</v>
       </c>
       <c r="D62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E62">
-        <f>VLOOKUP(C62, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C62, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F62">
@@ -8251,10 +8202,10 @@
         <v>32</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E63">
-        <f>VLOOKUP(C63, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C63, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F63">
@@ -8273,10 +8224,10 @@
         <v>32</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E64">
-        <f>VLOOKUP(C64, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C64, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F64">
@@ -8295,10 +8246,10 @@
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E65">
-        <f>VLOOKUP(C65, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C65, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F65">
@@ -8317,10 +8268,10 @@
         <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E66">
-        <f>VLOOKUP(C66, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C66, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F66">
@@ -8339,10 +8290,10 @@
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E67">
-        <f>VLOOKUP(C67, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C67, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F67">
@@ -8361,10 +8312,10 @@
         <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E68">
-        <f>VLOOKUP(C68, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C68, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F68">
@@ -8383,10 +8334,10 @@
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E69">
-        <f>VLOOKUP(C69, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C69, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F69">
@@ -8405,10 +8356,10 @@
         <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E70">
-        <f>VLOOKUP(C70, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C70, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F70">
@@ -8427,10 +8378,10 @@
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E71">
-        <f>VLOOKUP(C71, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C71, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F71">
@@ -8449,10 +8400,10 @@
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E72">
-        <f>VLOOKUP(C72, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C72, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F72">
@@ -8468,13 +8419,13 @@
         <v>7248</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E73">
-        <f>VLOOKUP(C73, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C73, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F73">
@@ -8490,13 +8441,13 @@
         <v>19764</v>
       </c>
       <c r="C74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E74">
-        <f>VLOOKUP(C74, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C74, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F74">
@@ -8512,13 +8463,13 @@
         <v>10383</v>
       </c>
       <c r="C75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E75">
-        <f>VLOOKUP(C75, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C75, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F75">
@@ -8534,13 +8485,13 @@
         <v>13726</v>
       </c>
       <c r="C76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E76">
-        <f>VLOOKUP(C76, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C76, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F76">
@@ -8556,13 +8507,13 @@
         <v>16998</v>
       </c>
       <c r="C77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E77">
-        <f>VLOOKUP(C77, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C77, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F77">
@@ -8578,13 +8529,13 @@
         <v>11540</v>
       </c>
       <c r="C78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E78">
-        <f>VLOOKUP(C78, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C78, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F78">
@@ -8600,13 +8551,13 @@
         <v>15274</v>
       </c>
       <c r="C79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E79">
-        <f>VLOOKUP(C79, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C79, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F79">
@@ -8622,13 +8573,13 @@
         <v>11772</v>
       </c>
       <c r="C80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E80">
-        <f>VLOOKUP(C80, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C80, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F80">
@@ -8647,10 +8598,10 @@
         <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E81">
-        <f>VLOOKUP(C81, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C81, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F81">
@@ -8669,10 +8620,10 @@
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E82">
-        <f>VLOOKUP(C82, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C82, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F82">
@@ -8691,10 +8642,10 @@
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E83">
-        <f>VLOOKUP(C83, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C83, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F83">
@@ -8713,10 +8664,10 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E84">
-        <f>VLOOKUP(C84, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C84, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F84">
@@ -8735,10 +8686,10 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E85">
-        <f>VLOOKUP(C85, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C85, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F85">
@@ -8757,10 +8708,10 @@
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E86">
-        <f>VLOOKUP(C86, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C86, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F86">
@@ -8779,10 +8730,10 @@
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E87">
-        <f>VLOOKUP(C87, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C87, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F87">
@@ -8801,10 +8752,10 @@
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E88">
-        <f>VLOOKUP(C88, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C88, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F88">
@@ -8823,10 +8774,10 @@
         <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E89">
-        <f>VLOOKUP(C89, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C89, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F89">
@@ -8845,10 +8796,10 @@
         <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E90">
-        <f>VLOOKUP(C90, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C90, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F90">
@@ -8867,10 +8818,10 @@
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E91">
-        <f>VLOOKUP(C91, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C91, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F91">
@@ -8889,10 +8840,10 @@
         <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E92">
-        <f>VLOOKUP(C92, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C92, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F92">
@@ -8911,10 +8862,10 @@
         <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E93">
-        <f>VLOOKUP(C93, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C93, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F93">
@@ -8933,10 +8884,10 @@
         <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E94">
-        <f>VLOOKUP(C94, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C94, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F94">
@@ -8955,10 +8906,10 @@
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E95">
-        <f>VLOOKUP(C95, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C95, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F95">
@@ -8977,10 +8928,10 @@
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E96">
-        <f>VLOOKUP(C96, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C96, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F96">
@@ -8999,10 +8950,10 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E97">
-        <f>VLOOKUP(C97, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C97, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F97">
@@ -9021,10 +8972,10 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E98">
-        <f>VLOOKUP(C98, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C98, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F98">
@@ -9043,10 +8994,10 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E99">
-        <f>VLOOKUP(C99, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C99, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F99">
@@ -9065,10 +9016,10 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E100">
-        <f>VLOOKUP(C100, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C100, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F100">
@@ -9087,10 +9038,10 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E101">
-        <f>VLOOKUP(C101, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C101, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F101">
@@ -9109,10 +9060,10 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E102">
-        <f>VLOOKUP(C102, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C102, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F102">
@@ -9131,10 +9082,10 @@
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E103">
-        <f>VLOOKUP(C103, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C103, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F103">
@@ -9153,10 +9104,10 @@
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E104">
-        <f>VLOOKUP(C104, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C104, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F104">
@@ -9175,10 +9126,10 @@
         <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E105">
-        <f>VLOOKUP(C105, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C105, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F105">
@@ -9197,10 +9148,10 @@
         <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E106">
-        <f>VLOOKUP(C106, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C106, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F106">
@@ -9219,10 +9170,10 @@
         <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E107">
-        <f>VLOOKUP(C107, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C107, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F107">
@@ -9241,10 +9192,10 @@
         <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E108">
-        <f>VLOOKUP(C108, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C108, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F108">
@@ -9263,10 +9214,10 @@
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E109">
-        <f>VLOOKUP(C109, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C109, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F109">
@@ -9285,10 +9236,10 @@
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E110">
-        <f>VLOOKUP(C110, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C110, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F110">
@@ -9307,10 +9258,10 @@
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E111">
-        <f>VLOOKUP(C111, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C111, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F111">
@@ -9329,10 +9280,10 @@
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E112">
-        <f>VLOOKUP(C112, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C112, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F112">
@@ -9351,10 +9302,10 @@
         <v>17</v>
       </c>
       <c r="D113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E113">
-        <f>VLOOKUP(C113, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C113, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F113">
@@ -9373,10 +9324,10 @@
         <v>17</v>
       </c>
       <c r="D114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E114">
-        <f>VLOOKUP(C114, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C114, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F114">
@@ -9395,10 +9346,10 @@
         <v>17</v>
       </c>
       <c r="D115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E115">
-        <f>VLOOKUP(C115, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C115, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F115">
@@ -9417,10 +9368,10 @@
         <v>17</v>
       </c>
       <c r="D116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E116">
-        <f>VLOOKUP(C116, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C116, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F116">
@@ -9439,10 +9390,10 @@
         <v>17</v>
       </c>
       <c r="D117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E117">
-        <f>VLOOKUP(C117, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C117, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F117">
@@ -9461,10 +9412,10 @@
         <v>17</v>
       </c>
       <c r="D118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E118">
-        <f>VLOOKUP(C118, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C118, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F118">
@@ -9483,10 +9434,10 @@
         <v>17</v>
       </c>
       <c r="D119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E119">
-        <f>VLOOKUP(C119, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C119, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F119">
@@ -9505,10 +9456,10 @@
         <v>17</v>
       </c>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E120">
-        <f>VLOOKUP(C120, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C120, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F120">
@@ -9527,10 +9478,10 @@
         <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E121">
-        <f>VLOOKUP(C121, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C121, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F121">
@@ -9549,10 +9500,10 @@
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E122">
-        <f>VLOOKUP(C122, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C122, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F122">
@@ -9571,10 +9522,10 @@
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E123">
-        <f>VLOOKUP(C123, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C123, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F123">
@@ -9593,10 +9544,10 @@
         <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E124">
-        <f>VLOOKUP(C124, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C124, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F124">
@@ -9615,10 +9566,10 @@
         <v>18</v>
       </c>
       <c r="D125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E125">
-        <f>VLOOKUP(C125, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C125, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F125">
@@ -9637,10 +9588,10 @@
         <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E126">
-        <f>VLOOKUP(C126, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C126, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F126">
@@ -9659,10 +9610,10 @@
         <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E127">
-        <f>VLOOKUP(C127, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C127, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F127">
@@ -9681,10 +9632,10 @@
         <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E128">
-        <f>VLOOKUP(C128, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C128, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F128">
@@ -9703,10 +9654,10 @@
         <v>20</v>
       </c>
       <c r="D129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E129">
-        <f>VLOOKUP(C129, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C129, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F129">
@@ -9725,10 +9676,10 @@
         <v>20</v>
       </c>
       <c r="D130" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E130">
-        <f>VLOOKUP(C130, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C130, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F130">
@@ -9747,10 +9698,10 @@
         <v>20</v>
       </c>
       <c r="D131" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E131">
-        <f>VLOOKUP(C131, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C131, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F131">
@@ -9769,10 +9720,10 @@
         <v>20</v>
       </c>
       <c r="D132" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E132">
-        <f>VLOOKUP(C132, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C132, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F132">
@@ -9791,10 +9742,10 @@
         <v>20</v>
       </c>
       <c r="D133" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E133">
-        <f>VLOOKUP(C133, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C133, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F133">
@@ -9813,10 +9764,10 @@
         <v>20</v>
       </c>
       <c r="D134" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E134">
-        <f>VLOOKUP(C134, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C134, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F134">
@@ -9835,10 +9786,10 @@
         <v>20</v>
       </c>
       <c r="D135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E135">
-        <f>VLOOKUP(C135, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C135, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F135">
@@ -9857,10 +9808,10 @@
         <v>20</v>
       </c>
       <c r="D136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E136">
-        <f>VLOOKUP(C136, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C136, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F136">
@@ -9879,10 +9830,10 @@
         <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E137">
-        <f>VLOOKUP(C137, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C137, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F137">
@@ -9901,10 +9852,10 @@
         <v>21</v>
       </c>
       <c r="D138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E138">
-        <f>VLOOKUP(C138, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C138, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F138">
@@ -9923,10 +9874,10 @@
         <v>21</v>
       </c>
       <c r="D139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E139">
-        <f>VLOOKUP(C139, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C139, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F139">
@@ -9945,10 +9896,10 @@
         <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E140">
-        <f>VLOOKUP(C140, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C140, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F140">
@@ -9967,10 +9918,10 @@
         <v>21</v>
       </c>
       <c r="D141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E141">
-        <f>VLOOKUP(C141, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C141, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F141">
@@ -9989,10 +9940,10 @@
         <v>21</v>
       </c>
       <c r="D142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E142">
-        <f>VLOOKUP(C142, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C142, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F142">
@@ -10011,10 +9962,10 @@
         <v>21</v>
       </c>
       <c r="D143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E143">
-        <f>VLOOKUP(C143, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C143, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F143">
@@ -10033,10 +9984,10 @@
         <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E144">
-        <f>VLOOKUP(C144, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C144, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F144">
@@ -10055,10 +10006,10 @@
         <v>22</v>
       </c>
       <c r="D145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E145">
-        <f>VLOOKUP(C145, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C145, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F145">
@@ -10077,10 +10028,10 @@
         <v>22</v>
       </c>
       <c r="D146" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E146">
-        <f>VLOOKUP(C146, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C146, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F146">
@@ -10099,10 +10050,10 @@
         <v>22</v>
       </c>
       <c r="D147" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E147">
-        <f>VLOOKUP(C147, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C147, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F147">
@@ -10121,10 +10072,10 @@
         <v>22</v>
       </c>
       <c r="D148" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E148">
-        <f>VLOOKUP(C148, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C148, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F148">
@@ -10143,10 +10094,10 @@
         <v>22</v>
       </c>
       <c r="D149" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E149">
-        <f>VLOOKUP(C149, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C149, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F149">
@@ -10165,10 +10116,10 @@
         <v>22</v>
       </c>
       <c r="D150" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E150">
-        <f>VLOOKUP(C150, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C150, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F150">
@@ -10187,10 +10138,10 @@
         <v>22</v>
       </c>
       <c r="D151" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E151">
-        <f>VLOOKUP(C151, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C151, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F151">
@@ -10209,10 +10160,10 @@
         <v>22</v>
       </c>
       <c r="D152" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E152">
-        <f>VLOOKUP(C152, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C152, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F152">
@@ -10231,10 +10182,10 @@
         <v>24</v>
       </c>
       <c r="D153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E153">
-        <f>VLOOKUP(C153, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C153, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F153">
@@ -10253,10 +10204,10 @@
         <v>24</v>
       </c>
       <c r="D154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E154">
-        <f>VLOOKUP(C154, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C154, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F154">
@@ -10275,10 +10226,10 @@
         <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E155">
-        <f>VLOOKUP(C155, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C155, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F155">
@@ -10297,10 +10248,10 @@
         <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E156">
-        <f>VLOOKUP(C156, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C156, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F156">
@@ -10319,10 +10270,10 @@
         <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E157">
-        <f>VLOOKUP(C157, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C157, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F157">
@@ -10341,10 +10292,10 @@
         <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E158">
-        <f>VLOOKUP(C158, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C158, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F158">
@@ -10363,10 +10314,10 @@
         <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E159">
-        <f>VLOOKUP(C159, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C159, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F159">
@@ -10385,10 +10336,10 @@
         <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E160">
-        <f>VLOOKUP(C160, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C160, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F160">
@@ -10407,10 +10358,10 @@
         <v>25</v>
       </c>
       <c r="D161" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E161">
-        <f>VLOOKUP(C161, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C161, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F161">
@@ -10429,10 +10380,10 @@
         <v>25</v>
       </c>
       <c r="D162" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E162">
-        <f>VLOOKUP(C162, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C162, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F162">
@@ -10451,10 +10402,10 @@
         <v>25</v>
       </c>
       <c r="D163" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E163">
-        <f>VLOOKUP(C163, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C163, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F163">
@@ -10473,10 +10424,10 @@
         <v>25</v>
       </c>
       <c r="D164" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E164">
-        <f>VLOOKUP(C164, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C164, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F164">
@@ -10495,10 +10446,10 @@
         <v>25</v>
       </c>
       <c r="D165" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E165">
-        <f>VLOOKUP(C165, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C165, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F165">
@@ -10517,10 +10468,10 @@
         <v>25</v>
       </c>
       <c r="D166" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E166">
-        <f>VLOOKUP(C166, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C166, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F166">
@@ -10539,10 +10490,10 @@
         <v>25</v>
       </c>
       <c r="D167" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E167">
-        <f>VLOOKUP(C167, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C167, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F167">
@@ -10561,10 +10512,10 @@
         <v>25</v>
       </c>
       <c r="D168" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E168">
-        <f>VLOOKUP(C168, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C168, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F168">
@@ -10583,15 +10534,15 @@
         <v>34</v>
       </c>
       <c r="D169" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E169">
-        <f>VLOOKUP(C169, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C169, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F169">
         <f t="shared" si="2"/>
-        <v>715386</v>
+        <v>71538</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -10605,15 +10556,15 @@
         <v>34</v>
       </c>
       <c r="D170" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E170">
-        <f>VLOOKUP(C170, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C170, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F170">
         <f t="shared" si="2"/>
-        <v>861659</v>
+        <v>86165</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -10627,15 +10578,15 @@
         <v>34</v>
       </c>
       <c r="D171" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E171">
-        <f>VLOOKUP(C171, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C171, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F171">
         <f t="shared" si="2"/>
-        <v>480592</v>
+        <v>48059</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -10649,15 +10600,15 @@
         <v>34</v>
       </c>
       <c r="D172" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E172">
-        <f>VLOOKUP(C172, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C172, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F172">
         <f t="shared" si="2"/>
-        <v>656948</v>
+        <v>65694</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -10671,15 +10622,15 @@
         <v>34</v>
       </c>
       <c r="D173" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E173">
-        <f>VLOOKUP(C173, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C173, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F173">
         <f t="shared" si="2"/>
-        <v>747808</v>
+        <v>74780</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -10693,15 +10644,15 @@
         <v>34</v>
       </c>
       <c r="D174" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E174">
-        <f>VLOOKUP(C174, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C174, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F174">
         <f t="shared" si="2"/>
-        <v>1426905</v>
+        <v>142690</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -10715,15 +10666,15 @@
         <v>34</v>
       </c>
       <c r="D175" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E175">
-        <f>VLOOKUP(C175, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C175, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F175">
         <f t="shared" si="2"/>
-        <v>725801</v>
+        <v>72580</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -10737,15 +10688,15 @@
         <v>34</v>
       </c>
       <c r="D176" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E176">
-        <f>VLOOKUP(C176, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C176, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F176">
         <f t="shared" si="2"/>
-        <v>592185</v>
+        <v>59218</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -10759,15 +10710,15 @@
         <v>35</v>
       </c>
       <c r="D177" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E177">
-        <f>VLOOKUP(C177, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C177, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F177">
         <f t="shared" si="2"/>
-        <v>144641</v>
+        <v>14464</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -10781,15 +10732,15 @@
         <v>35</v>
       </c>
       <c r="D178" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E178">
-        <f>VLOOKUP(C178, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C178, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F178">
         <f t="shared" si="2"/>
-        <v>153745</v>
+        <v>15374</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -10803,15 +10754,15 @@
         <v>35</v>
       </c>
       <c r="D179" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E179">
-        <f>VLOOKUP(C179, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C179, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F179">
         <f t="shared" si="2"/>
-        <v>111057</v>
+        <v>11105</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -10825,15 +10776,15 @@
         <v>35</v>
       </c>
       <c r="D180" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E180">
-        <f>VLOOKUP(C180, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C180, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F180">
         <f t="shared" si="2"/>
-        <v>102810</v>
+        <v>10281</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -10847,15 +10798,15 @@
         <v>35</v>
       </c>
       <c r="D181" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E181">
-        <f>VLOOKUP(C181, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C181, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F181">
         <f t="shared" si="2"/>
-        <v>164384</v>
+        <v>16438</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -10869,15 +10820,15 @@
         <v>35</v>
       </c>
       <c r="D182" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E182">
-        <f>VLOOKUP(C182, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C182, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F182">
         <f t="shared" si="2"/>
-        <v>167274</v>
+        <v>16727</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -10891,15 +10842,15 @@
         <v>35</v>
       </c>
       <c r="D183" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E183">
-        <f>VLOOKUP(C183, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C183, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F183">
         <f t="shared" si="2"/>
-        <v>161530</v>
+        <v>16153</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -10913,15 +10864,15 @@
         <v>35</v>
       </c>
       <c r="D184" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E184">
-        <f>VLOOKUP(C184, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C184, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F184">
         <f t="shared" si="2"/>
-        <v>173138</v>
+        <v>17313</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -10935,10 +10886,10 @@
         <v>36</v>
       </c>
       <c r="D185" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E185">
-        <f>VLOOKUP(C185, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C185, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F185">
@@ -10957,10 +10908,10 @@
         <v>36</v>
       </c>
       <c r="D186" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E186">
-        <f>VLOOKUP(C186, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C186, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F186">
@@ -10979,10 +10930,10 @@
         <v>36</v>
       </c>
       <c r="D187" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E187">
-        <f>VLOOKUP(C187, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C187, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F187">
@@ -11001,10 +10952,10 @@
         <v>36</v>
       </c>
       <c r="D188" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E188">
-        <f>VLOOKUP(C188, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C188, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F188">
@@ -11023,10 +10974,10 @@
         <v>36</v>
       </c>
       <c r="D189" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E189">
-        <f>VLOOKUP(C189, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C189, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F189">
@@ -11045,10 +10996,10 @@
         <v>36</v>
       </c>
       <c r="D190" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E190">
-        <f>VLOOKUP(C190, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C190, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F190">
@@ -11067,10 +11018,10 @@
         <v>36</v>
       </c>
       <c r="D191" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E191">
-        <f>VLOOKUP(C191, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C191, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F191">
@@ -11089,10 +11040,10 @@
         <v>36</v>
       </c>
       <c r="D192" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E192">
-        <f>VLOOKUP(C192, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C192, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F192">
@@ -11111,10 +11062,10 @@
         <v>37</v>
       </c>
       <c r="D193" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E193">
-        <f>VLOOKUP(C193, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C193, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F193">
@@ -11133,10 +11084,10 @@
         <v>37</v>
       </c>
       <c r="D194" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E194">
-        <f>VLOOKUP(C194, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C194, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F194">
@@ -11155,10 +11106,10 @@
         <v>37</v>
       </c>
       <c r="D195" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E195">
-        <f>VLOOKUP(C195, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C195, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F195">
@@ -11177,10 +11128,10 @@
         <v>37</v>
       </c>
       <c r="D196" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E196">
-        <f>VLOOKUP(C196, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C196, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F196">
@@ -11199,10 +11150,10 @@
         <v>37</v>
       </c>
       <c r="D197" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E197">
-        <f>VLOOKUP(C197, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C197, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F197">
@@ -11221,10 +11172,10 @@
         <v>37</v>
       </c>
       <c r="D198" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E198">
-        <f>VLOOKUP(C198, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C198, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F198">
@@ -11243,10 +11194,10 @@
         <v>37</v>
       </c>
       <c r="D199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E199">
-        <f>VLOOKUP(C199, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C199, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F199">
@@ -11265,10 +11216,10 @@
         <v>37</v>
       </c>
       <c r="D200" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E200">
-        <f>VLOOKUP(C200, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C200, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F200">
@@ -11287,10 +11238,10 @@
         <v>38</v>
       </c>
       <c r="D201" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E201">
-        <f>VLOOKUP(C201, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C201, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F201">
@@ -11309,10 +11260,10 @@
         <v>38</v>
       </c>
       <c r="D202" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E202">
-        <f>VLOOKUP(C202, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C202, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F202">
@@ -11331,10 +11282,10 @@
         <v>38</v>
       </c>
       <c r="D203" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E203">
-        <f>VLOOKUP(C203, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C203, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F203">
@@ -11353,10 +11304,10 @@
         <v>38</v>
       </c>
       <c r="D204" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E204">
-        <f>VLOOKUP(C204, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C204, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F204">
@@ -11375,10 +11326,10 @@
         <v>38</v>
       </c>
       <c r="D205" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E205">
-        <f>VLOOKUP(C205, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C205, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F205">
@@ -11397,10 +11348,10 @@
         <v>38</v>
       </c>
       <c r="D206" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E206">
-        <f>VLOOKUP(C206, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C206, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F206">
@@ -11419,10 +11370,10 @@
         <v>38</v>
       </c>
       <c r="D207" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E207">
-        <f>VLOOKUP(C207, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C207, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F207">
@@ -11441,10 +11392,10 @@
         <v>38</v>
       </c>
       <c r="D208" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E208">
-        <f>VLOOKUP(C208, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C208, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F208">
@@ -11463,10 +11414,10 @@
         <v>40</v>
       </c>
       <c r="D209" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E209">
-        <f>VLOOKUP(C209, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C209, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F209">
@@ -11485,10 +11436,10 @@
         <v>40</v>
       </c>
       <c r="D210" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E210">
-        <f>VLOOKUP(C210, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C210, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F210">
@@ -11507,10 +11458,10 @@
         <v>40</v>
       </c>
       <c r="D211" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E211">
-        <f>VLOOKUP(C211, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C211, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F211">
@@ -11529,10 +11480,10 @@
         <v>40</v>
       </c>
       <c r="D212" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E212">
-        <f>VLOOKUP(C212, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C212, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F212">
@@ -11551,10 +11502,10 @@
         <v>40</v>
       </c>
       <c r="D213" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E213">
-        <f>VLOOKUP(C213, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C213, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F213">
@@ -11573,10 +11524,10 @@
         <v>40</v>
       </c>
       <c r="D214" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E214">
-        <f>VLOOKUP(C214, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C214, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F214">
@@ -11595,10 +11546,10 @@
         <v>40</v>
       </c>
       <c r="D215" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E215">
-        <f>VLOOKUP(C215, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C215, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F215">
@@ -11617,10 +11568,10 @@
         <v>40</v>
       </c>
       <c r="D216" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E216">
-        <f>VLOOKUP(C216, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C216, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F216">
@@ -11639,10 +11590,10 @@
         <v>41</v>
       </c>
       <c r="D217" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E217">
-        <f>VLOOKUP(C217, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C217, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F217">
@@ -11661,10 +11612,10 @@
         <v>41</v>
       </c>
       <c r="D218" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E218">
-        <f>VLOOKUP(C218, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C218, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F218">
@@ -11683,10 +11634,10 @@
         <v>41</v>
       </c>
       <c r="D219" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E219">
-        <f>VLOOKUP(C219, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C219, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F219">
@@ -11705,10 +11656,10 @@
         <v>41</v>
       </c>
       <c r="D220" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E220">
-        <f>VLOOKUP(C220, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C220, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F220">
@@ -11727,10 +11678,10 @@
         <v>41</v>
       </c>
       <c r="D221" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E221">
-        <f>VLOOKUP(C221, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C221, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F221">
@@ -11749,10 +11700,10 @@
         <v>41</v>
       </c>
       <c r="D222" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E222">
-        <f>VLOOKUP(C222, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C222, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F222">
@@ -11771,10 +11722,10 @@
         <v>41</v>
       </c>
       <c r="D223" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E223">
-        <f>VLOOKUP(C223, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C223, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F223">
@@ -11793,10 +11744,10 @@
         <v>41</v>
       </c>
       <c r="D224" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E224">
-        <f>VLOOKUP(C224, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C224, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F224">
@@ -11815,10 +11766,10 @@
         <v>43</v>
       </c>
       <c r="D225" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E225">
-        <f>VLOOKUP(C225, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C225, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F225">
@@ -11837,10 +11788,10 @@
         <v>43</v>
       </c>
       <c r="D226" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E226">
-        <f>VLOOKUP(C226, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C226, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F226">
@@ -11859,10 +11810,10 @@
         <v>43</v>
       </c>
       <c r="D227" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E227">
-        <f>VLOOKUP(C227, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C227, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F227">
@@ -11881,10 +11832,10 @@
         <v>43</v>
       </c>
       <c r="D228" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E228">
-        <f>VLOOKUP(C228, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C228, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F228">
@@ -11903,10 +11854,10 @@
         <v>43</v>
       </c>
       <c r="D229" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E229">
-        <f>VLOOKUP(C229, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C229, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F229">
@@ -11925,10 +11876,10 @@
         <v>43</v>
       </c>
       <c r="D230" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E230">
-        <f>VLOOKUP(C230, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C230, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F230">
@@ -11947,10 +11898,10 @@
         <v>43</v>
       </c>
       <c r="D231" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E231">
-        <f>VLOOKUP(C231, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C231, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F231">
@@ -11969,10 +11920,10 @@
         <v>43</v>
       </c>
       <c r="D232" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E232">
-        <f>VLOOKUP(C232, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C232, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F232">
@@ -11991,10 +11942,10 @@
         <v>44</v>
       </c>
       <c r="D233" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E233">
-        <f>VLOOKUP(C233, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C233, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F233">
@@ -12013,10 +11964,10 @@
         <v>44</v>
       </c>
       <c r="D234" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E234">
-        <f>VLOOKUP(C234, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C234, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F234">
@@ -12035,10 +11986,10 @@
         <v>44</v>
       </c>
       <c r="D235" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E235">
-        <f>VLOOKUP(C235, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C235, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F235">
@@ -12057,10 +12008,10 @@
         <v>44</v>
       </c>
       <c r="D236" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E236">
-        <f>VLOOKUP(C236, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C236, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F236">
@@ -12079,10 +12030,10 @@
         <v>44</v>
       </c>
       <c r="D237" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E237">
-        <f>VLOOKUP(C237, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C237, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F237">
@@ -12101,10 +12052,10 @@
         <v>44</v>
       </c>
       <c r="D238" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E238">
-        <f>VLOOKUP(C238, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C238, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F238">
@@ -12123,10 +12074,10 @@
         <v>44</v>
       </c>
       <c r="D239" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E239">
-        <f>VLOOKUP(C239, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C239, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F239">
@@ -12145,10 +12096,10 @@
         <v>44</v>
       </c>
       <c r="D240" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E240">
-        <f>VLOOKUP(C240, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C240, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F240">
@@ -12167,10 +12118,10 @@
         <v>47</v>
       </c>
       <c r="D241" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E241">
-        <f>VLOOKUP(C241, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C241, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F241">
@@ -12189,10 +12140,10 @@
         <v>47</v>
       </c>
       <c r="D242" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E242">
-        <f>VLOOKUP(C242, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C242, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F242">
@@ -12211,10 +12162,10 @@
         <v>47</v>
       </c>
       <c r="D243" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E243">
-        <f>VLOOKUP(C243, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C243, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F243">
@@ -12233,10 +12184,10 @@
         <v>47</v>
       </c>
       <c r="D244" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E244">
-        <f>VLOOKUP(C244, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C244, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F244">
@@ -12255,10 +12206,10 @@
         <v>47</v>
       </c>
       <c r="D245" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E245">
-        <f>VLOOKUP(C245, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C245, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F245">
@@ -12277,10 +12228,10 @@
         <v>47</v>
       </c>
       <c r="D246" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E246">
-        <f>VLOOKUP(C246, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C246, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F246">
@@ -12299,10 +12250,10 @@
         <v>47</v>
       </c>
       <c r="D247" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E247">
-        <f>VLOOKUP(C247, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C247, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F247">
@@ -12321,10 +12272,10 @@
         <v>47</v>
       </c>
       <c r="D248" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E248">
-        <f>VLOOKUP(C248, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C248, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F248">
@@ -12343,10 +12294,10 @@
         <v>48</v>
       </c>
       <c r="D249" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E249">
-        <f>VLOOKUP(C249, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C249, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F249">
@@ -12365,10 +12316,10 @@
         <v>48</v>
       </c>
       <c r="D250" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E250">
-        <f>VLOOKUP(C250, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C250, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F250">
@@ -12387,10 +12338,10 @@
         <v>48</v>
       </c>
       <c r="D251" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E251">
-        <f>VLOOKUP(C251, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C251, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F251">
@@ -12409,10 +12360,10 @@
         <v>48</v>
       </c>
       <c r="D252" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E252">
-        <f>VLOOKUP(C252, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C252, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F252">
@@ -12431,10 +12382,10 @@
         <v>48</v>
       </c>
       <c r="D253" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E253">
-        <f>VLOOKUP(C253, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C253, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F253">
@@ -12453,10 +12404,10 @@
         <v>48</v>
       </c>
       <c r="D254" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E254">
-        <f>VLOOKUP(C254, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C254, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F254">
@@ -12475,10 +12426,10 @@
         <v>48</v>
       </c>
       <c r="D255" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E255">
-        <f>VLOOKUP(C255, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C255, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F255">
@@ -12497,10 +12448,10 @@
         <v>48</v>
       </c>
       <c r="D256" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E256">
-        <f>VLOOKUP(C256, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C256, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F256">
@@ -12519,10 +12470,10 @@
         <v>49</v>
       </c>
       <c r="D257" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E257">
-        <f>VLOOKUP(C257, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C257, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F257">
@@ -12541,10 +12492,10 @@
         <v>49</v>
       </c>
       <c r="D258" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E258">
-        <f>VLOOKUP(C258, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C258, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F258">
@@ -12563,10 +12514,10 @@
         <v>49</v>
       </c>
       <c r="D259" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E259">
-        <f>VLOOKUP(C259, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C259, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F259">
@@ -12585,10 +12536,10 @@
         <v>49</v>
       </c>
       <c r="D260" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E260">
-        <f>VLOOKUP(C260, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C260, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F260">
@@ -12607,10 +12558,10 @@
         <v>49</v>
       </c>
       <c r="D261" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E261">
-        <f>VLOOKUP(C261, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C261, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F261">
@@ -12629,10 +12580,10 @@
         <v>49</v>
       </c>
       <c r="D262" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E262">
-        <f>VLOOKUP(C262, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C262, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F262">
@@ -12651,10 +12602,10 @@
         <v>49</v>
       </c>
       <c r="D263" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E263">
-        <f>VLOOKUP(C263, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C263, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F263">
@@ -12673,10 +12624,10 @@
         <v>49</v>
       </c>
       <c r="D264" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E264">
-        <f>VLOOKUP(C264, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C264, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F264">
@@ -12695,10 +12646,10 @@
         <v>52</v>
       </c>
       <c r="D265" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E265">
-        <f>VLOOKUP(C265, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C265, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F265">
@@ -12717,10 +12668,10 @@
         <v>52</v>
       </c>
       <c r="D266" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E266">
-        <f>VLOOKUP(C266, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C266, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F266">
@@ -12739,10 +12690,10 @@
         <v>52</v>
       </c>
       <c r="D267" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E267">
-        <f>VLOOKUP(C267, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C267, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F267">
@@ -12761,10 +12712,10 @@
         <v>52</v>
       </c>
       <c r="D268" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E268">
-        <f>VLOOKUP(C268, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C268, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F268">
@@ -12783,10 +12734,10 @@
         <v>52</v>
       </c>
       <c r="D269" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E269">
-        <f>VLOOKUP(C269, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C269, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F269">
@@ -12805,10 +12756,10 @@
         <v>52</v>
       </c>
       <c r="D270" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E270">
-        <f>VLOOKUP(C270, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C270, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F270">
@@ -12827,10 +12778,10 @@
         <v>52</v>
       </c>
       <c r="D271" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E271">
-        <f>VLOOKUP(C271, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C271, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F271">
@@ -12849,10 +12800,10 @@
         <v>52</v>
       </c>
       <c r="D272" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E272">
-        <f>VLOOKUP(C272, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C272, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F272">
@@ -12871,10 +12822,10 @@
         <v>53</v>
       </c>
       <c r="D273" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E273">
-        <f>VLOOKUP(C273, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C273, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F273">
@@ -12893,10 +12844,10 @@
         <v>53</v>
       </c>
       <c r="D274" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E274">
-        <f>VLOOKUP(C274, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C274, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F274">
@@ -12915,10 +12866,10 @@
         <v>53</v>
       </c>
       <c r="D275" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E275">
-        <f>VLOOKUP(C275, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C275, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F275">
@@ -12937,10 +12888,10 @@
         <v>53</v>
       </c>
       <c r="D276" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E276">
-        <f>VLOOKUP(C276, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C276, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F276">
@@ -12959,10 +12910,10 @@
         <v>53</v>
       </c>
       <c r="D277" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E277">
-        <f>VLOOKUP(C277, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C277, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F277">
@@ -12981,10 +12932,10 @@
         <v>53</v>
       </c>
       <c r="D278" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E278">
-        <f>VLOOKUP(C278, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C278, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F278">
@@ -13003,10 +12954,10 @@
         <v>54</v>
       </c>
       <c r="D279" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E279">
-        <f>VLOOKUP(C279, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C279, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F279">
@@ -13025,10 +12976,10 @@
         <v>54</v>
       </c>
       <c r="D280" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E280">
-        <f>VLOOKUP(C280, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C280, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F280">
@@ -13047,10 +12998,10 @@
         <v>54</v>
       </c>
       <c r="D281" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E281">
-        <f>VLOOKUP(C281, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C281, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F281">
@@ -13069,10 +13020,10 @@
         <v>54</v>
       </c>
       <c r="D282" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E282">
-        <f>VLOOKUP(C282, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C282, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F282">
@@ -13091,10 +13042,10 @@
         <v>54</v>
       </c>
       <c r="D283" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E283">
-        <f>VLOOKUP(C283, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C283, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F283">
@@ -13113,10 +13064,10 @@
         <v>54</v>
       </c>
       <c r="D284" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E284">
-        <f>VLOOKUP(C284, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C284, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F284">
@@ -13135,10 +13086,10 @@
         <v>55</v>
       </c>
       <c r="D285" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E285">
-        <f>VLOOKUP(C285, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C285, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F285">
@@ -13157,10 +13108,10 @@
         <v>55</v>
       </c>
       <c r="D286" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E286">
-        <f>VLOOKUP(C286, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C286, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F286">
@@ -13179,10 +13130,10 @@
         <v>55</v>
       </c>
       <c r="D287" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E287">
-        <f>VLOOKUP(C287, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C287, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F287">
@@ -13201,10 +13152,10 @@
         <v>55</v>
       </c>
       <c r="D288" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E288">
-        <f>VLOOKUP(C288, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C288, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F288">
@@ -13223,10 +13174,10 @@
         <v>55</v>
       </c>
       <c r="D289" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E289">
-        <f>VLOOKUP(C289, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C289, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F289">
@@ -13245,10 +13196,10 @@
         <v>55</v>
       </c>
       <c r="D290" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E290">
-        <f>VLOOKUP(C290, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C290, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F290">
@@ -13267,10 +13218,10 @@
         <v>55</v>
       </c>
       <c r="D291" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E291">
-        <f>VLOOKUP(C291, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C291, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F291">
@@ -13289,10 +13240,10 @@
         <v>55</v>
       </c>
       <c r="D292" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E292">
-        <f>VLOOKUP(C292, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C292, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F292">
@@ -13311,10 +13262,10 @@
         <v>56</v>
       </c>
       <c r="D293" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E293">
-        <f>VLOOKUP(C293, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C293, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F293">
@@ -13333,10 +13284,10 @@
         <v>56</v>
       </c>
       <c r="D294" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E294">
-        <f>VLOOKUP(C294, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C294, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F294">
@@ -13355,10 +13306,10 @@
         <v>56</v>
       </c>
       <c r="D295" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E295">
-        <f>VLOOKUP(C295, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C295, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F295">
@@ -13377,10 +13328,10 @@
         <v>56</v>
       </c>
       <c r="D296" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E296">
-        <f>VLOOKUP(C296, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C296, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F296">
@@ -13399,10 +13350,10 @@
         <v>56</v>
       </c>
       <c r="D297" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E297">
-        <f>VLOOKUP(C297, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C297, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F297">
@@ -13421,10 +13372,10 @@
         <v>56</v>
       </c>
       <c r="D298" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E298">
-        <f>VLOOKUP(C298, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C298, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F298">
@@ -13443,10 +13394,10 @@
         <v>56</v>
       </c>
       <c r="D299" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E299">
-        <f>VLOOKUP(C299, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C299, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F299">
@@ -13465,10 +13416,10 @@
         <v>56</v>
       </c>
       <c r="D300" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E300">
-        <f>VLOOKUP(C300, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C300, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F300">
@@ -13487,15 +13438,15 @@
         <v>57</v>
       </c>
       <c r="D301" t="s">
-        <v>154</v>
-      </c>
-      <c r="E301">
-        <f>VLOOKUP(C301, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>6.35</v>
-      </c>
-      <c r="F301">
+        <v>153</v>
+      </c>
+      <c r="E301" t="e">
+        <f>VLOOKUP(C301, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F301" t="e">
         <f t="shared" si="4"/>
-        <v>7188</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -13509,15 +13460,15 @@
         <v>57</v>
       </c>
       <c r="D302" t="s">
-        <v>155</v>
-      </c>
-      <c r="E302">
-        <f>VLOOKUP(C302, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>6.35</v>
-      </c>
-      <c r="F302">
+        <v>154</v>
+      </c>
+      <c r="E302" t="e">
+        <f>VLOOKUP(C302, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F302" t="e">
         <f t="shared" si="4"/>
-        <v>908</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -13531,15 +13482,15 @@
         <v>57</v>
       </c>
       <c r="D303" t="s">
-        <v>156</v>
-      </c>
-      <c r="E303">
-        <f>VLOOKUP(C303, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>6.35</v>
-      </c>
-      <c r="F303">
+        <v>155</v>
+      </c>
+      <c r="E303" t="e">
+        <f>VLOOKUP(C303, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F303" t="e">
         <f t="shared" si="4"/>
-        <v>285</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -13553,15 +13504,15 @@
         <v>57</v>
       </c>
       <c r="D304" t="s">
-        <v>157</v>
-      </c>
-      <c r="E304">
-        <f>VLOOKUP(C304, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>6.35</v>
-      </c>
-      <c r="F304">
+        <v>156</v>
+      </c>
+      <c r="E304" t="e">
+        <f>VLOOKUP(C304, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F304" t="e">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -13575,15 +13526,15 @@
         <v>57</v>
       </c>
       <c r="D305" t="s">
-        <v>158</v>
-      </c>
-      <c r="E305">
-        <f>VLOOKUP(C305, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>6.35</v>
-      </c>
-      <c r="F305">
+        <v>157</v>
+      </c>
+      <c r="E305" t="e">
+        <f>VLOOKUP(C305, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F305" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -13597,15 +13548,15 @@
         <v>57</v>
       </c>
       <c r="D306" t="s">
-        <v>159</v>
-      </c>
-      <c r="E306">
-        <f>VLOOKUP(C306, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>6.35</v>
-      </c>
-      <c r="F306">
+        <v>158</v>
+      </c>
+      <c r="E306" t="e">
+        <f>VLOOKUP(C306, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F306" t="e">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -13619,15 +13570,15 @@
         <v>57</v>
       </c>
       <c r="D307" t="s">
-        <v>160</v>
-      </c>
-      <c r="E307">
-        <f>VLOOKUP(C307, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>6.35</v>
-      </c>
-      <c r="F307">
+        <v>159</v>
+      </c>
+      <c r="E307" t="e">
+        <f>VLOOKUP(C307, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F307" t="e">
         <f t="shared" si="4"/>
-        <v>107</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -13641,10 +13592,10 @@
         <v>59</v>
       </c>
       <c r="D308" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E308">
-        <f>VLOOKUP(C308, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C308, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F308">
@@ -13663,10 +13614,10 @@
         <v>59</v>
       </c>
       <c r="D309" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E309">
-        <f>VLOOKUP(C309, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C309, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F309">
@@ -13685,10 +13636,10 @@
         <v>59</v>
       </c>
       <c r="D310" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E310">
-        <f>VLOOKUP(C310, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C310, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F310">
@@ -13707,10 +13658,10 @@
         <v>59</v>
       </c>
       <c r="D311" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E311">
-        <f>VLOOKUP(C311, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C311, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F311">
@@ -13729,10 +13680,10 @@
         <v>59</v>
       </c>
       <c r="D312" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E312">
-        <f>VLOOKUP(C312, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C312, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F312">
@@ -13751,10 +13702,10 @@
         <v>59</v>
       </c>
       <c r="D313" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E313">
-        <f>VLOOKUP(C313, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C313, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F313">
@@ -13773,10 +13724,10 @@
         <v>59</v>
       </c>
       <c r="D314" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E314">
-        <f>VLOOKUP(C314, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C314, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F314">
@@ -13795,10 +13746,10 @@
         <v>59</v>
       </c>
       <c r="D315" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E315">
-        <f>VLOOKUP(C315, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C315, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F315">
@@ -13817,10 +13768,10 @@
         <v>60</v>
       </c>
       <c r="D316" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E316">
-        <f>VLOOKUP(C316, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C316, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F316">
@@ -13839,10 +13790,10 @@
         <v>60</v>
       </c>
       <c r="D317" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E317">
-        <f>VLOOKUP(C317, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C317, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F317">
@@ -13861,10 +13812,10 @@
         <v>60</v>
       </c>
       <c r="D318" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E318">
-        <f>VLOOKUP(C318, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C318, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F318">
@@ -13883,10 +13834,10 @@
         <v>60</v>
       </c>
       <c r="D319" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E319">
-        <f>VLOOKUP(C319, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C319, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F319">
@@ -13905,10 +13856,10 @@
         <v>60</v>
       </c>
       <c r="D320" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E320">
-        <f>VLOOKUP(C320, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C320, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F320">
@@ -13927,10 +13878,10 @@
         <v>60</v>
       </c>
       <c r="D321" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E321">
-        <f>VLOOKUP(C321, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C321, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F321">
@@ -13949,10 +13900,10 @@
         <v>60</v>
       </c>
       <c r="D322" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E322">
-        <f>VLOOKUP(C322, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C322, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F322">
@@ -13971,10 +13922,10 @@
         <v>60</v>
       </c>
       <c r="D323" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E323">
-        <f>VLOOKUP(C323, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C323, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F323">
@@ -13993,10 +13944,10 @@
         <v>61</v>
       </c>
       <c r="D324" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E324">
-        <f>VLOOKUP(C324, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C324, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F324">
@@ -14015,10 +13966,10 @@
         <v>61</v>
       </c>
       <c r="D325" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E325">
-        <f>VLOOKUP(C325, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C325, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F325">
@@ -14037,10 +13988,10 @@
         <v>61</v>
       </c>
       <c r="D326" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E326">
-        <f>VLOOKUP(C326, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C326, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F326">
@@ -14059,10 +14010,10 @@
         <v>61</v>
       </c>
       <c r="D327" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E327">
-        <f>VLOOKUP(C327, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C327, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F327">
@@ -14081,10 +14032,10 @@
         <v>61</v>
       </c>
       <c r="D328" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E328">
-        <f>VLOOKUP(C328, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C328, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F328">
@@ -14103,10 +14054,10 @@
         <v>61</v>
       </c>
       <c r="D329" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E329">
-        <f>VLOOKUP(C329, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C329, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F329">
@@ -14125,10 +14076,10 @@
         <v>62</v>
       </c>
       <c r="D330" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E330">
-        <f>VLOOKUP(C330, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C330, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F330">
@@ -14147,10 +14098,10 @@
         <v>62</v>
       </c>
       <c r="D331" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E331">
-        <f>VLOOKUP(C331, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C331, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F331">
@@ -14169,10 +14120,10 @@
         <v>62</v>
       </c>
       <c r="D332" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E332">
-        <f>VLOOKUP(C332, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C332, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F332">
@@ -14191,10 +14142,10 @@
         <v>62</v>
       </c>
       <c r="D333" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E333">
-        <f>VLOOKUP(C333, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C333, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F333">
@@ -14213,10 +14164,10 @@
         <v>62</v>
       </c>
       <c r="D334" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E334">
-        <f>VLOOKUP(C334, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C334, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F334">
@@ -14235,10 +14186,10 @@
         <v>62</v>
       </c>
       <c r="D335" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E335">
-        <f>VLOOKUP(C335, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C335, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F335">
@@ -14257,10 +14208,10 @@
         <v>64</v>
       </c>
       <c r="D336" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E336">
-        <f>VLOOKUP(C336, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C336, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F336">
@@ -14279,10 +14230,10 @@
         <v>64</v>
       </c>
       <c r="D337" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E337">
-        <f>VLOOKUP(C337, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C337, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F337">
@@ -14301,10 +14252,10 @@
         <v>64</v>
       </c>
       <c r="D338" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E338">
-        <f>VLOOKUP(C338, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C338, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F338">
@@ -14323,10 +14274,10 @@
         <v>64</v>
       </c>
       <c r="D339" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E339">
-        <f>VLOOKUP(C339, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C339, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F339">
@@ -14345,10 +14296,10 @@
         <v>64</v>
       </c>
       <c r="D340" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E340">
-        <f>VLOOKUP(C340, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C340, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F340">
@@ -14367,10 +14318,10 @@
         <v>64</v>
       </c>
       <c r="D341" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E341">
-        <f>VLOOKUP(C341, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C341, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F341">
@@ -14389,10 +14340,10 @@
         <v>64</v>
       </c>
       <c r="D342" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E342">
-        <f>VLOOKUP(C342, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C342, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F342">
@@ -14411,10 +14362,10 @@
         <v>64</v>
       </c>
       <c r="D343" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E343">
-        <f>VLOOKUP(C343, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C343, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F343">
@@ -14433,10 +14384,10 @@
         <v>65</v>
       </c>
       <c r="D344" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E344">
-        <f>VLOOKUP(C344, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C344, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F344">
@@ -14455,10 +14406,10 @@
         <v>65</v>
       </c>
       <c r="D345" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E345">
-        <f>VLOOKUP(C345, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C345, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F345">
@@ -14477,10 +14428,10 @@
         <v>65</v>
       </c>
       <c r="D346" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E346">
-        <f>VLOOKUP(C346, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C346, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F346">
@@ -14499,10 +14450,10 @@
         <v>65</v>
       </c>
       <c r="D347" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E347">
-        <f>VLOOKUP(C347, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C347, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F347">
@@ -14521,10 +14472,10 @@
         <v>65</v>
       </c>
       <c r="D348" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E348">
-        <f>VLOOKUP(C348, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C348, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F348">
@@ -14543,10 +14494,10 @@
         <v>65</v>
       </c>
       <c r="D349" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E349">
-        <f>VLOOKUP(C349, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C349, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F349">
@@ -14565,10 +14516,10 @@
         <v>65</v>
       </c>
       <c r="D350" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E350">
-        <f>VLOOKUP(C350, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C350, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F350">
@@ -14587,10 +14538,10 @@
         <v>65</v>
       </c>
       <c r="D351" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E351">
-        <f>VLOOKUP(C351, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C351, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F351">
@@ -14609,10 +14560,10 @@
         <v>66</v>
       </c>
       <c r="D352" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E352">
-        <f>VLOOKUP(C352, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C352, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F352">
@@ -14631,10 +14582,10 @@
         <v>66</v>
       </c>
       <c r="D353" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E353">
-        <f>VLOOKUP(C353, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C353, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F353">
@@ -14653,10 +14604,10 @@
         <v>66</v>
       </c>
       <c r="D354" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E354">
-        <f>VLOOKUP(C354, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C354, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F354">
@@ -14675,10 +14626,10 @@
         <v>66</v>
       </c>
       <c r="D355" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E355">
-        <f>VLOOKUP(C355, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C355, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F355">
@@ -14697,10 +14648,10 @@
         <v>66</v>
       </c>
       <c r="D356" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E356">
-        <f>VLOOKUP(C356, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C356, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F356">
@@ -14719,10 +14670,10 @@
         <v>66</v>
       </c>
       <c r="D357" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E357">
-        <f>VLOOKUP(C357, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C357, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F357">
@@ -14741,10 +14692,10 @@
         <v>66</v>
       </c>
       <c r="D358" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E358">
-        <f>VLOOKUP(C358, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C358, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F358">
@@ -14763,10 +14714,10 @@
         <v>66</v>
       </c>
       <c r="D359" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E359">
-        <f>VLOOKUP(C359, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C359, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F359">
@@ -14785,10 +14736,10 @@
         <v>67</v>
       </c>
       <c r="D360" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E360">
-        <f>VLOOKUP(C360, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C360, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F360">
@@ -14807,10 +14758,10 @@
         <v>67</v>
       </c>
       <c r="D361" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E361">
-        <f>VLOOKUP(C361, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C361, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F361">
@@ -14829,10 +14780,10 @@
         <v>67</v>
       </c>
       <c r="D362" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E362">
-        <f>VLOOKUP(C362, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C362, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F362">
@@ -14851,10 +14802,10 @@
         <v>67</v>
       </c>
       <c r="D363" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E363">
-        <f>VLOOKUP(C363, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C363, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F363">
@@ -14873,10 +14824,10 @@
         <v>67</v>
       </c>
       <c r="D364" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E364">
-        <f>VLOOKUP(C364, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C364, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F364">
@@ -14895,10 +14846,10 @@
         <v>67</v>
       </c>
       <c r="D365" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E365">
-        <f>VLOOKUP(C365, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C365, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F365">
@@ -14917,10 +14868,10 @@
         <v>67</v>
       </c>
       <c r="D366" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E366">
-        <f>VLOOKUP(C366, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C366, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F366">
@@ -14939,10 +14890,10 @@
         <v>67</v>
       </c>
       <c r="D367" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E367">
-        <f>VLOOKUP(C367, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C367, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F367">
@@ -14961,10 +14912,10 @@
         <v>69</v>
       </c>
       <c r="D368" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E368">
-        <f>VLOOKUP(C368, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C368, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F368">
@@ -14983,10 +14934,10 @@
         <v>69</v>
       </c>
       <c r="D369" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E369">
-        <f>VLOOKUP(C369, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C369, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F369">
@@ -15005,10 +14956,10 @@
         <v>69</v>
       </c>
       <c r="D370" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E370">
-        <f>VLOOKUP(C370, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C370, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F370">
@@ -15027,10 +14978,10 @@
         <v>69</v>
       </c>
       <c r="D371" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E371">
-        <f>VLOOKUP(C371, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C371, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F371">
@@ -15049,10 +15000,10 @@
         <v>69</v>
       </c>
       <c r="D372" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E372">
-        <f>VLOOKUP(C372, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C372, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F372">
@@ -15071,10 +15022,10 @@
         <v>69</v>
       </c>
       <c r="D373" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E373">
-        <f>VLOOKUP(C373, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C373, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F373">
@@ -15093,10 +15044,10 @@
         <v>69</v>
       </c>
       <c r="D374" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E374">
-        <f>VLOOKUP(C374, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C374, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F374">
@@ -15115,10 +15066,10 @@
         <v>69</v>
       </c>
       <c r="D375" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E375">
-        <f>VLOOKUP(C375, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C375, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F375">
@@ -15137,10 +15088,10 @@
         <v>70</v>
       </c>
       <c r="D376" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E376">
-        <f>VLOOKUP(C376, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C376, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F376">
@@ -15159,10 +15110,10 @@
         <v>70</v>
       </c>
       <c r="D377" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E377">
-        <f>VLOOKUP(C377, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C377, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F377">
@@ -15181,10 +15132,10 @@
         <v>70</v>
       </c>
       <c r="D378" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E378">
-        <f>VLOOKUP(C378, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C378, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F378">
@@ -15203,10 +15154,10 @@
         <v>70</v>
       </c>
       <c r="D379" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E379">
-        <f>VLOOKUP(C379, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C379, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F379">
@@ -15225,10 +15176,10 @@
         <v>70</v>
       </c>
       <c r="D380" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E380">
-        <f>VLOOKUP(C380, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C380, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F380">
@@ -15247,10 +15198,10 @@
         <v>70</v>
       </c>
       <c r="D381" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E381">
-        <f>VLOOKUP(C381, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C381, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F381">
@@ -15269,10 +15220,10 @@
         <v>70</v>
       </c>
       <c r="D382" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E382">
-        <f>VLOOKUP(C382, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C382, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F382">
@@ -15291,10 +15242,10 @@
         <v>70</v>
       </c>
       <c r="D383" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E383">
-        <f>VLOOKUP(C383, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C383, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F383">
@@ -15313,10 +15264,10 @@
         <v>71</v>
       </c>
       <c r="D384" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E384">
-        <f>VLOOKUP(C384, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C384, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F384">
@@ -15335,10 +15286,10 @@
         <v>71</v>
       </c>
       <c r="D385" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E385">
-        <f>VLOOKUP(C385, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C385, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F385">
@@ -15357,10 +15308,10 @@
         <v>71</v>
       </c>
       <c r="D386" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E386">
-        <f>VLOOKUP(C386, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C386, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F386">
@@ -15379,10 +15330,10 @@
         <v>71</v>
       </c>
       <c r="D387" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E387">
-        <f>VLOOKUP(C387, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C387, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F387">
@@ -15401,10 +15352,10 @@
         <v>71</v>
       </c>
       <c r="D388" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E388">
-        <f>VLOOKUP(C388, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C388, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F388">
@@ -15423,10 +15374,10 @@
         <v>71</v>
       </c>
       <c r="D389" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E389">
-        <f>VLOOKUP(C389, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C389, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F389">
@@ -15445,10 +15396,10 @@
         <v>71</v>
       </c>
       <c r="D390" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E390">
-        <f>VLOOKUP(C390, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C390, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F390">
@@ -15467,10 +15418,10 @@
         <v>71</v>
       </c>
       <c r="D391" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E391">
-        <f>VLOOKUP(C391, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C391, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F391">
@@ -15499,22 +15450,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -15528,10 +15479,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP(C2, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C2, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F2">
@@ -15550,10 +15501,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3">
-        <f>VLOOKUP(C3, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C3, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F3">
@@ -15572,10 +15523,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4">
-        <f>VLOOKUP(C4, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C4, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F4">
@@ -15594,10 +15545,10 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5">
-        <f>VLOOKUP(C5, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C5, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F5">
@@ -15616,10 +15567,10 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6">
-        <f>VLOOKUP(C6, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C6, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F6">
@@ -15638,10 +15589,10 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7">
-        <f>VLOOKUP(C7, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C7, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F7">
@@ -15660,10 +15611,10 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8">
-        <f>VLOOKUP(C8, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C8, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F8">
@@ -15682,10 +15633,10 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9">
-        <f>VLOOKUP(C9, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C9, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F9">
@@ -15704,10 +15655,10 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E10">
-        <f>VLOOKUP(C10, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C10, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F10">
@@ -15723,13 +15674,13 @@
         <v>17427</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11">
-        <f>VLOOKUP(C11, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C11, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F11">
@@ -15748,10 +15699,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E12">
-        <f>VLOOKUP(C12, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C12, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F12">
@@ -15770,10 +15721,10 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13">
-        <f>VLOOKUP(C13, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C13, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F13">
@@ -15792,10 +15743,10 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14">
-        <f>VLOOKUP(C14, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C14, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F14">
@@ -15814,10 +15765,10 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E15">
-        <f>VLOOKUP(C15, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C15, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F15">
@@ -15836,10 +15787,10 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E16">
-        <f>VLOOKUP(C16, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C16, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F16">
@@ -15858,10 +15809,10 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17">
-        <f>VLOOKUP(C17, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C17, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F17">
@@ -15880,10 +15831,10 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E18">
-        <f>VLOOKUP(C18, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C18, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F18">
@@ -15902,10 +15853,10 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E19">
-        <f>VLOOKUP(C19, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C19, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F19">
@@ -15924,10 +15875,10 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E20">
-        <f>VLOOKUP(C20, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C20, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F20">
@@ -15946,10 +15897,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E21">
-        <f>VLOOKUP(C21, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C21, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F21">
@@ -15968,10 +15919,10 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E22">
-        <f>VLOOKUP(C22, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C22, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F22">
@@ -15990,15 +15941,15 @@
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E23">
-        <f>VLOOKUP(C23, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C23, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>1258081</v>
+        <v>125808</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -16012,15 +15963,15 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E24">
-        <f>VLOOKUP(C24, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C24, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>138793</v>
+        <v>13879</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -16034,10 +15985,10 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E25">
-        <f>VLOOKUP(C25, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C25, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F25">
@@ -16056,10 +16007,10 @@
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E26">
-        <f>VLOOKUP(C26, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C26, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F26">
@@ -16078,10 +16029,10 @@
         <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E27">
-        <f>VLOOKUP(C27, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C27, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F27">
@@ -16100,10 +16051,10 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E28">
-        <f>VLOOKUP(C28, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C28, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F28">
@@ -16122,10 +16073,10 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E29">
-        <f>VLOOKUP(C29, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C29, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F29">
@@ -16144,10 +16095,10 @@
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E30">
-        <f>VLOOKUP(C30, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C30, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F30">
@@ -16166,10 +16117,10 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E31">
-        <f>VLOOKUP(C31, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C31, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F31">
@@ -16188,10 +16139,10 @@
         <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E32">
-        <f>VLOOKUP(C32, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C32, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F32">
@@ -16210,10 +16161,10 @@
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E33">
-        <f>VLOOKUP(C33, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C33, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F33">
@@ -16232,10 +16183,10 @@
         <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E34">
-        <f>VLOOKUP(C34, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C34, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F34">
@@ -16254,10 +16205,10 @@
         <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E35">
-        <f>VLOOKUP(C35, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C35, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F35">
@@ -16276,10 +16227,10 @@
         <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E36">
-        <f>VLOOKUP(C36, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C36, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F36">
@@ -16298,10 +16249,10 @@
         <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E37">
-        <f>VLOOKUP(C37, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C37, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F37">
@@ -16320,10 +16271,10 @@
         <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E38">
-        <f>VLOOKUP(C38, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C38, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F38">
@@ -16342,10 +16293,10 @@
         <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E39">
-        <f>VLOOKUP(C39, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C39, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F39">
@@ -16364,15 +16315,15 @@
         <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
-      </c>
-      <c r="E40">
-        <f>VLOOKUP(C40, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>6.35</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <v>160</v>
+      </c>
+      <c r="E40" t="e">
+        <f>VLOOKUP(C40, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F40" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -16386,10 +16337,10 @@
         <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E41">
-        <f>VLOOKUP(C41, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C41, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F41">
@@ -16408,10 +16359,10 @@
         <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E42">
-        <f>VLOOKUP(C42, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C42, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F42">
@@ -16430,10 +16381,10 @@
         <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E43">
-        <f>VLOOKUP(C43, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C43, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F43">
@@ -16452,10 +16403,10 @@
         <v>62</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E44">
-        <f>VLOOKUP(C44, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C44, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F44">
@@ -16474,10 +16425,10 @@
         <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E45">
-        <f>VLOOKUP(C45, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C45, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F45">
@@ -16496,10 +16447,10 @@
         <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E46">
-        <f>VLOOKUP(C46, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C46, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F46">
@@ -16518,10 +16469,10 @@
         <v>66</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E47">
-        <f>VLOOKUP(C47, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C47, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F47">
@@ -16540,10 +16491,10 @@
         <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E48">
-        <f>VLOOKUP(C48, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C48, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F48">
@@ -16562,10 +16513,10 @@
         <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E49">
-        <f>VLOOKUP(C49, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C49, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F49">
@@ -16584,10 +16535,10 @@
         <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E50">
-        <f>VLOOKUP(C50, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C50, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F50">
@@ -16606,10 +16557,10 @@
         <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E51">
-        <f>VLOOKUP(C51, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C51, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F51">

--- a/data/OI_product_map.xlsx
+++ b/data/OI_product_map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FA158E0-40FE-4FA9-BF93-574CCB9B303E}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45DEAC48-0270-444B-B792-C330FDBEEFB8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="169">
   <si>
     <t>Product Family</t>
   </si>
@@ -533,6 +533,27 @@
   </si>
   <si>
     <t>OI_raw</t>
+  </si>
+  <si>
+    <t>Crude</t>
+  </si>
+  <si>
+    <t>Brent Crude Futures</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>WBS</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>WTI</t>
+  </si>
+  <si>
+    <t>WTI Crude Futures</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1415,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23CDFA64-99A4-40E4-9BAE-6970E7183312}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23CDFA64-99A4-40E4-9BAE-6970E7183312}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -1950,10 +1971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2066,14 +2087,14 @@
         <v>5</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C62" si="1">_xlfn.CONCAT("[",A3,"] ",B3)</f>
+        <f t="shared" ref="C3:C64" si="1">_xlfn.CONCAT("[",A3,"] ",B3)</f>
         <v>[Light] S92</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E62" si="2">_xlfn.CONCAT("'",D3,"',")</f>
+        <f t="shared" ref="E3:E64" si="2">_xlfn.CONCAT("'",D3,"',")</f>
         <v>'GDK',</v>
       </c>
       <c r="F3">
@@ -3553,7 +3574,7 @@
         <v>90</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" ref="H35:H62" si="4">_xlfn.CONCAT(D35," (",G35, ")")</f>
+        <f t="shared" ref="H35:H64" si="4">_xlfn.CONCAT(D35," (",G35, ")")</f>
         <v>BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)</v>
       </c>
       <c r="I35" t="str">
@@ -4814,6 +4835,94 @@
       </c>
       <c r="M62" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>[Crude] Brent</v>
+      </c>
+      <c r="D63" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="2"/>
+        <v>'BRN',</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>163</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="4"/>
+        <v>BRN (Brent Crude Futures)</v>
+      </c>
+      <c r="I63" t="s">
+        <v>139</v>
+      </c>
+      <c r="J63" t="s">
+        <v>128</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>162</v>
+      </c>
+      <c r="M63" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="1"/>
+        <v>[Crude] WTI</v>
+      </c>
+      <c r="D64" t="s">
+        <v>165</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="2"/>
+        <v>'WBS',</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>168</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="4"/>
+        <v>WBS (WTI Crude Futures)</v>
+      </c>
+      <c r="I64" t="s">
+        <v>139</v>
+      </c>
+      <c r="J64" t="s">
+        <v>128</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>162</v>
+      </c>
+      <c r="M64" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4827,7 +4936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79F6FFB-87B1-4A05-841C-8DAB5CB24C7E}">
   <dimension ref="A3:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -6819,7 +6928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DB2451-FAC1-40C5-BCBA-F1F61399D256}">
   <dimension ref="A1:F391"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -15438,7 +15547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BA5690-24F1-429B-8473-7C23A039C6B1}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
